--- a/backend/data/LigaPremier.xlsx
+++ b/backend/data/LigaPremier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A29B9F2E-A8CB-42D0-98E5-D2062CB67C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25EBFEF5-26FE-4AF3-A9D9-E7B4F71DB2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="812">
   <si>
     <t>Id_jugador</t>
   </si>
@@ -2030,9 +2030,6 @@
   </si>
   <si>
     <t>https://cdn.resfu.com/img_data/players/medium/3758481.jpg?size=60x&amp;lossy=1</t>
-  </si>
-  <si>
-    <t>https://cdn.resfu.com/img_data/players/medium/3319277.jpg?size=120x&amp;lossy=1</t>
   </si>
   <si>
     <t>https://cdn.resfu.com/img_data/players/medium/986464.jpg?size=60x&amp;lossy=1</t>
@@ -2839,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G457"/>
+  <dimension ref="A1:G456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2884,13 +2881,13 @@
         <v>432</v>
       </c>
       <c r="E2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F2">
         <v>1014</v>
       </c>
       <c r="G2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2907,13 +2904,13 @@
         <v>433</v>
       </c>
       <c r="E3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F3">
         <v>1014</v>
       </c>
       <c r="G3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2930,13 +2927,13 @@
         <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F4">
         <v>1014</v>
       </c>
       <c r="G4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2953,13 +2950,13 @@
         <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F5">
         <v>1014</v>
       </c>
       <c r="G5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2976,13 +2973,13 @@
         <v>436</v>
       </c>
       <c r="E6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F6">
         <v>1014</v>
       </c>
       <c r="G6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2999,13 +2996,13 @@
         <v>437</v>
       </c>
       <c r="E7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F7">
         <v>1014</v>
       </c>
       <c r="G7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3022,13 +3019,13 @@
         <v>438</v>
       </c>
       <c r="E8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F8">
         <v>1014</v>
       </c>
       <c r="G8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3045,13 +3042,13 @@
         <v>439</v>
       </c>
       <c r="E9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F9">
         <v>1014</v>
       </c>
       <c r="G9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3068,13 +3065,13 @@
         <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F10">
         <v>1014</v>
       </c>
       <c r="G10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3091,13 +3088,13 @@
         <v>441</v>
       </c>
       <c r="E11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F11">
         <v>1014</v>
       </c>
       <c r="G11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3114,13 +3111,13 @@
         <v>442</v>
       </c>
       <c r="E12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F12">
         <v>1014</v>
       </c>
       <c r="G12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3137,13 +3134,13 @@
         <v>432</v>
       </c>
       <c r="E13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F13">
         <v>1014</v>
       </c>
       <c r="G13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3160,13 +3157,13 @@
         <v>443</v>
       </c>
       <c r="E14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F14">
         <v>1014</v>
       </c>
       <c r="G14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3183,13 +3180,13 @@
         <v>444</v>
       </c>
       <c r="E15" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F15">
         <v>1014</v>
       </c>
       <c r="G15" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3206,13 +3203,13 @@
         <v>445</v>
       </c>
       <c r="E16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F16">
         <v>1014</v>
       </c>
       <c r="G16" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3229,13 +3226,13 @@
         <v>446</v>
       </c>
       <c r="E17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F17">
         <v>1014</v>
       </c>
       <c r="G17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3252,13 +3249,13 @@
         <v>447</v>
       </c>
       <c r="E18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F18">
         <v>1014</v>
       </c>
       <c r="G18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3275,13 +3272,13 @@
         <v>448</v>
       </c>
       <c r="E19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F19">
         <v>1014</v>
       </c>
       <c r="G19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3298,13 +3295,13 @@
         <v>449</v>
       </c>
       <c r="E20" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F20">
         <v>1014</v>
       </c>
       <c r="G20" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3321,13 +3318,13 @@
         <v>450</v>
       </c>
       <c r="E21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F21">
         <v>1014</v>
       </c>
       <c r="G21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3344,13 +3341,13 @@
         <v>432</v>
       </c>
       <c r="E22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F22">
         <v>1014</v>
       </c>
       <c r="G22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3367,13 +3364,13 @@
         <v>451</v>
       </c>
       <c r="E23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F23">
         <v>1014</v>
       </c>
       <c r="G23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3390,13 +3387,13 @@
         <v>452</v>
       </c>
       <c r="E24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F24">
         <v>1014</v>
       </c>
       <c r="G24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3413,13 +3410,13 @@
         <v>432</v>
       </c>
       <c r="E25" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F25">
         <v>1014</v>
       </c>
       <c r="G25" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3436,13 +3433,13 @@
         <v>432</v>
       </c>
       <c r="E26" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F26">
         <v>1014</v>
       </c>
       <c r="G26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3459,13 +3456,13 @@
         <v>453</v>
       </c>
       <c r="E27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F27">
         <v>1014</v>
       </c>
       <c r="G27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3482,13 +3479,13 @@
         <v>454</v>
       </c>
       <c r="E28" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F28">
         <v>1014</v>
       </c>
       <c r="G28" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3505,13 +3502,13 @@
         <v>432</v>
       </c>
       <c r="E29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F29">
         <v>1014</v>
       </c>
       <c r="G29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3528,13 +3525,13 @@
         <v>455</v>
       </c>
       <c r="E30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F30">
         <v>1014</v>
       </c>
       <c r="G30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -3551,13 +3548,13 @@
         <v>456</v>
       </c>
       <c r="E31" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F31">
         <v>1014</v>
       </c>
       <c r="G31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -3574,13 +3571,13 @@
         <v>457</v>
       </c>
       <c r="E32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F32">
         <v>1014</v>
       </c>
       <c r="G32" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3597,13 +3594,13 @@
         <v>458</v>
       </c>
       <c r="E33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F33">
         <v>1014</v>
       </c>
       <c r="G33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3620,13 +3617,13 @@
         <v>459</v>
       </c>
       <c r="E34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F34">
         <v>1014</v>
       </c>
       <c r="G34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3643,13 +3640,13 @@
         <v>460</v>
       </c>
       <c r="E35" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F35">
         <v>1014</v>
       </c>
       <c r="G35" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3666,13 +3663,13 @@
         <v>432</v>
       </c>
       <c r="E36" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F36">
         <v>1014</v>
       </c>
       <c r="G36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3689,13 +3686,13 @@
         <v>461</v>
       </c>
       <c r="E37" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F37">
         <v>1014</v>
       </c>
       <c r="G37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3712,13 +3709,13 @@
         <v>432</v>
       </c>
       <c r="E38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F38">
         <v>1014</v>
       </c>
       <c r="G38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3735,13 +3732,13 @@
         <v>462</v>
       </c>
       <c r="E39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F39">
         <v>1013</v>
       </c>
       <c r="G39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3758,13 +3755,13 @@
         <v>432</v>
       </c>
       <c r="E40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F40">
         <v>1013</v>
       </c>
       <c r="G40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3781,13 +3778,13 @@
         <v>463</v>
       </c>
       <c r="E41" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F41">
         <v>1013</v>
       </c>
       <c r="G41" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3804,13 +3801,13 @@
         <v>464</v>
       </c>
       <c r="E42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F42">
         <v>1013</v>
       </c>
       <c r="G42" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3827,13 +3824,13 @@
         <v>432</v>
       </c>
       <c r="E43" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F43">
         <v>1013</v>
       </c>
       <c r="G43" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3850,13 +3847,13 @@
         <v>465</v>
       </c>
       <c r="E44" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F44">
         <v>1013</v>
       </c>
       <c r="G44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3873,13 +3870,13 @@
         <v>466</v>
       </c>
       <c r="E45" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F45">
         <v>1013</v>
       </c>
       <c r="G45" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3896,13 +3893,13 @@
         <v>467</v>
       </c>
       <c r="E46" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F46">
         <v>1013</v>
       </c>
       <c r="G46" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3919,13 +3916,13 @@
         <v>468</v>
       </c>
       <c r="E47" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F47">
         <v>1013</v>
       </c>
       <c r="G47" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3942,13 +3939,13 @@
         <v>469</v>
       </c>
       <c r="E48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F48">
         <v>1013</v>
       </c>
       <c r="G48" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -3965,13 +3962,13 @@
         <v>470</v>
       </c>
       <c r="E49" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F49">
         <v>1013</v>
       </c>
       <c r="G49" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -3988,13 +3985,13 @@
         <v>471</v>
       </c>
       <c r="E50" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F50">
         <v>1013</v>
       </c>
       <c r="G50" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -4011,13 +4008,13 @@
         <v>472</v>
       </c>
       <c r="E51" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F51">
         <v>1013</v>
       </c>
       <c r="G51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -4034,13 +4031,13 @@
         <v>473</v>
       </c>
       <c r="E52" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F52">
         <v>1013</v>
       </c>
       <c r="G52" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -4057,13 +4054,13 @@
         <v>474</v>
       </c>
       <c r="E53" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F53">
         <v>1013</v>
       </c>
       <c r="G53" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -4080,13 +4077,13 @@
         <v>432</v>
       </c>
       <c r="E54" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F54">
         <v>1013</v>
       </c>
       <c r="G54" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -4103,13 +4100,13 @@
         <v>432</v>
       </c>
       <c r="E55" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F55">
         <v>1013</v>
       </c>
       <c r="G55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -4126,13 +4123,13 @@
         <v>432</v>
       </c>
       <c r="E56" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F56">
         <v>1013</v>
       </c>
       <c r="G56" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -4149,13 +4146,13 @@
         <v>475</v>
       </c>
       <c r="E57" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F57">
         <v>1013</v>
       </c>
       <c r="G57" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -4172,13 +4169,13 @@
         <v>432</v>
       </c>
       <c r="E58" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F58">
         <v>1013</v>
       </c>
       <c r="G58" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -4195,13 +4192,13 @@
         <v>476</v>
       </c>
       <c r="E59" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F59">
         <v>1013</v>
       </c>
       <c r="G59" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -4218,13 +4215,13 @@
         <v>477</v>
       </c>
       <c r="E60" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F60">
         <v>1013</v>
       </c>
       <c r="G60" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -4241,13 +4238,13 @@
         <v>478</v>
       </c>
       <c r="E61" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F61">
         <v>1013</v>
       </c>
       <c r="G61" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -4264,13 +4261,13 @@
         <v>432</v>
       </c>
       <c r="E62" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F62">
         <v>1013</v>
       </c>
       <c r="G62" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4287,13 +4284,13 @@
         <v>479</v>
       </c>
       <c r="E63" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F63">
         <v>1013</v>
       </c>
       <c r="G63" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -4310,13 +4307,13 @@
         <v>480</v>
       </c>
       <c r="E64" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F64">
         <v>1013</v>
       </c>
       <c r="G64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4333,13 +4330,13 @@
         <v>481</v>
       </c>
       <c r="E65" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F65">
         <v>1012</v>
       </c>
       <c r="G65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4356,13 +4353,13 @@
         <v>482</v>
       </c>
       <c r="E66" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F66">
         <v>1012</v>
       </c>
       <c r="G66" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4379,13 +4376,13 @@
         <v>483</v>
       </c>
       <c r="E67" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F67">
         <v>1012</v>
       </c>
       <c r="G67" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4402,13 +4399,13 @@
         <v>484</v>
       </c>
       <c r="E68" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F68">
         <v>1012</v>
       </c>
       <c r="G68" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4425,13 +4422,13 @@
         <v>485</v>
       </c>
       <c r="E69" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F69">
         <v>1012</v>
       </c>
       <c r="G69" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4448,13 +4445,13 @@
         <v>486</v>
       </c>
       <c r="E70" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F70">
         <v>1012</v>
       </c>
       <c r="G70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -4471,13 +4468,13 @@
         <v>487</v>
       </c>
       <c r="E71" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F71">
         <v>1012</v>
       </c>
       <c r="G71" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4494,13 +4491,13 @@
         <v>488</v>
       </c>
       <c r="E72" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F72">
         <v>1012</v>
       </c>
       <c r="G72" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -4517,13 +4514,13 @@
         <v>489</v>
       </c>
       <c r="E73" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F73">
         <v>1012</v>
       </c>
       <c r="G73" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -4540,13 +4537,13 @@
         <v>490</v>
       </c>
       <c r="E74" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F74">
         <v>1012</v>
       </c>
       <c r="G74" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4563,13 +4560,13 @@
         <v>491</v>
       </c>
       <c r="E75" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F75">
         <v>1012</v>
       </c>
       <c r="G75" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -4586,13 +4583,13 @@
         <v>432</v>
       </c>
       <c r="E76" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F76">
         <v>1012</v>
       </c>
       <c r="G76" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -4609,13 +4606,13 @@
         <v>492</v>
       </c>
       <c r="E77" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F77">
         <v>1012</v>
       </c>
       <c r="G77" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4632,13 +4629,13 @@
         <v>493</v>
       </c>
       <c r="E78" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F78">
         <v>1012</v>
       </c>
       <c r="G78" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -4655,13 +4652,13 @@
         <v>494</v>
       </c>
       <c r="E79" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F79">
         <v>1012</v>
       </c>
       <c r="G79" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4678,13 +4675,13 @@
         <v>495</v>
       </c>
       <c r="E80" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F80">
         <v>1012</v>
       </c>
       <c r="G80" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4701,13 +4698,13 @@
         <v>496</v>
       </c>
       <c r="E81" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F81">
         <v>1012</v>
       </c>
       <c r="G81" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4724,13 +4721,13 @@
         <v>497</v>
       </c>
       <c r="E82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F82">
         <v>1012</v>
       </c>
       <c r="G82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4747,13 +4744,13 @@
         <v>432</v>
       </c>
       <c r="E83" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F83">
         <v>1012</v>
       </c>
       <c r="G83" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4770,13 +4767,13 @@
         <v>498</v>
       </c>
       <c r="E84" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F84">
         <v>1012</v>
       </c>
       <c r="G84" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4793,13 +4790,13 @@
         <v>432</v>
       </c>
       <c r="E85" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F85">
         <v>1012</v>
       </c>
       <c r="G85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4816,13 +4813,13 @@
         <v>499</v>
       </c>
       <c r="E86" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F86">
         <v>1012</v>
       </c>
       <c r="G86" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -4839,13 +4836,13 @@
         <v>500</v>
       </c>
       <c r="E87" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F87">
         <v>1012</v>
       </c>
       <c r="G87" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4862,13 +4859,13 @@
         <v>501</v>
       </c>
       <c r="E88" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F88">
         <v>1012</v>
       </c>
       <c r="G88" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4885,13 +4882,13 @@
         <v>502</v>
       </c>
       <c r="E89" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F89">
         <v>1012</v>
       </c>
       <c r="G89" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4908,13 +4905,13 @@
         <v>503</v>
       </c>
       <c r="E90" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F90">
         <v>1012</v>
       </c>
       <c r="G90" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -4931,13 +4928,13 @@
         <v>504</v>
       </c>
       <c r="E91" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F91">
         <v>1012</v>
       </c>
       <c r="G91" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4954,13 +4951,13 @@
         <v>505</v>
       </c>
       <c r="E92" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F92">
         <v>1012</v>
       </c>
       <c r="G92" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4977,13 +4974,13 @@
         <v>506</v>
       </c>
       <c r="E93" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F93">
         <v>1012</v>
       </c>
       <c r="G93" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -5000,13 +4997,13 @@
         <v>507</v>
       </c>
       <c r="E94" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F94">
         <v>1012</v>
       </c>
       <c r="G94" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -5023,13 +5020,13 @@
         <v>508</v>
       </c>
       <c r="E95" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F95">
         <v>1012</v>
       </c>
       <c r="G95" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -5046,13 +5043,13 @@
         <v>509</v>
       </c>
       <c r="E96" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F96">
         <v>1012</v>
       </c>
       <c r="G96" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -5069,13 +5066,13 @@
         <v>510</v>
       </c>
       <c r="E97" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F97">
         <v>1012</v>
       </c>
       <c r="G97" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -5092,13 +5089,13 @@
         <v>432</v>
       </c>
       <c r="E98" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F98">
         <v>1012</v>
       </c>
       <c r="G98" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -5115,13 +5112,13 @@
         <v>511</v>
       </c>
       <c r="E99" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F99">
         <v>1012</v>
       </c>
       <c r="G99" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -5138,13 +5135,13 @@
         <v>512</v>
       </c>
       <c r="E100" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F100">
         <v>1012</v>
       </c>
       <c r="G100" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -5161,13 +5158,13 @@
         <v>513</v>
       </c>
       <c r="E101" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F101">
         <v>1012</v>
       </c>
       <c r="G101" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -5184,13 +5181,13 @@
         <v>432</v>
       </c>
       <c r="E102" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F102">
         <v>1011</v>
       </c>
       <c r="G102" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -5207,13 +5204,13 @@
         <v>514</v>
       </c>
       <c r="E103" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F103">
         <v>1011</v>
       </c>
       <c r="G103" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -5230,13 +5227,13 @@
         <v>515</v>
       </c>
       <c r="E104" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F104">
         <v>1011</v>
       </c>
       <c r="G104" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -5253,13 +5250,13 @@
         <v>516</v>
       </c>
       <c r="E105" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F105">
         <v>1011</v>
       </c>
       <c r="G105" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -5276,13 +5273,13 @@
         <v>517</v>
       </c>
       <c r="E106" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F106">
         <v>1011</v>
       </c>
       <c r="G106" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -5299,13 +5296,13 @@
         <v>518</v>
       </c>
       <c r="E107" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F107">
         <v>1011</v>
       </c>
       <c r="G107" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -5322,13 +5319,13 @@
         <v>519</v>
       </c>
       <c r="E108" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F108">
         <v>1011</v>
       </c>
       <c r="G108" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -5345,13 +5342,13 @@
         <v>520</v>
       </c>
       <c r="E109" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F109">
         <v>1011</v>
       </c>
       <c r="G109" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -5368,13 +5365,13 @@
         <v>521</v>
       </c>
       <c r="E110" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F110">
         <v>1011</v>
       </c>
       <c r="G110" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -5391,13 +5388,13 @@
         <v>522</v>
       </c>
       <c r="E111" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F111">
         <v>1011</v>
       </c>
       <c r="G111" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -5414,13 +5411,13 @@
         <v>523</v>
       </c>
       <c r="E112" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F112">
         <v>1011</v>
       </c>
       <c r="G112" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -5437,13 +5434,13 @@
         <v>524</v>
       </c>
       <c r="E113" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F113">
         <v>1011</v>
       </c>
       <c r="G113" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -5460,13 +5457,13 @@
         <v>525</v>
       </c>
       <c r="E114" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F114">
         <v>1011</v>
       </c>
       <c r="G114" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -5483,13 +5480,13 @@
         <v>526</v>
       </c>
       <c r="E115" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F115">
         <v>1011</v>
       </c>
       <c r="G115" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -5506,13 +5503,13 @@
         <v>527</v>
       </c>
       <c r="E116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F116">
         <v>1011</v>
       </c>
       <c r="G116" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -5529,13 +5526,13 @@
         <v>528</v>
       </c>
       <c r="E117" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F117">
         <v>1011</v>
       </c>
       <c r="G117" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -5552,13 +5549,13 @@
         <v>529</v>
       </c>
       <c r="E118" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F118">
         <v>1011</v>
       </c>
       <c r="G118" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -5575,13 +5572,13 @@
         <v>530</v>
       </c>
       <c r="E119" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F119">
         <v>1011</v>
       </c>
       <c r="G119" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -5598,13 +5595,13 @@
         <v>531</v>
       </c>
       <c r="E120" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F120">
         <v>1011</v>
       </c>
       <c r="G120" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -5621,13 +5618,13 @@
         <v>532</v>
       </c>
       <c r="E121" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F121">
         <v>1011</v>
       </c>
       <c r="G121" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -5644,13 +5641,13 @@
         <v>533</v>
       </c>
       <c r="E122" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F122">
         <v>1011</v>
       </c>
       <c r="G122" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -5667,13 +5664,13 @@
         <v>534</v>
       </c>
       <c r="E123" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F123">
         <v>1011</v>
       </c>
       <c r="G123" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -5690,13 +5687,13 @@
         <v>535</v>
       </c>
       <c r="E124" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F124">
         <v>1011</v>
       </c>
       <c r="G124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -5713,13 +5710,13 @@
         <v>536</v>
       </c>
       <c r="E125" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F125">
         <v>1011</v>
       </c>
       <c r="G125" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -5736,13 +5733,13 @@
         <v>537</v>
       </c>
       <c r="E126" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F126">
         <v>1011</v>
       </c>
       <c r="G126" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -5759,13 +5756,13 @@
         <v>538</v>
       </c>
       <c r="E127" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F127">
         <v>1011</v>
       </c>
       <c r="G127" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -5782,13 +5779,13 @@
         <v>539</v>
       </c>
       <c r="E128" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F128">
         <v>1011</v>
       </c>
       <c r="G128" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -5805,13 +5802,13 @@
         <v>540</v>
       </c>
       <c r="E129" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F129">
         <v>1011</v>
       </c>
       <c r="G129" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -5828,13 +5825,13 @@
         <v>432</v>
       </c>
       <c r="E130" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F130">
         <v>1010</v>
       </c>
       <c r="G130" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -5851,13 +5848,13 @@
         <v>541</v>
       </c>
       <c r="E131" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F131">
         <v>1010</v>
       </c>
       <c r="G131" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -5874,13 +5871,13 @@
         <v>542</v>
       </c>
       <c r="E132" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F132">
         <v>1010</v>
       </c>
       <c r="G132" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -5897,13 +5894,13 @@
         <v>543</v>
       </c>
       <c r="E133" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F133">
         <v>1010</v>
       </c>
       <c r="G133" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -5920,13 +5917,13 @@
         <v>544</v>
       </c>
       <c r="E134" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F134">
         <v>1010</v>
       </c>
       <c r="G134" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -5943,13 +5940,13 @@
         <v>545</v>
       </c>
       <c r="E135" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F135">
         <v>1010</v>
       </c>
       <c r="G135" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -5966,13 +5963,13 @@
         <v>546</v>
       </c>
       <c r="E136" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F136">
         <v>1010</v>
       </c>
       <c r="G136" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -5989,13 +5986,13 @@
         <v>547</v>
       </c>
       <c r="E137" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F137">
         <v>1010</v>
       </c>
       <c r="G137" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -6012,13 +6009,13 @@
         <v>548</v>
       </c>
       <c r="E138" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F138">
         <v>1010</v>
       </c>
       <c r="G138" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -6035,13 +6032,13 @@
         <v>549</v>
       </c>
       <c r="E139" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F139">
         <v>1010</v>
       </c>
       <c r="G139" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -6058,13 +6055,13 @@
         <v>550</v>
       </c>
       <c r="E140" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F140">
         <v>1010</v>
       </c>
       <c r="G140" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -6081,13 +6078,13 @@
         <v>551</v>
       </c>
       <c r="E141" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F141">
         <v>1010</v>
       </c>
       <c r="G141" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -6104,13 +6101,13 @@
         <v>552</v>
       </c>
       <c r="E142" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F142">
         <v>1010</v>
       </c>
       <c r="G142" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -6127,13 +6124,13 @@
         <v>553</v>
       </c>
       <c r="E143" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F143">
         <v>1010</v>
       </c>
       <c r="G143" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -6150,13 +6147,13 @@
         <v>554</v>
       </c>
       <c r="E144" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F144">
         <v>1010</v>
       </c>
       <c r="G144" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -6173,13 +6170,13 @@
         <v>555</v>
       </c>
       <c r="E145" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F145">
         <v>1010</v>
       </c>
       <c r="G145" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -6196,13 +6193,13 @@
         <v>556</v>
       </c>
       <c r="E146" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F146">
         <v>1010</v>
       </c>
       <c r="G146" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -6219,13 +6216,13 @@
         <v>557</v>
       </c>
       <c r="E147" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F147">
         <v>1010</v>
       </c>
       <c r="G147" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -6242,13 +6239,13 @@
         <v>558</v>
       </c>
       <c r="E148" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F148">
         <v>1010</v>
       </c>
       <c r="G148" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -6265,13 +6262,13 @@
         <v>432</v>
       </c>
       <c r="E149" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F149">
         <v>1010</v>
       </c>
       <c r="G149" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -6288,13 +6285,13 @@
         <v>432</v>
       </c>
       <c r="E150" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F150">
         <v>1010</v>
       </c>
       <c r="G150" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -6311,13 +6308,13 @@
         <v>559</v>
       </c>
       <c r="E151" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F151">
         <v>1010</v>
       </c>
       <c r="G151" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -6334,13 +6331,13 @@
         <v>560</v>
       </c>
       <c r="E152" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F152">
         <v>1010</v>
       </c>
       <c r="G152" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -6357,13 +6354,13 @@
         <v>561</v>
       </c>
       <c r="E153" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F153">
         <v>1010</v>
       </c>
       <c r="G153" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -6380,13 +6377,13 @@
         <v>562</v>
       </c>
       <c r="E154" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F154">
         <v>1010</v>
       </c>
       <c r="G154" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -6403,13 +6400,13 @@
         <v>563</v>
       </c>
       <c r="E155" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F155">
         <v>1010</v>
       </c>
       <c r="G155" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -6426,13 +6423,13 @@
         <v>564</v>
       </c>
       <c r="E156" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F156">
         <v>1010</v>
       </c>
       <c r="G156" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -6449,13 +6446,13 @@
         <v>565</v>
       </c>
       <c r="E157" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F157">
         <v>1009</v>
       </c>
       <c r="G157" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -6472,13 +6469,13 @@
         <v>566</v>
       </c>
       <c r="E158" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F158">
         <v>1009</v>
       </c>
       <c r="G158" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -6495,13 +6492,13 @@
         <v>432</v>
       </c>
       <c r="E159" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F159">
         <v>1009</v>
       </c>
       <c r="G159" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -6518,13 +6515,13 @@
         <v>567</v>
       </c>
       <c r="E160" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F160">
         <v>1009</v>
       </c>
       <c r="G160" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -6541,13 +6538,13 @@
         <v>568</v>
       </c>
       <c r="E161" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F161">
         <v>1009</v>
       </c>
       <c r="G161" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -6564,13 +6561,13 @@
         <v>569</v>
       </c>
       <c r="E162" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F162">
         <v>1009</v>
       </c>
       <c r="G162" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -6587,13 +6584,13 @@
         <v>570</v>
       </c>
       <c r="E163" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F163">
         <v>1009</v>
       </c>
       <c r="G163" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -6610,13 +6607,13 @@
         <v>571</v>
       </c>
       <c r="E164" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F164">
         <v>1009</v>
       </c>
       <c r="G164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -6633,13 +6630,13 @@
         <v>432</v>
       </c>
       <c r="E165" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F165">
         <v>1009</v>
       </c>
       <c r="G165" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -6656,13 +6653,13 @@
         <v>572</v>
       </c>
       <c r="E166" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F166">
         <v>1009</v>
       </c>
       <c r="G166" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -6679,13 +6676,13 @@
         <v>573</v>
       </c>
       <c r="E167" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F167">
         <v>1009</v>
       </c>
       <c r="G167" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -6702,13 +6699,13 @@
         <v>432</v>
       </c>
       <c r="E168" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F168">
         <v>1009</v>
       </c>
       <c r="G168" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -6725,13 +6722,13 @@
         <v>574</v>
       </c>
       <c r="E169" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F169">
         <v>1009</v>
       </c>
       <c r="G169" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -6748,13 +6745,13 @@
         <v>575</v>
       </c>
       <c r="E170" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F170">
         <v>1009</v>
       </c>
       <c r="G170" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -6771,13 +6768,13 @@
         <v>576</v>
       </c>
       <c r="E171" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F171">
         <v>1009</v>
       </c>
       <c r="G171" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -6794,13 +6791,13 @@
         <v>432</v>
       </c>
       <c r="E172" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F172">
         <v>1009</v>
       </c>
       <c r="G172" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -6817,13 +6814,13 @@
         <v>432</v>
       </c>
       <c r="E173" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F173">
         <v>1009</v>
       </c>
       <c r="G173" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -6840,13 +6837,13 @@
         <v>577</v>
       </c>
       <c r="E174" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F174">
         <v>1009</v>
       </c>
       <c r="G174" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -6863,13 +6860,13 @@
         <v>432</v>
       </c>
       <c r="E175" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F175">
         <v>1009</v>
       </c>
       <c r="G175" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -6886,13 +6883,13 @@
         <v>432</v>
       </c>
       <c r="E176" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F176">
         <v>1009</v>
       </c>
       <c r="G176" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -6909,13 +6906,13 @@
         <v>578</v>
       </c>
       <c r="E177" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F177">
         <v>1009</v>
       </c>
       <c r="G177" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -6932,13 +6929,13 @@
         <v>579</v>
       </c>
       <c r="E178" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F178">
         <v>1009</v>
       </c>
       <c r="G178" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -6955,13 +6952,13 @@
         <v>580</v>
       </c>
       <c r="E179" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F179">
         <v>1009</v>
       </c>
       <c r="G179" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -6978,13 +6975,13 @@
         <v>581</v>
       </c>
       <c r="E180" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F180">
         <v>1009</v>
       </c>
       <c r="G180" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -7001,13 +6998,13 @@
         <v>432</v>
       </c>
       <c r="E181" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F181">
         <v>1009</v>
       </c>
       <c r="G181" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -7024,13 +7021,13 @@
         <v>582</v>
       </c>
       <c r="E182" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F182">
         <v>1009</v>
       </c>
       <c r="G182" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -7047,13 +7044,13 @@
         <v>583</v>
       </c>
       <c r="E183" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F183">
         <v>1008</v>
       </c>
       <c r="G183" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -7070,13 +7067,13 @@
         <v>584</v>
       </c>
       <c r="E184" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F184">
         <v>1008</v>
       </c>
       <c r="G184" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -7093,13 +7090,13 @@
         <v>585</v>
       </c>
       <c r="E185" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F185">
         <v>1008</v>
       </c>
       <c r="G185" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -7116,13 +7113,13 @@
         <v>586</v>
       </c>
       <c r="E186" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F186">
         <v>1008</v>
       </c>
       <c r="G186" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -7139,13 +7136,13 @@
         <v>587</v>
       </c>
       <c r="E187" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F187">
         <v>1008</v>
       </c>
       <c r="G187" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -7162,13 +7159,13 @@
         <v>588</v>
       </c>
       <c r="E188" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F188">
         <v>1008</v>
       </c>
       <c r="G188" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -7185,13 +7182,13 @@
         <v>589</v>
       </c>
       <c r="E189" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F189">
         <v>1008</v>
       </c>
       <c r="G189" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -7208,13 +7205,13 @@
         <v>590</v>
       </c>
       <c r="E190" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F190">
         <v>1008</v>
       </c>
       <c r="G190" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -7231,13 +7228,13 @@
         <v>591</v>
       </c>
       <c r="E191" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F191">
         <v>1008</v>
       </c>
       <c r="G191" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -7254,13 +7251,13 @@
         <v>592</v>
       </c>
       <c r="E192" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F192">
         <v>1008</v>
       </c>
       <c r="G192" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -7277,13 +7274,13 @@
         <v>593</v>
       </c>
       <c r="E193" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F193">
         <v>1008</v>
       </c>
       <c r="G193" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -7300,13 +7297,13 @@
         <v>432</v>
       </c>
       <c r="E194" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F194">
         <v>1008</v>
       </c>
       <c r="G194" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -7323,13 +7320,13 @@
         <v>594</v>
       </c>
       <c r="E195" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F195">
         <v>1008</v>
       </c>
       <c r="G195" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -7346,13 +7343,13 @@
         <v>595</v>
       </c>
       <c r="E196" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F196">
         <v>1008</v>
       </c>
       <c r="G196" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -7369,13 +7366,13 @@
         <v>596</v>
       </c>
       <c r="E197" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F197">
         <v>1008</v>
       </c>
       <c r="G197" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -7392,13 +7389,13 @@
         <v>597</v>
       </c>
       <c r="E198" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F198">
         <v>1008</v>
       </c>
       <c r="G198" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -7415,13 +7412,13 @@
         <v>598</v>
       </c>
       <c r="E199" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F199">
         <v>1008</v>
       </c>
       <c r="G199" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -7438,13 +7435,13 @@
         <v>599</v>
       </c>
       <c r="E200" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F200">
         <v>1008</v>
       </c>
       <c r="G200" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -7461,13 +7458,13 @@
         <v>600</v>
       </c>
       <c r="E201" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F201">
         <v>1008</v>
       </c>
       <c r="G201" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -7484,13 +7481,13 @@
         <v>601</v>
       </c>
       <c r="E202" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F202">
         <v>1008</v>
       </c>
       <c r="G202" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -7507,13 +7504,13 @@
         <v>602</v>
       </c>
       <c r="E203" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F203">
         <v>1008</v>
       </c>
       <c r="G203" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -7530,13 +7527,13 @@
         <v>603</v>
       </c>
       <c r="E204" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F204">
         <v>1008</v>
       </c>
       <c r="G204" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -7553,13 +7550,13 @@
         <v>604</v>
       </c>
       <c r="E205" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F205">
         <v>1008</v>
       </c>
       <c r="G205" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -7576,13 +7573,13 @@
         <v>605</v>
       </c>
       <c r="E206" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F206">
         <v>1008</v>
       </c>
       <c r="G206" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -7599,13 +7596,13 @@
         <v>606</v>
       </c>
       <c r="E207" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F207">
         <v>1008</v>
       </c>
       <c r="G207" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -7622,13 +7619,13 @@
         <v>607</v>
       </c>
       <c r="E208" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F208">
         <v>1008</v>
       </c>
       <c r="G208" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -7645,13 +7642,13 @@
         <v>608</v>
       </c>
       <c r="E209" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F209">
         <v>1008</v>
       </c>
       <c r="G209" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -7668,13 +7665,13 @@
         <v>609</v>
       </c>
       <c r="E210" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F210">
         <v>1008</v>
       </c>
       <c r="G210" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -7691,13 +7688,13 @@
         <v>610</v>
       </c>
       <c r="E211" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F211">
         <v>1008</v>
       </c>
       <c r="G211" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -7714,13 +7711,13 @@
         <v>611</v>
       </c>
       <c r="E212" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F212">
         <v>1008</v>
       </c>
       <c r="G212" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -7737,13 +7734,13 @@
         <v>612</v>
       </c>
       <c r="E213" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F213">
         <v>1008</v>
       </c>
       <c r="G213" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -7760,13 +7757,13 @@
         <v>613</v>
       </c>
       <c r="E214" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F214">
         <v>1008</v>
       </c>
       <c r="G214" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -7783,13 +7780,13 @@
         <v>614</v>
       </c>
       <c r="E215" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F215">
         <v>1008</v>
       </c>
       <c r="G215" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -7806,13 +7803,13 @@
         <v>615</v>
       </c>
       <c r="E216" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F216">
         <v>1008</v>
       </c>
       <c r="G216" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -7829,13 +7826,13 @@
         <v>616</v>
       </c>
       <c r="E217" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F217">
         <v>1008</v>
       </c>
       <c r="G217" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -7852,13 +7849,13 @@
         <v>617</v>
       </c>
       <c r="E218" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F218">
         <v>1008</v>
       </c>
       <c r="G218" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -7875,13 +7872,13 @@
         <v>618</v>
       </c>
       <c r="E219" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F219">
         <v>1007</v>
       </c>
       <c r="G219" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -7898,13 +7895,13 @@
         <v>619</v>
       </c>
       <c r="E220" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F220">
         <v>1007</v>
       </c>
       <c r="G220" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -7921,13 +7918,13 @@
         <v>620</v>
       </c>
       <c r="E221" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F221">
         <v>1007</v>
       </c>
       <c r="G221" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -7944,13 +7941,13 @@
         <v>621</v>
       </c>
       <c r="E222" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F222">
         <v>1007</v>
       </c>
       <c r="G222" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -7967,13 +7964,13 @@
         <v>622</v>
       </c>
       <c r="E223" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F223">
         <v>1007</v>
       </c>
       <c r="G223" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -7990,13 +7987,13 @@
         <v>623</v>
       </c>
       <c r="E224" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F224">
         <v>1007</v>
       </c>
       <c r="G224" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -8013,13 +8010,13 @@
         <v>624</v>
       </c>
       <c r="E225" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F225">
         <v>1007</v>
       </c>
       <c r="G225" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -8036,13 +8033,13 @@
         <v>625</v>
       </c>
       <c r="E226" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F226">
         <v>1007</v>
       </c>
       <c r="G226" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -8059,13 +8056,13 @@
         <v>432</v>
       </c>
       <c r="E227" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F227">
         <v>1007</v>
       </c>
       <c r="G227" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -8082,13 +8079,13 @@
         <v>626</v>
       </c>
       <c r="E228" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F228">
         <v>1007</v>
       </c>
       <c r="G228" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -8105,13 +8102,13 @@
         <v>627</v>
       </c>
       <c r="E229" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F229">
         <v>1007</v>
       </c>
       <c r="G229" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -8128,13 +8125,13 @@
         <v>628</v>
       </c>
       <c r="E230" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F230">
         <v>1007</v>
       </c>
       <c r="G230" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -8151,13 +8148,13 @@
         <v>432</v>
       </c>
       <c r="E231" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F231">
         <v>1007</v>
       </c>
       <c r="G231" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -8174,13 +8171,13 @@
         <v>629</v>
       </c>
       <c r="E232" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F232">
         <v>1007</v>
       </c>
       <c r="G232" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -8197,13 +8194,13 @@
         <v>600</v>
       </c>
       <c r="E233" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F233">
         <v>1007</v>
       </c>
       <c r="G233" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -8220,13 +8217,13 @@
         <v>432</v>
       </c>
       <c r="E234" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F234">
         <v>1007</v>
       </c>
       <c r="G234" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -8243,13 +8240,13 @@
         <v>630</v>
       </c>
       <c r="E235" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F235">
         <v>1007</v>
       </c>
       <c r="G235" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -8266,13 +8263,13 @@
         <v>631</v>
       </c>
       <c r="E236" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F236">
         <v>1007</v>
       </c>
       <c r="G236" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -8289,13 +8286,13 @@
         <v>432</v>
       </c>
       <c r="E237" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F237">
         <v>1007</v>
       </c>
       <c r="G237" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -8312,13 +8309,13 @@
         <v>432</v>
       </c>
       <c r="E238" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F238">
         <v>1007</v>
       </c>
       <c r="G238" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -8335,13 +8332,13 @@
         <v>432</v>
       </c>
       <c r="E239" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F239">
         <v>1007</v>
       </c>
       <c r="G239" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -8358,13 +8355,13 @@
         <v>432</v>
       </c>
       <c r="E240" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F240">
         <v>1007</v>
       </c>
       <c r="G240" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -8381,13 +8378,13 @@
         <v>432</v>
       </c>
       <c r="E241" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F241">
         <v>1007</v>
       </c>
       <c r="G241" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -8404,13 +8401,13 @@
         <v>632</v>
       </c>
       <c r="E242" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F242">
         <v>1007</v>
       </c>
       <c r="G242" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -8427,13 +8424,13 @@
         <v>633</v>
       </c>
       <c r="E243" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F243">
         <v>1007</v>
       </c>
       <c r="G243" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -8450,13 +8447,13 @@
         <v>634</v>
       </c>
       <c r="E244" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F244">
         <v>1007</v>
       </c>
       <c r="G244" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -8473,13 +8470,13 @@
         <v>635</v>
       </c>
       <c r="E245" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F245">
         <v>1007</v>
       </c>
       <c r="G245" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -8496,13 +8493,13 @@
         <v>636</v>
       </c>
       <c r="E246" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F246">
         <v>1007</v>
       </c>
       <c r="G246" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -8519,13 +8516,13 @@
         <v>432</v>
       </c>
       <c r="E247" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F247">
         <v>1007</v>
       </c>
       <c r="G247" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -8542,13 +8539,13 @@
         <v>432</v>
       </c>
       <c r="E248" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F248">
         <v>1007</v>
       </c>
       <c r="G248" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -8565,13 +8562,13 @@
         <v>637</v>
       </c>
       <c r="E249" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F249">
         <v>1007</v>
       </c>
       <c r="G249" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -8588,13 +8585,13 @@
         <v>638</v>
       </c>
       <c r="E250" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F250">
         <v>1007</v>
       </c>
       <c r="G250" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -8611,13 +8608,13 @@
         <v>639</v>
       </c>
       <c r="E251" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F251">
         <v>1007</v>
       </c>
       <c r="G251" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -8634,13 +8631,13 @@
         <v>432</v>
       </c>
       <c r="E252" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F252">
         <v>1007</v>
       </c>
       <c r="G252" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -8657,13 +8654,13 @@
         <v>640</v>
       </c>
       <c r="E253" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F253">
         <v>1006</v>
       </c>
       <c r="G253" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -8680,13 +8677,13 @@
         <v>641</v>
       </c>
       <c r="E254" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F254">
         <v>1006</v>
       </c>
       <c r="G254" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -8703,13 +8700,13 @@
         <v>642</v>
       </c>
       <c r="E255" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F255">
         <v>1006</v>
       </c>
       <c r="G255" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -8726,13 +8723,13 @@
         <v>643</v>
       </c>
       <c r="E256" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F256">
         <v>1006</v>
       </c>
       <c r="G256" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -8749,13 +8746,13 @@
         <v>644</v>
       </c>
       <c r="E257" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F257">
         <v>1006</v>
       </c>
       <c r="G257" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -8772,13 +8769,13 @@
         <v>645</v>
       </c>
       <c r="E258" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F258">
         <v>1006</v>
       </c>
       <c r="G258" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -8795,13 +8792,13 @@
         <v>646</v>
       </c>
       <c r="E259" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F259">
         <v>1006</v>
       </c>
       <c r="G259" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -8818,13 +8815,13 @@
         <v>647</v>
       </c>
       <c r="E260" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F260">
         <v>1006</v>
       </c>
       <c r="G260" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -8841,13 +8838,13 @@
         <v>648</v>
       </c>
       <c r="E261" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F261">
         <v>1006</v>
       </c>
       <c r="G261" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -8864,13 +8861,13 @@
         <v>649</v>
       </c>
       <c r="E262" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F262">
         <v>1006</v>
       </c>
       <c r="G262" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -8887,13 +8884,13 @@
         <v>650</v>
       </c>
       <c r="E263" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F263">
         <v>1006</v>
       </c>
       <c r="G263" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -8910,13 +8907,13 @@
         <v>651</v>
       </c>
       <c r="E264" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F264">
         <v>1006</v>
       </c>
       <c r="G264" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -8933,13 +8930,13 @@
         <v>652</v>
       </c>
       <c r="E265" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F265">
         <v>1006</v>
       </c>
       <c r="G265" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -8956,13 +8953,13 @@
         <v>653</v>
       </c>
       <c r="E266" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F266">
         <v>1006</v>
       </c>
       <c r="G266" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -8979,13 +8976,13 @@
         <v>654</v>
       </c>
       <c r="E267" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F267">
         <v>1006</v>
       </c>
       <c r="G267" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -9002,13 +8999,13 @@
         <v>655</v>
       </c>
       <c r="E268" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F268">
         <v>1006</v>
       </c>
       <c r="G268" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -9025,13 +9022,13 @@
         <v>656</v>
       </c>
       <c r="E269" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F269">
         <v>1006</v>
       </c>
       <c r="G269" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -9048,13 +9045,13 @@
         <v>657</v>
       </c>
       <c r="E270" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F270">
         <v>1006</v>
       </c>
       <c r="G270" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -9071,13 +9068,13 @@
         <v>658</v>
       </c>
       <c r="E271" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F271">
         <v>1006</v>
       </c>
       <c r="G271" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -9094,13 +9091,13 @@
         <v>659</v>
       </c>
       <c r="E272" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F272">
         <v>1006</v>
       </c>
       <c r="G272" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -9117,13 +9114,13 @@
         <v>660</v>
       </c>
       <c r="E273" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F273">
         <v>1006</v>
       </c>
       <c r="G273" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -9140,13 +9137,13 @@
         <v>661</v>
       </c>
       <c r="E274" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F274">
         <v>1006</v>
       </c>
       <c r="G274" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -9163,36 +9160,36 @@
         <v>662</v>
       </c>
       <c r="E275" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F275">
         <v>1006</v>
       </c>
       <c r="G275" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>1006140</v>
+        <v>1006065</v>
       </c>
       <c r="B276" t="s">
         <v>269</v>
       </c>
       <c r="C276">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E276" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F276">
         <v>1006</v>
       </c>
       <c r="G276" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -9209,13 +9206,13 @@
         <v>663</v>
       </c>
       <c r="E277" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F277">
         <v>1006</v>
       </c>
       <c r="G277" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -9232,13 +9229,13 @@
         <v>432</v>
       </c>
       <c r="E278" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F278">
         <v>1006</v>
       </c>
       <c r="G278" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -9255,13 +9252,13 @@
         <v>664</v>
       </c>
       <c r="E279" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F279">
         <v>1006</v>
       </c>
       <c r="G279" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -9278,13 +9275,13 @@
         <v>665</v>
       </c>
       <c r="E280" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F280">
         <v>1006</v>
       </c>
       <c r="G280" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -9301,13 +9298,13 @@
         <v>666</v>
       </c>
       <c r="E281" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F281">
         <v>1006</v>
       </c>
       <c r="G281" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -9324,13 +9321,13 @@
         <v>667</v>
       </c>
       <c r="E282" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F282">
         <v>1006</v>
       </c>
       <c r="G282" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -9347,13 +9344,13 @@
         <v>668</v>
       </c>
       <c r="E283" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F283">
         <v>1006</v>
       </c>
       <c r="G283" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -9370,56 +9367,56 @@
         <v>669</v>
       </c>
       <c r="E284" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F284">
         <v>1006</v>
       </c>
       <c r="G284" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>1006144</v>
+        <v>1006029</v>
       </c>
       <c r="B285" t="s">
         <v>278</v>
       </c>
       <c r="C285">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E285" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F285">
         <v>1006</v>
       </c>
       <c r="G285" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>1006145</v>
+        <v>1005120</v>
       </c>
       <c r="B286" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C286">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>670</v>
+        <v>432</v>
       </c>
       <c r="E286" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F286">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G286" t="s">
         <v>807</v>
@@ -9427,16 +9424,16 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>1005120</v>
+        <v>1005012</v>
       </c>
       <c r="B287" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C287">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>432</v>
+        <v>670</v>
       </c>
       <c r="E287" t="s">
         <v>794</v>
@@ -9445,64 +9442,64 @@
         <v>1005</v>
       </c>
       <c r="G287" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>1005012</v>
+        <v>1005001</v>
       </c>
       <c r="B288" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C288">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>671</v>
       </c>
       <c r="E288" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F288">
         <v>1005</v>
       </c>
       <c r="G288" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>1005001</v>
+        <v>1005023</v>
       </c>
       <c r="B289" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>672</v>
       </c>
       <c r="E289" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F289">
         <v>1005</v>
       </c>
       <c r="G289" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>1005023</v>
+        <v>1005005</v>
       </c>
       <c r="B290" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C290">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>673</v>
@@ -9514,179 +9511,179 @@
         <v>1005</v>
       </c>
       <c r="G290" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>1005005</v>
+        <v>1005018</v>
       </c>
       <c r="B291" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C291">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>674</v>
       </c>
       <c r="E291" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F291">
         <v>1005</v>
       </c>
       <c r="G291" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>1005018</v>
+        <v>1005041</v>
       </c>
       <c r="B292" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C292">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>675</v>
       </c>
       <c r="E292" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F292">
         <v>1005</v>
       </c>
       <c r="G292" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>1005041</v>
+        <v>1005002</v>
       </c>
       <c r="B293" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C293">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>676</v>
       </c>
       <c r="E293" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F293">
         <v>1005</v>
       </c>
       <c r="G293" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>1005002</v>
+        <v>1005013</v>
       </c>
       <c r="B294" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>677</v>
       </c>
       <c r="E294" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F294">
         <v>1005</v>
       </c>
       <c r="G294" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>1005013</v>
+        <v>1005025</v>
       </c>
       <c r="B295" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C295">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>678</v>
       </c>
       <c r="E295" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F295">
         <v>1005</v>
       </c>
       <c r="G295" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>1005025</v>
+        <v>1005016</v>
       </c>
       <c r="B296" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C296">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>679</v>
+        <v>432</v>
       </c>
       <c r="E296" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F296">
         <v>1005</v>
       </c>
       <c r="G296" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>1005016</v>
+        <v>1005022</v>
       </c>
       <c r="B297" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>432</v>
+        <v>679</v>
       </c>
       <c r="E297" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F297">
         <v>1005</v>
       </c>
       <c r="G297" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>1005022</v>
+        <v>1005010</v>
       </c>
       <c r="B298" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>680</v>
@@ -9698,248 +9695,248 @@
         <v>1005</v>
       </c>
       <c r="G298" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>1005010</v>
+        <v>1005032</v>
       </c>
       <c r="B299" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>681</v>
       </c>
       <c r="E299" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F299">
         <v>1005</v>
       </c>
       <c r="G299" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>1005032</v>
+        <v>1005033</v>
       </c>
       <c r="B300" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>682</v>
       </c>
       <c r="E300" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F300">
         <v>1005</v>
       </c>
       <c r="G300" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>1005033</v>
+        <v>1005014</v>
       </c>
       <c r="B301" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>683</v>
       </c>
       <c r="E301" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F301">
         <v>1005</v>
       </c>
       <c r="G301" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>1005014</v>
+        <v>1005007</v>
       </c>
       <c r="B302" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>684</v>
       </c>
       <c r="E302" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F302">
         <v>1005</v>
       </c>
       <c r="G302" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>1005007</v>
+        <v>1005029</v>
       </c>
       <c r="B303" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>685</v>
       </c>
       <c r="E303" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F303">
         <v>1005</v>
       </c>
       <c r="G303" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>1005029</v>
+        <v>1005008</v>
       </c>
       <c r="B304" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>686</v>
       </c>
       <c r="E304" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F304">
         <v>1005</v>
       </c>
       <c r="G304" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>1005008</v>
+        <v>1005024</v>
       </c>
       <c r="B305" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>687</v>
       </c>
       <c r="E305" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F305">
         <v>1005</v>
       </c>
       <c r="G305" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>1005024</v>
+        <v>1005019</v>
       </c>
       <c r="B306" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C306">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>688</v>
+        <v>432</v>
       </c>
       <c r="E306" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F306">
         <v>1005</v>
       </c>
       <c r="G306" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>1005019</v>
+        <v>1005021</v>
       </c>
       <c r="B307" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C307">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>432</v>
+        <v>688</v>
       </c>
       <c r="E307" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F307">
         <v>1005</v>
       </c>
       <c r="G307" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>1005021</v>
+        <v>1005020</v>
       </c>
       <c r="B308" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C308">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>689</v>
       </c>
       <c r="E308" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F308">
         <v>1005</v>
       </c>
       <c r="G308" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>1005020</v>
+        <v>1005011</v>
       </c>
       <c r="B309" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C309">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>690</v>
@@ -9951,119 +9948,119 @@
         <v>1005</v>
       </c>
       <c r="G309" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>1005011</v>
+        <v>1005009</v>
       </c>
       <c r="B310" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>691</v>
       </c>
       <c r="E310" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F310">
         <v>1005</v>
       </c>
       <c r="G310" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>1005009</v>
+        <v>1005017</v>
       </c>
       <c r="B311" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C311">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>692</v>
       </c>
       <c r="E311" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F311">
         <v>1005</v>
       </c>
       <c r="G311" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>1005017</v>
+        <v>1005015</v>
       </c>
       <c r="B312" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C312">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>693</v>
       </c>
       <c r="E312" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F312">
         <v>1005</v>
       </c>
       <c r="G312" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>1005015</v>
+        <v>1005121</v>
       </c>
       <c r="B313" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C313">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>694</v>
       </c>
       <c r="E313" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F313">
         <v>1005</v>
       </c>
       <c r="G313" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>1005121</v>
+        <v>1004029</v>
       </c>
       <c r="B314" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="C314">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>695</v>
+        <v>432</v>
       </c>
       <c r="E314" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F314">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G314" t="s">
         <v>808</v>
@@ -10071,62 +10068,62 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>1004029</v>
+        <v>1004030</v>
       </c>
       <c r="B315" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C315">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>432</v>
+        <v>695</v>
       </c>
       <c r="E315" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F315">
         <v>1004</v>
       </c>
       <c r="G315" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>1004030</v>
+        <v>1004053</v>
       </c>
       <c r="B316" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C316">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>696</v>
+        <v>432</v>
       </c>
       <c r="E316" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F316">
         <v>1004</v>
       </c>
       <c r="G316" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>1004053</v>
+        <v>1004027</v>
       </c>
       <c r="B317" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C317">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>432</v>
+        <v>696</v>
       </c>
       <c r="E317" t="s">
         <v>795</v>
@@ -10135,202 +10132,202 @@
         <v>1004</v>
       </c>
       <c r="G317" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>1004027</v>
+        <v>1004019</v>
       </c>
       <c r="B318" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C318">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>697</v>
       </c>
       <c r="E318" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F318">
         <v>1004</v>
       </c>
       <c r="G318" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>1004019</v>
+        <v>1004016</v>
       </c>
       <c r="B319" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C319">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>698</v>
       </c>
       <c r="E319" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F319">
         <v>1004</v>
       </c>
       <c r="G319" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>1004016</v>
+        <v>1004002</v>
       </c>
       <c r="B320" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C320">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>699</v>
       </c>
       <c r="E320" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F320">
         <v>1004</v>
       </c>
       <c r="G320" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>1004002</v>
+        <v>1004017</v>
       </c>
       <c r="B321" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C321">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>700</v>
       </c>
       <c r="E321" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F321">
         <v>1004</v>
       </c>
       <c r="G321" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>1004017</v>
+        <v>1004021</v>
       </c>
       <c r="B322" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C322">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>701</v>
       </c>
       <c r="E322" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F322">
         <v>1004</v>
       </c>
       <c r="G322" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>1004021</v>
+        <v>1004022</v>
       </c>
       <c r="B323" t="s">
-        <v>314</v>
+        <v>156</v>
       </c>
       <c r="C323">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>702</v>
       </c>
       <c r="E323" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F323">
         <v>1004</v>
       </c>
       <c r="G323" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>1004022</v>
+        <v>1004014</v>
       </c>
       <c r="B324" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="C324">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>703</v>
       </c>
       <c r="E324" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F324">
         <v>1004</v>
       </c>
       <c r="G324" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>1004014</v>
+        <v>1004013</v>
       </c>
       <c r="B325" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C325">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>704</v>
       </c>
       <c r="E325" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F325">
         <v>1004</v>
       </c>
       <c r="G325" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>1004013</v>
+        <v>1004004</v>
       </c>
       <c r="B326" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C326">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>705</v>
@@ -10342,202 +10339,202 @@
         <v>1004</v>
       </c>
       <c r="G326" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>1004004</v>
+        <v>1004020</v>
       </c>
       <c r="B327" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C327">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>706</v>
       </c>
       <c r="E327" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F327">
         <v>1004</v>
       </c>
       <c r="G327" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>1004020</v>
+        <v>1004007</v>
       </c>
       <c r="B328" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C328">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>707</v>
       </c>
       <c r="E328" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F328">
         <v>1004</v>
       </c>
       <c r="G328" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>1004007</v>
+        <v>1004015</v>
       </c>
       <c r="B329" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C329">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>708</v>
       </c>
       <c r="E329" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F329">
         <v>1004</v>
       </c>
       <c r="G329" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>1004015</v>
+        <v>1004005</v>
       </c>
       <c r="B330" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C330">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>709</v>
       </c>
       <c r="E330" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F330">
         <v>1004</v>
       </c>
       <c r="G330" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>1004005</v>
+        <v>1004012</v>
       </c>
       <c r="B331" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C331">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>710</v>
       </c>
       <c r="E331" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F331">
         <v>1004</v>
       </c>
       <c r="G331" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>1004012</v>
+        <v>1004018</v>
       </c>
       <c r="B332" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="C332">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>711</v>
       </c>
       <c r="E332" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F332">
         <v>1004</v>
       </c>
       <c r="G332" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>1004018</v>
+        <v>1004031</v>
       </c>
       <c r="B333" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="C333">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>712</v>
+        <v>432</v>
       </c>
       <c r="E333" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F333">
         <v>1004</v>
       </c>
       <c r="G333" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>1004031</v>
+        <v>1004008</v>
       </c>
       <c r="B334" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C334">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>432</v>
+        <v>712</v>
       </c>
       <c r="E334" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F334">
         <v>1004</v>
       </c>
       <c r="G334" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>1004008</v>
+        <v>1004201</v>
       </c>
       <c r="B335" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C335">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>713</v>
@@ -10549,234 +10546,234 @@
         <v>1004</v>
       </c>
       <c r="G335" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>1004201</v>
+        <v>1004009</v>
       </c>
       <c r="B336" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C336">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>714</v>
       </c>
       <c r="E336" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F336">
         <v>1004</v>
       </c>
       <c r="G336" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>1004009</v>
+        <v>1004006</v>
       </c>
       <c r="B337" t="s">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="C337">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>715</v>
       </c>
       <c r="E337" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F337">
         <v>1004</v>
       </c>
       <c r="G337" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>1004006</v>
+        <v>1004003</v>
       </c>
       <c r="B338" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="C338">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>716</v>
+        <v>432</v>
       </c>
       <c r="E338" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F338">
         <v>1004</v>
       </c>
       <c r="G338" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>1004003</v>
+        <v>1004023</v>
       </c>
       <c r="B339" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C339">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>432</v>
+        <v>716</v>
       </c>
       <c r="E339" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F339">
         <v>1004</v>
       </c>
       <c r="G339" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>1004023</v>
+        <v>1004011</v>
       </c>
       <c r="B340" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C340">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>717</v>
       </c>
       <c r="E340" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F340">
         <v>1004</v>
       </c>
       <c r="G340" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>1004011</v>
+        <v>1004025</v>
       </c>
       <c r="B341" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C341">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>718</v>
       </c>
       <c r="E341" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F341">
         <v>1004</v>
       </c>
       <c r="G341" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>1004025</v>
+        <v>1004024</v>
       </c>
       <c r="B342" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C342">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>719</v>
       </c>
       <c r="E342" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F342">
         <v>1004</v>
       </c>
       <c r="G342" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>1004024</v>
+        <v>1004028</v>
       </c>
       <c r="B343" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C343">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>720</v>
+        <v>432</v>
       </c>
       <c r="E343" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F343">
         <v>1004</v>
       </c>
       <c r="G343" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>1004028</v>
+        <v>1004151</v>
       </c>
       <c r="B344" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C344">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>432</v>
+        <v>720</v>
       </c>
       <c r="E344" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F344">
         <v>1004</v>
       </c>
       <c r="G344" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>1004151</v>
+        <v>1003001</v>
       </c>
       <c r="B345" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C345">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>721</v>
+        <v>432</v>
       </c>
       <c r="E345" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F345">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G345" t="s">
         <v>809</v>
@@ -10784,85 +10781,85 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>1003001</v>
+        <v>1003125</v>
       </c>
       <c r="B346" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>432</v>
+        <v>721</v>
       </c>
       <c r="E346" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F346">
         <v>1003</v>
       </c>
       <c r="G346" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>1003125</v>
+        <v>1003028</v>
       </c>
       <c r="B347" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C347">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>722</v>
+        <v>432</v>
       </c>
       <c r="E347" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F347">
         <v>1003</v>
       </c>
       <c r="G347" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>1003028</v>
+        <v>1003023</v>
       </c>
       <c r="B348" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C348">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E348" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F348">
         <v>1003</v>
       </c>
       <c r="G348" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>1003023</v>
+        <v>1003126</v>
       </c>
       <c r="B349" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C349">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>432</v>
+        <v>722</v>
       </c>
       <c r="E349" t="s">
         <v>795</v>
@@ -10871,320 +10868,320 @@
         <v>1003</v>
       </c>
       <c r="G349" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>1003126</v>
+        <v>1003019</v>
       </c>
       <c r="B350" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C350">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>723</v>
       </c>
       <c r="E350" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F350">
         <v>1003</v>
       </c>
       <c r="G350" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>1003019</v>
+        <v>1003004</v>
       </c>
       <c r="B351" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C351">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>724</v>
       </c>
       <c r="E351" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F351">
         <v>1003</v>
       </c>
       <c r="G351" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>1003004</v>
+        <v>1003013</v>
       </c>
       <c r="B352" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C352">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>725</v>
       </c>
       <c r="E352" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F352">
         <v>1003</v>
       </c>
       <c r="G352" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>1003013</v>
+        <v>1003127</v>
       </c>
       <c r="B353" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C353">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>726</v>
       </c>
       <c r="E353" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F353">
         <v>1003</v>
       </c>
       <c r="G353" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>1003127</v>
+        <v>1003002</v>
       </c>
       <c r="B354" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C354">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>727</v>
+        <v>432</v>
       </c>
       <c r="E354" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F354">
         <v>1003</v>
       </c>
       <c r="G354" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>1003002</v>
+        <v>1003007</v>
       </c>
       <c r="B355" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C355">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>432</v>
+        <v>727</v>
       </c>
       <c r="E355" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F355">
         <v>1003</v>
       </c>
       <c r="G355" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>1003007</v>
+        <v>1003030</v>
       </c>
       <c r="B356" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C356">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>728</v>
+        <v>432</v>
       </c>
       <c r="E356" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F356">
         <v>1003</v>
       </c>
       <c r="G356" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>1003030</v>
+        <v>1003024</v>
       </c>
       <c r="B357" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C357">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>432</v>
+        <v>728</v>
       </c>
       <c r="E357" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F357">
         <v>1003</v>
       </c>
       <c r="G357" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>1003024</v>
+        <v>1003027</v>
       </c>
       <c r="B358" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C358">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>729</v>
+        <v>432</v>
       </c>
       <c r="E358" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F358">
         <v>1003</v>
       </c>
       <c r="G358" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>1003027</v>
+        <v>1003005</v>
       </c>
       <c r="B359" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C359">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E359" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F359">
         <v>1003</v>
       </c>
       <c r="G359" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>1003005</v>
+        <v>1003025</v>
       </c>
       <c r="B360" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C360">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E360" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F360">
         <v>1003</v>
       </c>
       <c r="G360" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>1003025</v>
+        <v>1003026</v>
       </c>
       <c r="B361" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C361">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>432</v>
+        <v>729</v>
       </c>
       <c r="E361" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F361">
         <v>1003</v>
       </c>
       <c r="G361" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>1003026</v>
+        <v>1003016</v>
       </c>
       <c r="B362" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C362">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>730</v>
+        <v>432</v>
       </c>
       <c r="E362" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F362">
         <v>1003</v>
       </c>
       <c r="G362" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>1003016</v>
+        <v>1003010</v>
       </c>
       <c r="B363" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C363">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>432</v>
+        <v>730</v>
       </c>
       <c r="E363" t="s">
         <v>796</v>
@@ -11193,274 +11190,274 @@
         <v>1003</v>
       </c>
       <c r="G363" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>1003010</v>
+        <v>1003128</v>
       </c>
       <c r="B364" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C364">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>731</v>
       </c>
       <c r="E364" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F364">
         <v>1003</v>
       </c>
       <c r="G364" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>1003128</v>
+        <v>1003017</v>
       </c>
       <c r="B365" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C365">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>732</v>
       </c>
       <c r="E365" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F365">
         <v>1003</v>
       </c>
       <c r="G365" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>1003017</v>
+        <v>1003008</v>
       </c>
       <c r="B366" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C366">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>733</v>
       </c>
       <c r="E366" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F366">
         <v>1003</v>
       </c>
       <c r="G366" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>1003008</v>
+        <v>1003014</v>
       </c>
       <c r="B367" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C367">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E367" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F367">
         <v>1003</v>
       </c>
       <c r="G367" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>1003014</v>
+        <v>1003003</v>
       </c>
       <c r="B368" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C368">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>735</v>
+        <v>432</v>
       </c>
       <c r="E368" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F368">
         <v>1003</v>
       </c>
       <c r="G368" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>1003003</v>
+        <v>1003006</v>
       </c>
       <c r="B369" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C369">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E369" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F369">
         <v>1003</v>
       </c>
       <c r="G369" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>1003006</v>
+        <v>1003011</v>
       </c>
       <c r="B370" t="s">
-        <v>357</v>
+        <v>141</v>
       </c>
       <c r="C370">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>432</v>
+        <v>735</v>
       </c>
       <c r="E370" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F370">
         <v>1003</v>
       </c>
       <c r="G370" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>1003011</v>
+        <v>1003021</v>
       </c>
       <c r="B371" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
       <c r="C371">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>736</v>
       </c>
       <c r="E371" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F371">
         <v>1003</v>
       </c>
       <c r="G371" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>1003021</v>
+        <v>1003033</v>
       </c>
       <c r="B372" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C372">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>737</v>
       </c>
       <c r="E372" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F372">
         <v>1003</v>
       </c>
       <c r="G372" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>1003033</v>
+        <v>1003015</v>
       </c>
       <c r="B373" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C373">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>738</v>
+        <v>432</v>
       </c>
       <c r="E373" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F373">
         <v>1003</v>
       </c>
       <c r="G373" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>1003015</v>
+        <v>1003129</v>
       </c>
       <c r="B374" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C374">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E374" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F374">
         <v>1003</v>
       </c>
       <c r="G374" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>1003129</v>
+        <v>1003009</v>
       </c>
       <c r="B375" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C375">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>432</v>
+        <v>738</v>
       </c>
       <c r="E375" t="s">
         <v>797</v>
@@ -11469,188 +11466,188 @@
         <v>1003</v>
       </c>
       <c r="G375" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>1003009</v>
+        <v>1003018</v>
       </c>
       <c r="B376" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C376">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>739</v>
       </c>
       <c r="E376" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F376">
         <v>1003</v>
       </c>
       <c r="G376" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>1003018</v>
+        <v>1003029</v>
       </c>
       <c r="B377" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C377">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>740</v>
       </c>
       <c r="E377" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F377">
         <v>1003</v>
       </c>
       <c r="G377" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>1003029</v>
+        <v>1003130</v>
       </c>
       <c r="B378" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="C378">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="E378" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F378">
         <v>1003</v>
       </c>
       <c r="G378" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>1003130</v>
+        <v>1003131</v>
       </c>
       <c r="B379" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C379">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>692</v>
       </c>
       <c r="E379" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F379">
         <v>1003</v>
       </c>
       <c r="G379" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>1003131</v>
+        <v>1003022</v>
       </c>
       <c r="B380" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="C380">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
       <c r="E380" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F380">
         <v>1003</v>
       </c>
       <c r="G380" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>1003022</v>
+        <v>1003020</v>
       </c>
       <c r="B381" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C381">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>742</v>
       </c>
       <c r="E381" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F381">
         <v>1003</v>
       </c>
       <c r="G381" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>1003020</v>
+        <v>1003132</v>
       </c>
       <c r="B382" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C382">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>743</v>
       </c>
       <c r="E382" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F382">
         <v>1003</v>
       </c>
       <c r="G382" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>1003132</v>
+        <v>1002021</v>
       </c>
       <c r="B383" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C383">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>744</v>
       </c>
       <c r="E383" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F383">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G383" t="s">
         <v>810</v>
@@ -11658,85 +11655,85 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>1002021</v>
+        <v>1002025</v>
       </c>
       <c r="B384" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C384">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>745</v>
       </c>
       <c r="E384" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F384">
         <v>1002</v>
       </c>
       <c r="G384" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>1002025</v>
+        <v>1002001</v>
       </c>
       <c r="B385" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C385">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>746</v>
+        <v>432</v>
       </c>
       <c r="E385" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F385">
         <v>1002</v>
       </c>
       <c r="G385" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>1002001</v>
+        <v>1002108</v>
       </c>
       <c r="B386" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E386" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F386">
         <v>1002</v>
       </c>
       <c r="G386" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>1002108</v>
+        <v>1002019</v>
       </c>
       <c r="B387" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C387">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>432</v>
+        <v>746</v>
       </c>
       <c r="E387" t="s">
         <v>795</v>
@@ -11745,136 +11742,136 @@
         <v>1002</v>
       </c>
       <c r="G387" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>1002019</v>
+        <v>1002007</v>
       </c>
       <c r="B388" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C388">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>747</v>
       </c>
       <c r="E388" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F388">
         <v>1002</v>
       </c>
       <c r="G388" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>1002007</v>
+        <v>1002003</v>
       </c>
       <c r="B389" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C389">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>748</v>
       </c>
       <c r="E389" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F389">
         <v>1002</v>
       </c>
       <c r="G389" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>1002003</v>
+        <v>1002024</v>
       </c>
       <c r="B390" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C390">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>749</v>
       </c>
       <c r="E390" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F390">
         <v>1002</v>
       </c>
       <c r="G390" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>1002024</v>
+        <v>1002004</v>
       </c>
       <c r="B391" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C391">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>750</v>
+        <v>432</v>
       </c>
       <c r="E391" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F391">
         <v>1002</v>
       </c>
       <c r="G391" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>1002004</v>
+        <v>1002018</v>
       </c>
       <c r="B392" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C392">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E392" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F392">
         <v>1002</v>
       </c>
       <c r="G392" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>1002018</v>
+        <v>1002008</v>
       </c>
       <c r="B393" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C393">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>432</v>
+        <v>750</v>
       </c>
       <c r="E393" t="s">
         <v>796</v>
@@ -11883,248 +11880,248 @@
         <v>1002</v>
       </c>
       <c r="G393" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>1002008</v>
+        <v>1002002</v>
       </c>
       <c r="B394" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C394">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>751</v>
       </c>
       <c r="E394" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F394">
         <v>1002</v>
       </c>
       <c r="G394" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>1002002</v>
+        <v>1002006</v>
       </c>
       <c r="B395" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C395">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>752</v>
       </c>
       <c r="E395" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F395">
         <v>1002</v>
       </c>
       <c r="G395" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>1002006</v>
+        <v>1002015</v>
       </c>
       <c r="B396" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C396">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>753</v>
       </c>
       <c r="E396" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F396">
         <v>1002</v>
       </c>
       <c r="G396" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>1002015</v>
+        <v>1002013</v>
       </c>
       <c r="B397" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C397">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>754</v>
       </c>
       <c r="E397" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F397">
         <v>1002</v>
       </c>
       <c r="G397" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>1002013</v>
+        <v>1002012</v>
       </c>
       <c r="B398" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C398">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>755</v>
       </c>
       <c r="E398" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F398">
         <v>1002</v>
       </c>
       <c r="G398" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>1002012</v>
+        <v>1002011</v>
       </c>
       <c r="B399" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C399">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>756</v>
       </c>
       <c r="E399" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F399">
         <v>1002</v>
       </c>
       <c r="G399" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>1002011</v>
+        <v>1002027</v>
       </c>
       <c r="B400" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C400">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>757</v>
       </c>
       <c r="E400" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F400">
         <v>1002</v>
       </c>
       <c r="G400" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>1002027</v>
+        <v>1002005</v>
       </c>
       <c r="B401" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C401">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>758</v>
       </c>
       <c r="E401" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F401">
         <v>1002</v>
       </c>
       <c r="G401" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>1002005</v>
+        <v>1002109</v>
       </c>
       <c r="B402" t="s">
-        <v>385</v>
+        <v>141</v>
       </c>
       <c r="C402">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="E402" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F402">
         <v>1002</v>
       </c>
       <c r="G402" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>1002109</v>
+        <v>1002022</v>
       </c>
       <c r="B403" t="s">
-        <v>141</v>
+        <v>386</v>
       </c>
       <c r="C403">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="E403" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F403">
         <v>1002</v>
       </c>
       <c r="G403" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>1002022</v>
+        <v>1002009</v>
       </c>
       <c r="B404" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C404">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>760</v>
@@ -12136,211 +12133,211 @@
         <v>1002</v>
       </c>
       <c r="G404" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>1002009</v>
+        <v>1002017</v>
       </c>
       <c r="B405" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
       <c r="C405">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>761</v>
       </c>
       <c r="E405" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F405">
         <v>1002</v>
       </c>
       <c r="G405" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>1002017</v>
+        <v>1002110</v>
       </c>
       <c r="B406" t="s">
-        <v>212</v>
+        <v>388</v>
       </c>
       <c r="C406">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>762</v>
       </c>
       <c r="E406" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F406">
         <v>1002</v>
       </c>
       <c r="G406" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>1002110</v>
+        <v>1002020</v>
       </c>
       <c r="B407" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C407">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>763</v>
       </c>
       <c r="E407" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F407">
         <v>1002</v>
       </c>
       <c r="G407" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>1002020</v>
+        <v>1002014</v>
       </c>
       <c r="B408" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C408">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>764</v>
       </c>
       <c r="E408" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F408">
         <v>1002</v>
       </c>
       <c r="G408" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>1002014</v>
+        <v>1002023</v>
       </c>
       <c r="B409" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C409">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>765</v>
+        <v>432</v>
       </c>
       <c r="E409" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F409">
         <v>1002</v>
       </c>
       <c r="G409" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>1002023</v>
+        <v>1002016</v>
       </c>
       <c r="B410" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C410">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E410" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F410">
         <v>1002</v>
       </c>
       <c r="G410" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>1002016</v>
+        <v>1002026</v>
       </c>
       <c r="B411" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C411">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E411" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F411">
         <v>1002</v>
       </c>
       <c r="G411" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>1002026</v>
+        <v>1002111</v>
       </c>
       <c r="B412" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C412">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>432</v>
+        <v>765</v>
       </c>
       <c r="E412" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F412">
         <v>1002</v>
       </c>
       <c r="G412" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>1002111</v>
+        <v>1001199</v>
       </c>
       <c r="B413" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C413">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>766</v>
+        <v>432</v>
       </c>
       <c r="E413" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F413">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G413" t="s">
         <v>811</v>
@@ -12348,39 +12345,39 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>1001199</v>
+        <v>1001200</v>
       </c>
       <c r="B414" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C414">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E414" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F414">
         <v>1001</v>
       </c>
       <c r="G414" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>1001200</v>
+        <v>1001021</v>
       </c>
       <c r="B415" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C415">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>432</v>
+        <v>766</v>
       </c>
       <c r="E415" t="s">
         <v>794</v>
@@ -12389,87 +12386,87 @@
         <v>1001</v>
       </c>
       <c r="G415" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>1001021</v>
+        <v>1001152</v>
       </c>
       <c r="B416" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C416">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>767</v>
+        <v>432</v>
       </c>
       <c r="E416" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F416">
         <v>1001</v>
       </c>
       <c r="G416" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>1001152</v>
+        <v>1001001</v>
       </c>
       <c r="B417" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C417">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E417" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F417">
         <v>1001</v>
       </c>
       <c r="G417" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>1001001</v>
+        <v>1001029</v>
       </c>
       <c r="B418" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>432</v>
+        <v>767</v>
       </c>
       <c r="E418" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F418">
         <v>1001</v>
       </c>
       <c r="G418" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>1001029</v>
+        <v>1001023</v>
       </c>
       <c r="B419" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C419">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>768</v>
@@ -12481,317 +12478,317 @@
         <v>1001</v>
       </c>
       <c r="G419" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>1001023</v>
+        <v>1001153</v>
       </c>
       <c r="B420" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C420">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>769</v>
       </c>
       <c r="E420" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F420">
         <v>1001</v>
       </c>
       <c r="G420" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>1001153</v>
+        <v>1001020</v>
       </c>
       <c r="B421" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C421">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>770</v>
       </c>
       <c r="E421" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F421">
         <v>1001</v>
       </c>
       <c r="G421" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>1001020</v>
+        <v>1001013</v>
       </c>
       <c r="B422" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C422">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>771</v>
       </c>
       <c r="E422" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F422">
         <v>1001</v>
       </c>
       <c r="G422" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>1001013</v>
+        <v>1001024</v>
       </c>
       <c r="B423" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C423">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>772</v>
       </c>
       <c r="E423" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F423">
         <v>1001</v>
       </c>
       <c r="G423" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>1001024</v>
+        <v>1001002</v>
       </c>
       <c r="B424" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C424">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>773</v>
       </c>
       <c r="E424" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F424">
         <v>1001</v>
       </c>
       <c r="G424" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>1001002</v>
+        <v>1001043</v>
       </c>
       <c r="B425" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C425">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>774</v>
       </c>
       <c r="E425" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F425">
         <v>1001</v>
       </c>
       <c r="G425" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>1001043</v>
+        <v>1001041</v>
       </c>
       <c r="B426" t="s">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="C426">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>775</v>
+        <v>432</v>
       </c>
       <c r="E426" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F426">
         <v>1001</v>
       </c>
       <c r="G426" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>1001041</v>
+        <v>1001025</v>
       </c>
       <c r="B427" t="s">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="C427">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>432</v>
+        <v>775</v>
       </c>
       <c r="E427" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F427">
         <v>1001</v>
       </c>
       <c r="G427" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>1001025</v>
+        <v>1001012</v>
       </c>
       <c r="B428" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C428">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>776</v>
+        <v>432</v>
       </c>
       <c r="E428" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F428">
         <v>1001</v>
       </c>
       <c r="G428" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>1001012</v>
+        <v>1001045</v>
       </c>
       <c r="B429" t="s">
-        <v>408</v>
+        <v>310</v>
       </c>
       <c r="C429">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>432</v>
+        <v>776</v>
       </c>
       <c r="E429" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F429">
         <v>1001</v>
       </c>
       <c r="G429" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>1001045</v>
+        <v>1001003</v>
       </c>
       <c r="B430" t="s">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="C430">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>777</v>
       </c>
       <c r="E430" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F430">
         <v>1001</v>
       </c>
       <c r="G430" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>1001003</v>
+        <v>1001154</v>
       </c>
       <c r="B431" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C431">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>778</v>
+        <v>432</v>
       </c>
       <c r="E431" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F431">
         <v>1001</v>
       </c>
       <c r="G431" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>1001154</v>
+        <v>1001155</v>
       </c>
       <c r="B432" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C432">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>432</v>
+        <v>778</v>
       </c>
       <c r="E432" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F432">
         <v>1001</v>
       </c>
       <c r="G432" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>1001155</v>
+        <v>1001010</v>
       </c>
       <c r="B433" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C433">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>779</v>
@@ -12803,366 +12800,366 @@
         <v>1001</v>
       </c>
       <c r="G433" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>1001010</v>
+        <v>1001011</v>
       </c>
       <c r="B434" t="s">
-        <v>412</v>
+        <v>200</v>
       </c>
       <c r="C434">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>780</v>
+        <v>602</v>
       </c>
       <c r="E434" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F434">
         <v>1001</v>
       </c>
       <c r="G434" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>1001011</v>
+        <v>1001005</v>
       </c>
       <c r="B435" t="s">
-        <v>200</v>
+        <v>413</v>
       </c>
       <c r="C435">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>602</v>
+        <v>780</v>
       </c>
       <c r="E435" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F435">
         <v>1001</v>
       </c>
       <c r="G435" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>1001005</v>
+        <v>1001004</v>
       </c>
       <c r="B436" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C436">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>781</v>
       </c>
       <c r="E436" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F436">
         <v>1001</v>
       </c>
       <c r="G436" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>1001004</v>
+        <v>1001018</v>
       </c>
       <c r="B437" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C437">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>782</v>
       </c>
       <c r="E437" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F437">
         <v>1001</v>
       </c>
       <c r="G437" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>1001018</v>
+        <v>1001016</v>
       </c>
       <c r="B438" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C438">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>783</v>
       </c>
       <c r="E438" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F438">
         <v>1001</v>
       </c>
       <c r="G438" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>1001016</v>
+        <v>1001006</v>
       </c>
       <c r="B439" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C439">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>784</v>
       </c>
       <c r="E439" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F439">
         <v>1001</v>
       </c>
       <c r="G439" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>1001006</v>
+        <v>1001008</v>
       </c>
       <c r="B440" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C440">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>785</v>
       </c>
       <c r="E440" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F440">
         <v>1001</v>
       </c>
       <c r="G440" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>1001008</v>
+        <v>1001156</v>
       </c>
       <c r="B441" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C441">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>786</v>
+        <v>432</v>
       </c>
       <c r="E441" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F441">
         <v>1001</v>
       </c>
       <c r="G441" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>1001156</v>
+        <v>1001030</v>
       </c>
       <c r="B442" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C442">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>432</v>
+        <v>786</v>
       </c>
       <c r="E442" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F442">
         <v>1001</v>
       </c>
       <c r="G442" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>1001030</v>
+        <v>1001022</v>
       </c>
       <c r="B443" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C443">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>787</v>
+        <v>432</v>
       </c>
       <c r="E443" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F443">
         <v>1001</v>
       </c>
       <c r="G443" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>1001022</v>
+        <v>1001044</v>
       </c>
       <c r="B444" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C444">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E444" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F444">
         <v>1001</v>
       </c>
       <c r="G444" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>1001044</v>
+        <v>1001007</v>
       </c>
       <c r="B445" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C445">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E445" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F445">
         <v>1001</v>
       </c>
       <c r="G445" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>1001007</v>
+        <v>1001033</v>
       </c>
       <c r="B446" t="s">
-        <v>423</v>
+        <v>213</v>
       </c>
       <c r="C446">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E446" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F446">
         <v>1001</v>
       </c>
       <c r="G446" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>1001033</v>
+        <v>1001157</v>
       </c>
       <c r="B447" t="s">
-        <v>213</v>
+        <v>424</v>
       </c>
       <c r="C447">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E447" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F447">
         <v>1001</v>
       </c>
       <c r="G447" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>1001157</v>
+        <v>1001158</v>
       </c>
       <c r="B448" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C448">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D448" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E448" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F448">
         <v>1001</v>
       </c>
       <c r="G448" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>1001158</v>
+        <v>1001039</v>
       </c>
       <c r="B449" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C449">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>432</v>
+        <v>787</v>
       </c>
       <c r="E449" t="s">
         <v>797</v>
@@ -13171,191 +13168,168 @@
         <v>1001</v>
       </c>
       <c r="G449" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>1001039</v>
+        <v>1001009</v>
       </c>
       <c r="B450" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C450">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
         <v>788</v>
       </c>
       <c r="E450" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F450">
         <v>1001</v>
       </c>
       <c r="G450" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>1001009</v>
+        <v>1001046</v>
       </c>
       <c r="B451" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C451">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D451" s="2" t="s">
         <v>789</v>
       </c>
       <c r="E451" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F451">
         <v>1001</v>
       </c>
       <c r="G451" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>1001046</v>
+        <v>1001028</v>
       </c>
       <c r="B452" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C452">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>790</v>
       </c>
       <c r="E452" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F452">
         <v>1001</v>
       </c>
       <c r="G452" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>1001028</v>
+        <v>1001159</v>
       </c>
       <c r="B453" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C453">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>791</v>
+        <v>432</v>
       </c>
       <c r="E453" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F453">
         <v>1001</v>
       </c>
       <c r="G453" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>1001159</v>
+        <v>1001017</v>
       </c>
       <c r="B454" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C454">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>432</v>
+        <v>791</v>
       </c>
       <c r="E454" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F454">
         <v>1001</v>
       </c>
       <c r="G454" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>1001017</v>
+        <v>1001160</v>
       </c>
       <c r="B455" t="s">
-        <v>431</v>
+        <v>89</v>
       </c>
       <c r="C455">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>792</v>
+        <v>432</v>
       </c>
       <c r="E455" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F455">
         <v>1001</v>
       </c>
       <c r="G455" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>1001160</v>
+        <v>1001161</v>
       </c>
       <c r="B456" t="s">
-        <v>89</v>
+        <v>426</v>
       </c>
       <c r="C456">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>432</v>
+        <v>792</v>
       </c>
       <c r="E456" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F456">
         <v>1001</v>
       </c>
       <c r="G456" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A457">
-        <v>1001161</v>
-      </c>
-      <c r="B457" t="s">
-        <v>426</v>
-      </c>
-      <c r="C457">
-        <v>161</v>
-      </c>
-      <c r="D457" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="E457" t="s">
-        <v>798</v>
-      </c>
-      <c r="F457">
-        <v>1001</v>
-      </c>
-      <c r="G457" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -13644,178 +13618,177 @@
     <hyperlink ref="D283" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
     <hyperlink ref="D284" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
     <hyperlink ref="D285" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="D286" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="D287" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="D288" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="D289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="D290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="D291" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="D292" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="D293" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="D294" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="D295" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="D296" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="D297" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="D298" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="D299" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="D300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="D301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="D302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="D303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="D304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="D305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="D306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="D307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="D308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="D309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="D310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="D311" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="D312" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="D313" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="D314" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="D315" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="D316" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="D317" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="D318" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="D319" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="D320" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="D321" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="D322" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="D323" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="D324" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="D325" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="D326" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="D327" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="D328" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="D329" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="D330" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="D331" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="D332" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="D333" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="D334" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="D335" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="D336" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="D337" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="D338" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="D339" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="D340" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="D341" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="D342" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="D343" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="D344" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="D345" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="D346" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="D347" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="D348" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="D349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="D350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="D351" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="D352" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="D353" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="D354" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="D355" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="D356" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="D357" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="D358" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="D359" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="D360" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="D361" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="D362" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="D363" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="D364" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="D365" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="D366" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="D367" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="D368" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="D369" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="D370" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="D371" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="D372" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="D373" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="D374" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="D375" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="D376" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="D377" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="D378" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="D379" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="D380" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="D381" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="D382" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="D383" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="D384" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="D385" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="D386" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="D387" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="D388" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="D389" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="D390" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="D391" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="D392" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="D393" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="D394" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="D395" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="D396" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="D397" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="D398" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="D399" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="D400" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="D401" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="D402" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="D403" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="D404" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="D405" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="D406" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="D407" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="D408" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="D409" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="D410" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="D411" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="D412" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="D413" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="D414" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="D415" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="D416" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="D417" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="D418" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="D419" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="D420" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="D421" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="D422" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="D423" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="D424" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="D425" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="D426" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="D427" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="D428" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="D429" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="D430" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="D431" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="D432" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="D433" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="D434" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="D435" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="D436" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="D437" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="D438" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="D439" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="D440" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="D441" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="D442" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="D443" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="D444" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="D445" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="D446" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="D447" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="D448" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="D449" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="D450" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="D451" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="D452" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="D453" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="D454" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="D455" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="D456" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="D457" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="D286" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="D287" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="D288" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="D289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="D290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="D291" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="D292" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="D293" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="D294" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="D295" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="D296" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="D297" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="D298" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="D299" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="D300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="D301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="D302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="D303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="D304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="D305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="D306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="D307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="D308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="D309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="D310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="D311" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="D312" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="D313" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="D314" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="D315" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="D316" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="D317" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="D318" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="D319" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="D320" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="D321" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="D322" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="D323" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="D324" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="D325" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="D326" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="D327" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="D328" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="D329" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="D330" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="D331" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="D332" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="D333" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="D334" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="D335" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="D336" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="D337" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="D338" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="D339" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="D340" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="D341" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="D342" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="D343" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="D344" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="D345" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="D346" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="D347" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="D348" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="D349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="D350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="D351" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="D352" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="D353" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="D354" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="D355" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="D356" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="D357" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="D358" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="D359" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="D360" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="D361" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="D362" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="D363" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="D364" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="D365" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="D366" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="D367" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="D368" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="D369" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="D370" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="D371" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="D372" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="D373" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="D374" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="D375" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="D376" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="D377" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="D378" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="D379" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="D380" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="D381" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="D382" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="D383" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="D384" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="D385" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="D386" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="D387" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="D388" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="D389" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="D390" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="D391" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="D392" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="D393" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="D394" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="D395" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="D396" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="D397" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="D398" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="D399" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="D400" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="D401" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="D402" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="D403" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="D404" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="D405" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="D406" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="D407" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="D408" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="D409" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="D410" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="D411" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="D412" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="D413" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="D414" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="D415" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="D416" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="D417" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="D418" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="D419" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="D420" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="D421" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="D422" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="D423" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="D424" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="D425" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="D426" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="D427" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="D428" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="D429" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="D430" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="D431" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="D432" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="D433" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="D434" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="D435" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="D436" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="D437" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="D438" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="D439" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="D440" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="D441" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="D442" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="D443" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="D444" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="D445" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="D446" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="D447" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="D448" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="D449" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="D450" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="D451" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="D452" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="D453" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="D454" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="D455" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="D456" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/LigaPremier.xlsx
+++ b/backend/data/LigaPremier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25EBFEF5-26FE-4AF3-A9D9-E7B4F71DB2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB25E617-3457-44C0-89EE-E940043FC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="814">
   <si>
     <t>Id_jugador</t>
   </si>
@@ -2456,13 +2456,19 @@
   </si>
   <si>
     <t>Atlético Hidalgo</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Fuentes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2484,6 +2490,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2509,9 +2523,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2525,18 +2537,67 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2547,6 +2608,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6892C88-C880-40BB-9D27-B3E8CCE610EC}" name="Tabla1" displayName="Tabla1" ref="A1:G458" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:G458" xr:uid="{D6892C88-C880-40BB-9D27-B3E8CCE610EC}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Ciervos"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DB3A9B59-5C7F-45CA-BA0A-513EDAB4A1CF}" name="Id_jugador"/>
+    <tableColumn id="2" xr3:uid="{1088BF04-47B1-45DD-9512-09FF548F37A4}" name="Nombre"/>
+    <tableColumn id="3" xr3:uid="{138C6B2B-B1EA-4805-BF70-99FC298E8122}" name="NumCamisa"/>
+    <tableColumn id="4" xr3:uid="{AB8B64F7-30C7-4843-968B-0D0436DF304A}" name="Imagen_jugador" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{74AE3BF0-E084-469E-8D8D-3426F3E8F015}" name="Pos"/>
+    <tableColumn id="6" xr3:uid="{18E4B91B-1116-4536-88D0-BC3D7B2330D7}" name="Id_Club"/>
+    <tableColumn id="7" xr3:uid="{66FEB43A-EA42-4233-AAAB-672155866FF8}" name="Nombre_Club"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2836,38 +2919,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G456"/>
+  <dimension ref="A1:I460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="D460" sqref="D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1014146</v>
       </c>
@@ -2877,7 +2968,7 @@
       <c r="C2">
         <v>146</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E2" t="s">
@@ -2890,7 +2981,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1014001</v>
       </c>
@@ -2900,7 +2991,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>433</v>
       </c>
       <c r="E3" t="s">
@@ -2913,7 +3004,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1014031</v>
       </c>
@@ -2923,7 +3014,7 @@
       <c r="C4">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>434</v>
       </c>
       <c r="E4" t="s">
@@ -2935,8 +3026,9 @@
       <c r="G4" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1014012</v>
       </c>
@@ -2946,7 +3038,7 @@
       <c r="C5">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>435</v>
       </c>
       <c r="E5" t="s">
@@ -2959,7 +3051,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1014023</v>
       </c>
@@ -2969,7 +3061,7 @@
       <c r="C6">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>436</v>
       </c>
       <c r="E6" t="s">
@@ -2982,7 +3074,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1014004</v>
       </c>
@@ -2992,7 +3084,7 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E7" t="s">
@@ -3005,7 +3097,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1014005</v>
       </c>
@@ -3015,7 +3107,7 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>438</v>
       </c>
       <c r="E8" t="s">
@@ -3028,7 +3120,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1014003</v>
       </c>
@@ -3038,7 +3130,7 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>439</v>
       </c>
       <c r="E9" t="s">
@@ -3051,7 +3143,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1014006</v>
       </c>
@@ -3061,7 +3153,7 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>440</v>
       </c>
       <c r="E10" t="s">
@@ -3074,7 +3166,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1014147</v>
       </c>
@@ -3084,7 +3176,7 @@
       <c r="C11">
         <v>147</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>441</v>
       </c>
       <c r="E11" t="s">
@@ -3097,7 +3189,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1014024</v>
       </c>
@@ -3107,7 +3199,7 @@
       <c r="C12">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>442</v>
       </c>
       <c r="E12" t="s">
@@ -3120,7 +3212,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1014018</v>
       </c>
@@ -3130,7 +3222,7 @@
       <c r="C13">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E13" t="s">
@@ -3143,7 +3235,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1014063</v>
       </c>
@@ -3153,7 +3245,7 @@
       <c r="C14">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E14" t="s">
@@ -3166,7 +3258,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1014148</v>
       </c>
@@ -3176,7 +3268,7 @@
       <c r="C15">
         <v>148</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>444</v>
       </c>
       <c r="E15" t="s">
@@ -3189,7 +3281,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014002</v>
       </c>
@@ -3199,7 +3291,7 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>445</v>
       </c>
       <c r="E16" t="s">
@@ -3212,7 +3304,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1014010</v>
       </c>
@@ -3222,7 +3314,7 @@
       <c r="C17">
         <v>10</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>446</v>
       </c>
       <c r="E17" t="s">
@@ -3235,7 +3327,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1014017</v>
       </c>
@@ -3245,7 +3337,7 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>447</v>
       </c>
       <c r="E18" t="s">
@@ -3258,7 +3350,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1014014</v>
       </c>
@@ -3268,7 +3360,7 @@
       <c r="C19">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>448</v>
       </c>
       <c r="E19" t="s">
@@ -3281,7 +3373,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1014020</v>
       </c>
@@ -3291,7 +3383,7 @@
       <c r="C20">
         <v>20</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>449</v>
       </c>
       <c r="E20" t="s">
@@ -3304,7 +3396,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1014058</v>
       </c>
@@ -3314,7 +3406,7 @@
       <c r="C21">
         <v>58</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E21" t="s">
@@ -3327,7 +3419,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1014149</v>
       </c>
@@ -3337,7 +3429,7 @@
       <c r="C22">
         <v>149</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E22" t="s">
@@ -3350,7 +3442,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1014016</v>
       </c>
@@ -3360,7 +3452,7 @@
       <c r="C23">
         <v>16</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>451</v>
       </c>
       <c r="E23" t="s">
@@ -3373,7 +3465,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1014027</v>
       </c>
@@ -3383,7 +3475,7 @@
       <c r="C24">
         <v>27</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>452</v>
       </c>
       <c r="E24" t="s">
@@ -3396,7 +3488,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1014015</v>
       </c>
@@ -3406,7 +3498,7 @@
       <c r="C25">
         <v>15</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E25" t="s">
@@ -3419,7 +3511,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1014201</v>
       </c>
@@ -3429,7 +3521,7 @@
       <c r="C26">
         <v>201</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E26" t="s">
@@ -3442,7 +3534,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1014072</v>
       </c>
@@ -3452,7 +3544,7 @@
       <c r="C27">
         <v>72</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>453</v>
       </c>
       <c r="E27" t="s">
@@ -3465,7 +3557,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1014052</v>
       </c>
@@ -3475,7 +3567,7 @@
       <c r="C28">
         <v>52</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>454</v>
       </c>
       <c r="E28" t="s">
@@ -3488,7 +3580,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1014008</v>
       </c>
@@ -3498,7 +3590,7 @@
       <c r="C29">
         <v>8</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E29" t="s">
@@ -3511,7 +3603,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1014026</v>
       </c>
@@ -3521,7 +3613,7 @@
       <c r="C30">
         <v>26</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>455</v>
       </c>
       <c r="E30" t="s">
@@ -3534,7 +3626,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1014019</v>
       </c>
@@ -3544,7 +3636,7 @@
       <c r="C31">
         <v>19</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>456</v>
       </c>
       <c r="E31" t="s">
@@ -3557,7 +3649,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1014059</v>
       </c>
@@ -3567,7 +3659,7 @@
       <c r="C32">
         <v>59</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>457</v>
       </c>
       <c r="E32" t="s">
@@ -3580,7 +3672,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1014007</v>
       </c>
@@ -3590,7 +3682,7 @@
       <c r="C33">
         <v>7</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>458</v>
       </c>
       <c r="E33" t="s">
@@ -3603,7 +3695,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1014200</v>
       </c>
@@ -3613,7 +3705,7 @@
       <c r="C34">
         <v>200</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E34" t="s">
@@ -3626,7 +3718,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1014033</v>
       </c>
@@ -3636,7 +3728,7 @@
       <c r="C35">
         <v>33</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>460</v>
       </c>
       <c r="E35" t="s">
@@ -3649,7 +3741,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1014056</v>
       </c>
@@ -3659,7 +3751,7 @@
       <c r="C36">
         <v>56</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E36" t="s">
@@ -3672,7 +3764,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1014035</v>
       </c>
@@ -3682,7 +3774,7 @@
       <c r="C37">
         <v>35</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>461</v>
       </c>
       <c r="E37" t="s">
@@ -3695,7 +3787,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1014159</v>
       </c>
@@ -3705,7 +3797,7 @@
       <c r="C38">
         <v>59</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E38" t="s">
@@ -3718,7 +3810,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1013012</v>
       </c>
@@ -3728,7 +3820,7 @@
       <c r="C39">
         <v>12</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E39" t="s">
@@ -3741,7 +3833,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1013022</v>
       </c>
@@ -3751,7 +3843,7 @@
       <c r="C40">
         <v>22</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E40" t="s">
@@ -3764,7 +3856,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1013004</v>
       </c>
@@ -3774,7 +3866,7 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>463</v>
       </c>
       <c r="E41" t="s">
@@ -3787,7 +3879,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1013028</v>
       </c>
@@ -3797,7 +3889,7 @@
       <c r="C42">
         <v>28</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>464</v>
       </c>
       <c r="E42" t="s">
@@ -3810,7 +3902,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1013020</v>
       </c>
@@ -3820,7 +3912,7 @@
       <c r="C43">
         <v>20</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E43" t="s">
@@ -3833,7 +3925,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1013024</v>
       </c>
@@ -3843,7 +3935,7 @@
       <c r="C44">
         <v>24</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>465</v>
       </c>
       <c r="E44" t="s">
@@ -3856,7 +3948,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1013005</v>
       </c>
@@ -3866,7 +3958,7 @@
       <c r="C45">
         <v>5</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>466</v>
       </c>
       <c r="E45" t="s">
@@ -3879,7 +3971,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1013014</v>
       </c>
@@ -3889,7 +3981,7 @@
       <c r="C46">
         <v>14</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>467</v>
       </c>
       <c r="E46" t="s">
@@ -3902,7 +3994,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1013006</v>
       </c>
@@ -3912,7 +4004,7 @@
       <c r="C47">
         <v>6</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>468</v>
       </c>
       <c r="E47" t="s">
@@ -3925,7 +4017,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1013010</v>
       </c>
@@ -3935,7 +4027,7 @@
       <c r="C48">
         <v>10</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>469</v>
       </c>
       <c r="E48" t="s">
@@ -3948,7 +4040,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1013008</v>
       </c>
@@ -3958,7 +4050,7 @@
       <c r="C49">
         <v>8</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>470</v>
       </c>
       <c r="E49" t="s">
@@ -3971,7 +4063,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1013007</v>
       </c>
@@ -3981,7 +4073,7 @@
       <c r="C50">
         <v>7</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>471</v>
       </c>
       <c r="E50" t="s">
@@ -3994,7 +4086,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1013023</v>
       </c>
@@ -4004,7 +4096,7 @@
       <c r="C51">
         <v>23</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>472</v>
       </c>
       <c r="E51" t="s">
@@ -4017,7 +4109,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1013018</v>
       </c>
@@ -4027,7 +4119,7 @@
       <c r="C52">
         <v>18</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>473</v>
       </c>
       <c r="E52" t="s">
@@ -4040,7 +4132,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1013011</v>
       </c>
@@ -4050,7 +4142,7 @@
       <c r="C53">
         <v>11</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>474</v>
       </c>
       <c r="E53" t="s">
@@ -4063,7 +4155,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1013021</v>
       </c>
@@ -4073,7 +4165,7 @@
       <c r="C54">
         <v>21</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E54" t="s">
@@ -4086,7 +4178,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1013016</v>
       </c>
@@ -4096,7 +4188,7 @@
       <c r="C55">
         <v>16</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E55" t="s">
@@ -4109,7 +4201,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1013031</v>
       </c>
@@ -4119,7 +4211,7 @@
       <c r="C56">
         <v>31</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E56" t="s">
@@ -4132,7 +4224,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1013015</v>
       </c>
@@ -4142,7 +4234,7 @@
       <c r="C57">
         <v>15</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>475</v>
       </c>
       <c r="E57" t="s">
@@ -4155,7 +4247,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1013013</v>
       </c>
@@ -4165,7 +4257,7 @@
       <c r="C58">
         <v>13</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E58" t="s">
@@ -4178,7 +4270,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1013019</v>
       </c>
@@ -4188,7 +4280,7 @@
       <c r="C59">
         <v>19</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>476</v>
       </c>
       <c r="E59" t="s">
@@ -4201,7 +4293,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1013002</v>
       </c>
@@ -4211,7 +4303,7 @@
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>477</v>
       </c>
       <c r="E60" t="s">
@@ -4224,7 +4316,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1013030</v>
       </c>
@@ -4234,7 +4326,7 @@
       <c r="C61">
         <v>30</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E61" t="s">
@@ -4247,7 +4339,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1013029</v>
       </c>
@@ -4257,7 +4349,7 @@
       <c r="C62">
         <v>29</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E62" t="s">
@@ -4270,7 +4362,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1013017</v>
       </c>
@@ -4280,7 +4372,7 @@
       <c r="C63">
         <v>17</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>479</v>
       </c>
       <c r="E63" t="s">
@@ -4293,7 +4385,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1013124</v>
       </c>
@@ -4303,7 +4395,7 @@
       <c r="C64">
         <v>124</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>480</v>
       </c>
       <c r="E64" t="s">
@@ -4316,7 +4408,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1012012</v>
       </c>
@@ -4326,7 +4418,7 @@
       <c r="C65">
         <v>12</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>481</v>
       </c>
       <c r="E65" t="s">
@@ -4339,7 +4431,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1012029</v>
       </c>
@@ -4349,7 +4441,7 @@
       <c r="C66">
         <v>29</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>482</v>
       </c>
       <c r="E66" t="s">
@@ -4362,7 +4454,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1012001</v>
       </c>
@@ -4372,7 +4464,7 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>483</v>
       </c>
       <c r="E67" t="s">
@@ -4385,7 +4477,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1012018</v>
       </c>
@@ -4395,7 +4487,7 @@
       <c r="C68">
         <v>18</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>484</v>
       </c>
       <c r="E68" t="s">
@@ -4408,7 +4500,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1012021</v>
       </c>
@@ -4418,7 +4510,7 @@
       <c r="C69">
         <v>21</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>485</v>
       </c>
       <c r="E69" t="s">
@@ -4431,7 +4523,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1012014</v>
       </c>
@@ -4441,7 +4533,7 @@
       <c r="C70">
         <v>14</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>486</v>
       </c>
       <c r="E70" t="s">
@@ -4454,7 +4546,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1012003</v>
       </c>
@@ -4464,7 +4556,7 @@
       <c r="C71">
         <v>3</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>487</v>
       </c>
       <c r="E71" t="s">
@@ -4477,7 +4569,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1012005</v>
       </c>
@@ -4487,7 +4579,7 @@
       <c r="C72">
         <v>5</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>488</v>
       </c>
       <c r="E72" t="s">
@@ -4500,7 +4592,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1012054</v>
       </c>
@@ -4510,7 +4602,7 @@
       <c r="C73">
         <v>54</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>489</v>
       </c>
       <c r="E73" t="s">
@@ -4523,7 +4615,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1012113</v>
       </c>
@@ -4533,7 +4625,7 @@
       <c r="C74">
         <v>113</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>490</v>
       </c>
       <c r="E74" t="s">
@@ -4546,7 +4638,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1012006</v>
       </c>
@@ -4556,7 +4648,7 @@
       <c r="C75">
         <v>6</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>491</v>
       </c>
       <c r="E75" t="s">
@@ -4569,7 +4661,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1012010</v>
       </c>
@@ -4579,7 +4671,7 @@
       <c r="C76">
         <v>10</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E76" t="s">
@@ -4592,7 +4684,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1012008</v>
       </c>
@@ -4602,7 +4694,7 @@
       <c r="C77">
         <v>8</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>492</v>
       </c>
       <c r="E77" t="s">
@@ -4615,7 +4707,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1012015</v>
       </c>
@@ -4625,7 +4717,7 @@
       <c r="C78">
         <v>15</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>493</v>
       </c>
       <c r="E78" t="s">
@@ -4638,7 +4730,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1012016</v>
       </c>
@@ -4648,7 +4740,7 @@
       <c r="C79">
         <v>16</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>494</v>
       </c>
       <c r="E79" t="s">
@@ -4661,7 +4753,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1012007</v>
       </c>
@@ -4671,7 +4763,7 @@
       <c r="C80">
         <v>7</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>495</v>
       </c>
       <c r="E80" t="s">
@@ -4684,7 +4776,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1012114</v>
       </c>
@@ -4694,7 +4786,7 @@
       <c r="C81">
         <v>114</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>496</v>
       </c>
       <c r="E81" t="s">
@@ -4707,7 +4799,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1012002</v>
       </c>
@@ -4717,7 +4809,7 @@
       <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>497</v>
       </c>
       <c r="E82" t="s">
@@ -4730,7 +4822,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1012034</v>
       </c>
@@ -4740,7 +4832,7 @@
       <c r="C83">
         <v>34</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E83" t="s">
@@ -4753,7 +4845,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1012115</v>
       </c>
@@ -4763,7 +4855,7 @@
       <c r="C84">
         <v>115</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>498</v>
       </c>
       <c r="E84" t="s">
@@ -4776,7 +4868,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1012116</v>
       </c>
@@ -4786,7 +4878,7 @@
       <c r="C85">
         <v>116</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E85" t="s">
@@ -4799,7 +4891,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1012035</v>
       </c>
@@ -4809,7 +4901,7 @@
       <c r="C86">
         <v>35</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>499</v>
       </c>
       <c r="E86" t="s">
@@ -4822,7 +4914,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1012026</v>
       </c>
@@ -4832,7 +4924,7 @@
       <c r="C87">
         <v>26</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>500</v>
       </c>
       <c r="E87" t="s">
@@ -4845,7 +4937,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1012033</v>
       </c>
@@ -4855,7 +4947,7 @@
       <c r="C88">
         <v>33</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>501</v>
       </c>
       <c r="E88" t="s">
@@ -4868,7 +4960,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1012117</v>
       </c>
@@ -4878,7 +4970,7 @@
       <c r="C89">
         <v>117</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E89" t="s">
@@ -4891,7 +4983,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1012024</v>
       </c>
@@ -4901,7 +4993,7 @@
       <c r="C90">
         <v>24</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>503</v>
       </c>
       <c r="E90" t="s">
@@ -4914,7 +5006,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1012017</v>
       </c>
@@ -4924,7 +5016,7 @@
       <c r="C91">
         <v>17</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>504</v>
       </c>
       <c r="E91" t="s">
@@ -4937,7 +5029,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1012020</v>
       </c>
@@ -4947,7 +5039,7 @@
       <c r="C92">
         <v>20</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>505</v>
       </c>
       <c r="E92" t="s">
@@ -4960,7 +5052,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1012004</v>
       </c>
@@ -4970,7 +5062,7 @@
       <c r="C93">
         <v>4</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>506</v>
       </c>
       <c r="E93" t="s">
@@ -4983,7 +5075,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1012009</v>
       </c>
@@ -4993,7 +5085,7 @@
       <c r="C94">
         <v>9</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>507</v>
       </c>
       <c r="E94" t="s">
@@ -5006,7 +5098,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1012030</v>
       </c>
@@ -5016,7 +5108,7 @@
       <c r="C95">
         <v>30</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>508</v>
       </c>
       <c r="E95" t="s">
@@ -5029,7 +5121,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1012118</v>
       </c>
@@ -5039,7 +5131,7 @@
       <c r="C96">
         <v>118</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>509</v>
       </c>
       <c r="E96" t="s">
@@ -5052,7 +5144,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1012028</v>
       </c>
@@ -5062,7 +5154,7 @@
       <c r="C97">
         <v>28</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>510</v>
       </c>
       <c r="E97" t="s">
@@ -5075,7 +5167,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1012036</v>
       </c>
@@ -5085,7 +5177,7 @@
       <c r="C98">
         <v>36</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E98" t="s">
@@ -5098,7 +5190,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1012011</v>
       </c>
@@ -5108,7 +5200,7 @@
       <c r="C99">
         <v>11</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>511</v>
       </c>
       <c r="E99" t="s">
@@ -5121,7 +5213,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1012022</v>
       </c>
@@ -5131,7 +5223,7 @@
       <c r="C100">
         <v>22</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>512</v>
       </c>
       <c r="E100" t="s">
@@ -5144,7 +5236,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1012119</v>
       </c>
@@ -5154,7 +5246,7 @@
       <c r="C101">
         <v>119</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>513</v>
       </c>
       <c r="E101" t="s">
@@ -5167,7 +5259,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1011100</v>
       </c>
@@ -5177,7 +5269,7 @@
       <c r="C102">
         <v>100</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E102" t="s">
@@ -5190,7 +5282,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1011018</v>
       </c>
@@ -5200,7 +5292,7 @@
       <c r="C103">
         <v>18</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>514</v>
       </c>
       <c r="E103" t="s">
@@ -5213,7 +5305,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1011101</v>
       </c>
@@ -5223,7 +5315,7 @@
       <c r="C104">
         <v>101</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>515</v>
       </c>
       <c r="E104" t="s">
@@ -5236,7 +5328,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1011023</v>
       </c>
@@ -5246,7 +5338,7 @@
       <c r="C105">
         <v>23</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>516</v>
       </c>
       <c r="E105" t="s">
@@ -5259,7 +5351,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1011003</v>
       </c>
@@ -5269,7 +5361,7 @@
       <c r="C106">
         <v>3</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>517</v>
       </c>
       <c r="E106" t="s">
@@ -5282,7 +5374,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1011004</v>
       </c>
@@ -5292,7 +5384,7 @@
       <c r="C107">
         <v>4</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>518</v>
       </c>
       <c r="E107" t="s">
@@ -5305,7 +5397,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1011006</v>
       </c>
@@ -5315,7 +5407,7 @@
       <c r="C108">
         <v>6</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>519</v>
       </c>
       <c r="E108" t="s">
@@ -5328,7 +5420,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1011005</v>
       </c>
@@ -5338,7 +5430,7 @@
       <c r="C109">
         <v>5</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>520</v>
       </c>
       <c r="E109" t="s">
@@ -5351,7 +5443,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1011002</v>
       </c>
@@ -5361,7 +5453,7 @@
       <c r="C110">
         <v>2</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>521</v>
       </c>
       <c r="E110" t="s">
@@ -5374,7 +5466,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1011024</v>
       </c>
@@ -5384,7 +5476,7 @@
       <c r="C111">
         <v>24</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E111" t="s">
@@ -5397,7 +5489,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1011022</v>
       </c>
@@ -5407,7 +5499,7 @@
       <c r="C112">
         <v>22</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>523</v>
       </c>
       <c r="E112" t="s">
@@ -5420,7 +5512,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1011049</v>
       </c>
@@ -5430,7 +5522,7 @@
       <c r="C113">
         <v>49</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>524</v>
       </c>
       <c r="E113" t="s">
@@ -5443,7 +5535,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1011015</v>
       </c>
@@ -5453,7 +5545,7 @@
       <c r="C114">
         <v>15</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E114" t="s">
@@ -5466,7 +5558,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1011026</v>
       </c>
@@ -5476,7 +5568,7 @@
       <c r="C115">
         <v>26</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>526</v>
       </c>
       <c r="E115" t="s">
@@ -5489,7 +5581,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1011008</v>
       </c>
@@ -5499,7 +5591,7 @@
       <c r="C116">
         <v>8</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>527</v>
       </c>
       <c r="E116" t="s">
@@ -5512,7 +5604,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1011029</v>
       </c>
@@ -5522,7 +5614,7 @@
       <c r="C117">
         <v>29</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>528</v>
       </c>
       <c r="E117" t="s">
@@ -5535,7 +5627,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1011013</v>
       </c>
@@ -5545,7 +5637,7 @@
       <c r="C118">
         <v>13</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>529</v>
       </c>
       <c r="E118" t="s">
@@ -5558,7 +5650,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1011012</v>
       </c>
@@ -5568,7 +5660,7 @@
       <c r="C119">
         <v>12</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>530</v>
       </c>
       <c r="E119" t="s">
@@ -5581,7 +5673,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1011010</v>
       </c>
@@ -5591,7 +5683,7 @@
       <c r="C120">
         <v>10</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="1" t="s">
         <v>531</v>
       </c>
       <c r="E120" t="s">
@@ -5604,7 +5696,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1011033</v>
       </c>
@@ -5614,7 +5706,7 @@
       <c r="C121">
         <v>33</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>532</v>
       </c>
       <c r="E121" t="s">
@@ -5627,7 +5719,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1011036</v>
       </c>
@@ -5637,7 +5729,7 @@
       <c r="C122">
         <v>36</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>533</v>
       </c>
       <c r="E122" t="s">
@@ -5650,7 +5742,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1011017</v>
       </c>
@@ -5660,7 +5752,7 @@
       <c r="C123">
         <v>17</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>534</v>
       </c>
       <c r="E123" t="s">
@@ -5673,7 +5765,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1011102</v>
       </c>
@@ -5683,7 +5775,7 @@
       <c r="C124">
         <v>102</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>535</v>
       </c>
       <c r="E124" t="s">
@@ -5696,7 +5788,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1011009</v>
       </c>
@@ -5706,7 +5798,7 @@
       <c r="C125">
         <v>9</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="1" t="s">
         <v>536</v>
       </c>
       <c r="E125" t="s">
@@ -5719,7 +5811,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1011011</v>
       </c>
@@ -5729,7 +5821,7 @@
       <c r="C126">
         <v>11</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="1" t="s">
         <v>537</v>
       </c>
       <c r="E126" t="s">
@@ -5742,7 +5834,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1011019</v>
       </c>
@@ -5752,7 +5844,7 @@
       <c r="C127">
         <v>19</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>538</v>
       </c>
       <c r="E127" t="s">
@@ -5765,7 +5857,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1011007</v>
       </c>
@@ -5775,7 +5867,7 @@
       <c r="C128">
         <v>7</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>539</v>
       </c>
       <c r="E128" t="s">
@@ -5788,7 +5880,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1011103</v>
       </c>
@@ -5798,7 +5890,7 @@
       <c r="C129">
         <v>103</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>540</v>
       </c>
       <c r="E129" t="s">
@@ -5811,7 +5903,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1010008</v>
       </c>
@@ -5821,7 +5913,7 @@
       <c r="C130">
         <v>8</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E130" t="s">
@@ -5834,7 +5926,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1010025</v>
       </c>
@@ -5844,7 +5936,7 @@
       <c r="C131">
         <v>25</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>541</v>
       </c>
       <c r="E131" t="s">
@@ -5857,7 +5949,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1010033</v>
       </c>
@@ -5867,7 +5959,7 @@
       <c r="C132">
         <v>33</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>542</v>
       </c>
       <c r="E132" t="s">
@@ -5880,7 +5972,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1010020</v>
       </c>
@@ -5890,7 +5982,7 @@
       <c r="C133">
         <v>20</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>543</v>
       </c>
       <c r="E133" t="s">
@@ -5903,7 +5995,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1010003</v>
       </c>
@@ -5913,7 +6005,7 @@
       <c r="C134">
         <v>3</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>544</v>
       </c>
       <c r="E134" t="s">
@@ -5926,7 +6018,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1010007</v>
       </c>
@@ -5936,7 +6028,7 @@
       <c r="C135">
         <v>7</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E135" t="s">
@@ -5949,7 +6041,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1010023</v>
       </c>
@@ -5959,7 +6051,7 @@
       <c r="C136">
         <v>23</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E136" t="s">
@@ -5972,7 +6064,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1010017</v>
       </c>
@@ -5982,7 +6074,7 @@
       <c r="C137">
         <v>17</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E137" t="s">
@@ -5995,7 +6087,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1010122</v>
       </c>
@@ -6005,7 +6097,7 @@
       <c r="C138">
         <v>122</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E138" t="s">
@@ -6018,7 +6110,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1010022</v>
       </c>
@@ -6028,7 +6120,7 @@
       <c r="C139">
         <v>22</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E139" t="s">
@@ -6041,7 +6133,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1010013</v>
       </c>
@@ -6051,7 +6143,7 @@
       <c r="C140">
         <v>13</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E140" t="s">
@@ -6064,7 +6156,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1010005</v>
       </c>
@@ -6074,7 +6166,7 @@
       <c r="C141">
         <v>5</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E141" t="s">
@@ -6087,7 +6179,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1010200</v>
       </c>
@@ -6097,7 +6189,7 @@
       <c r="C142">
         <v>200</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E142" t="s">
@@ -6110,7 +6202,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1010012</v>
       </c>
@@ -6120,7 +6212,7 @@
       <c r="C143">
         <v>12</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="1" t="s">
         <v>553</v>
       </c>
       <c r="E143" t="s">
@@ -6133,7 +6225,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1010018</v>
       </c>
@@ -6143,7 +6235,7 @@
       <c r="C144">
         <v>18</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E144" t="s">
@@ -6156,7 +6248,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1010019</v>
       </c>
@@ -6166,7 +6258,7 @@
       <c r="C145">
         <v>19</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E145" t="s">
@@ -6179,7 +6271,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1010014</v>
       </c>
@@ -6189,7 +6281,7 @@
       <c r="C146">
         <v>14</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E146" t="s">
@@ -6202,7 +6294,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1010009</v>
       </c>
@@ -6212,7 +6304,7 @@
       <c r="C147">
         <v>9</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="1" t="s">
         <v>557</v>
       </c>
       <c r="E147" t="s">
@@ -6225,7 +6317,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1010030</v>
       </c>
@@ -6235,7 +6327,7 @@
       <c r="C148">
         <v>30</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="1" t="s">
         <v>558</v>
       </c>
       <c r="E148" t="s">
@@ -6248,7 +6340,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1010024</v>
       </c>
@@ -6258,7 +6350,7 @@
       <c r="C149">
         <v>24</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E149" t="s">
@@ -6271,7 +6363,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1010027</v>
       </c>
@@ -6281,7 +6373,7 @@
       <c r="C150">
         <v>27</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E150" t="s">
@@ -6294,7 +6386,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1010021</v>
       </c>
@@ -6304,7 +6396,7 @@
       <c r="C151">
         <v>21</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E151" t="s">
@@ -6317,7 +6409,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1010011</v>
       </c>
@@ -6327,7 +6419,7 @@
       <c r="C152">
         <v>11</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E152" t="s">
@@ -6340,7 +6432,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1010016</v>
       </c>
@@ -6350,7 +6442,7 @@
       <c r="C153">
         <v>16</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="1" t="s">
         <v>561</v>
       </c>
       <c r="E153" t="s">
@@ -6363,7 +6455,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1010036</v>
       </c>
@@ -6373,7 +6465,7 @@
       <c r="C154">
         <v>36</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="1" t="s">
         <v>562</v>
       </c>
       <c r="E154" t="s">
@@ -6386,7 +6478,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1010029</v>
       </c>
@@ -6396,7 +6488,7 @@
       <c r="C155">
         <v>29</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E155" t="s">
@@ -6409,7 +6501,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1010123</v>
       </c>
@@ -6419,7 +6511,7 @@
       <c r="C156">
         <v>123</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="1" t="s">
         <v>564</v>
       </c>
       <c r="E156" t="s">
@@ -6432,7 +6524,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1009028</v>
       </c>
@@ -6442,7 +6534,7 @@
       <c r="C157">
         <v>28</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="1" t="s">
         <v>565</v>
       </c>
       <c r="E157" t="s">
@@ -6455,7 +6547,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1009021</v>
       </c>
@@ -6465,7 +6557,7 @@
       <c r="C158">
         <v>21</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="1" t="s">
         <v>566</v>
       </c>
       <c r="E158" t="s">
@@ -6478,7 +6570,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1009012</v>
       </c>
@@ -6488,7 +6580,7 @@
       <c r="C159">
         <v>12</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E159" t="s">
@@ -6501,7 +6593,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1009036</v>
       </c>
@@ -6511,7 +6603,7 @@
       <c r="C160">
         <v>36</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="1" t="s">
         <v>567</v>
       </c>
       <c r="E160" t="s">
@@ -6524,7 +6616,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1009017</v>
       </c>
@@ -6534,7 +6626,7 @@
       <c r="C161">
         <v>17</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="1" t="s">
         <v>568</v>
       </c>
       <c r="E161" t="s">
@@ -6547,7 +6639,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1009004</v>
       </c>
@@ -6557,7 +6649,7 @@
       <c r="C162">
         <v>4</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="1" t="s">
         <v>569</v>
       </c>
       <c r="E162" t="s">
@@ -6570,7 +6662,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1009024</v>
       </c>
@@ -6580,7 +6672,7 @@
       <c r="C163">
         <v>24</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="1" t="s">
         <v>570</v>
       </c>
       <c r="E163" t="s">
@@ -6593,7 +6685,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1009005</v>
       </c>
@@ -6603,7 +6695,7 @@
       <c r="C164">
         <v>5</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="1" t="s">
         <v>571</v>
       </c>
       <c r="E164" t="s">
@@ -6616,7 +6708,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1009014</v>
       </c>
@@ -6626,7 +6718,7 @@
       <c r="C165">
         <v>14</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E165" t="s">
@@ -6639,7 +6731,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1009020</v>
       </c>
@@ -6649,7 +6741,7 @@
       <c r="C166">
         <v>20</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="1" t="s">
         <v>572</v>
       </c>
       <c r="E166" t="s">
@@ -6662,7 +6754,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1009025</v>
       </c>
@@ -6672,7 +6764,7 @@
       <c r="C167">
         <v>25</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="1" t="s">
         <v>573</v>
       </c>
       <c r="E167" t="s">
@@ -6685,7 +6777,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1009027</v>
       </c>
@@ -6695,7 +6787,7 @@
       <c r="C168">
         <v>27</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E168" t="s">
@@ -6708,7 +6800,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1009023</v>
       </c>
@@ -6718,7 +6810,7 @@
       <c r="C169">
         <v>23</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="1" t="s">
         <v>574</v>
       </c>
       <c r="E169" t="s">
@@ -6731,7 +6823,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1009006</v>
       </c>
@@ -6741,7 +6833,7 @@
       <c r="C170">
         <v>6</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="1" t="s">
         <v>575</v>
       </c>
       <c r="E170" t="s">
@@ -6754,7 +6846,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1009010</v>
       </c>
@@ -6764,7 +6856,7 @@
       <c r="C171">
         <v>10</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="1" t="s">
         <v>576</v>
       </c>
       <c r="E171" t="s">
@@ -6777,7 +6869,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1009007</v>
       </c>
@@ -6787,7 +6879,7 @@
       <c r="C172">
         <v>7</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E172" t="s">
@@ -6800,7 +6892,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1009022</v>
       </c>
@@ -6810,7 +6902,7 @@
       <c r="C173">
         <v>22</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E173" t="s">
@@ -6823,7 +6915,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1009015</v>
       </c>
@@ -6833,7 +6925,7 @@
       <c r="C174">
         <v>15</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="1" t="s">
         <v>577</v>
       </c>
       <c r="E174" t="s">
@@ -6846,7 +6938,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1009019</v>
       </c>
@@ -6856,7 +6948,7 @@
       <c r="C175">
         <v>19</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E175" t="s">
@@ -6869,7 +6961,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1009056</v>
       </c>
@@ -6879,7 +6971,7 @@
       <c r="C176">
         <v>56</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E176" t="s">
@@ -6892,7 +6984,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1009013</v>
       </c>
@@ -6902,7 +6994,7 @@
       <c r="C177">
         <v>13</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="1" t="s">
         <v>578</v>
       </c>
       <c r="E177" t="s">
@@ -6915,7 +7007,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1009009</v>
       </c>
@@ -6925,7 +7017,7 @@
       <c r="C178">
         <v>9</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="1" t="s">
         <v>579</v>
       </c>
       <c r="E178" t="s">
@@ -6938,7 +7030,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1009008</v>
       </c>
@@ -6948,7 +7040,7 @@
       <c r="C179">
         <v>8</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="1" t="s">
         <v>580</v>
       </c>
       <c r="E179" t="s">
@@ -6961,7 +7053,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1009011</v>
       </c>
@@ -6971,7 +7063,7 @@
       <c r="C180">
         <v>11</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="1" t="s">
         <v>581</v>
       </c>
       <c r="E180" t="s">
@@ -6984,7 +7076,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1009016</v>
       </c>
@@ -6994,7 +7086,7 @@
       <c r="C181">
         <v>16</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E181" t="s">
@@ -7007,7 +7099,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1009112</v>
       </c>
@@ -7017,7 +7109,7 @@
       <c r="C182">
         <v>112</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="1" t="s">
         <v>582</v>
       </c>
       <c r="E182" t="s">
@@ -7030,7 +7122,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1008001</v>
       </c>
@@ -7040,7 +7132,7 @@
       <c r="C183">
         <v>1</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="1" t="s">
         <v>583</v>
       </c>
       <c r="E183" t="s">
@@ -7053,7 +7145,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1008023</v>
       </c>
@@ -7063,7 +7155,7 @@
       <c r="C184">
         <v>23</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="1" t="s">
         <v>584</v>
       </c>
       <c r="E184" t="s">
@@ -7076,7 +7168,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1008070</v>
       </c>
@@ -7086,7 +7178,7 @@
       <c r="C185">
         <v>70</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="1" t="s">
         <v>585</v>
       </c>
       <c r="E185" t="s">
@@ -7099,7 +7191,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1008003</v>
       </c>
@@ -7109,7 +7201,7 @@
       <c r="C186">
         <v>3</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="1" t="s">
         <v>586</v>
       </c>
       <c r="E186" t="s">
@@ -7122,7 +7214,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1008022</v>
       </c>
@@ -7132,7 +7224,7 @@
       <c r="C187">
         <v>22</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="1" t="s">
         <v>587</v>
       </c>
       <c r="E187" t="s">
@@ -7145,7 +7237,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1008002</v>
       </c>
@@ -7155,7 +7247,7 @@
       <c r="C188">
         <v>2</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="1" t="s">
         <v>588</v>
       </c>
       <c r="E188" t="s">
@@ -7168,7 +7260,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1008020</v>
       </c>
@@ -7178,7 +7270,7 @@
       <c r="C189">
         <v>20</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="1" t="s">
         <v>589</v>
       </c>
       <c r="E189" t="s">
@@ -7191,7 +7283,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1008006</v>
       </c>
@@ -7201,7 +7293,7 @@
       <c r="C190">
         <v>6</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="1" t="s">
         <v>590</v>
       </c>
       <c r="E190" t="s">
@@ -7214,7 +7306,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1008004</v>
       </c>
@@ -7224,7 +7316,7 @@
       <c r="C191">
         <v>4</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="1" t="s">
         <v>591</v>
       </c>
       <c r="E191" t="s">
@@ -7237,7 +7329,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1008015</v>
       </c>
@@ -7247,7 +7339,7 @@
       <c r="C192">
         <v>15</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="1" t="s">
         <v>592</v>
       </c>
       <c r="E192" t="s">
@@ -7260,7 +7352,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1008061</v>
       </c>
@@ -7270,7 +7362,7 @@
       <c r="C193">
         <v>61</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="1" t="s">
         <v>593</v>
       </c>
       <c r="E193" t="s">
@@ -7283,7 +7375,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1008067</v>
       </c>
@@ -7293,7 +7385,7 @@
       <c r="C194">
         <v>67</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E194" t="s">
@@ -7306,7 +7398,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1008200</v>
       </c>
@@ -7316,7 +7408,7 @@
       <c r="C195">
         <v>200</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="1" t="s">
         <v>594</v>
       </c>
       <c r="E195" t="s">
@@ -7329,7 +7421,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1008017</v>
       </c>
@@ -7339,7 +7431,7 @@
       <c r="C196">
         <v>17</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="1" t="s">
         <v>595</v>
       </c>
       <c r="E196" t="s">
@@ -7352,7 +7444,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1008008</v>
       </c>
@@ -7362,7 +7454,7 @@
       <c r="C197">
         <v>8</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="1" t="s">
         <v>596</v>
       </c>
       <c r="E197" t="s">
@@ -7375,7 +7467,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1008011</v>
       </c>
@@ -7385,7 +7477,7 @@
       <c r="C198">
         <v>11</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="1" t="s">
         <v>597</v>
       </c>
       <c r="E198" t="s">
@@ -7398,7 +7490,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1008005</v>
       </c>
@@ -7408,7 +7500,7 @@
       <c r="C199">
         <v>5</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="1" t="s">
         <v>598</v>
       </c>
       <c r="E199" t="s">
@@ -7421,7 +7513,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1008007</v>
       </c>
@@ -7431,7 +7523,7 @@
       <c r="C200">
         <v>7</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E200" t="s">
@@ -7444,7 +7536,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1008133</v>
       </c>
@@ -7454,7 +7546,7 @@
       <c r="C201">
         <v>133</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="1" t="s">
         <v>600</v>
       </c>
       <c r="E201" t="s">
@@ -7467,7 +7559,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1008016</v>
       </c>
@@ -7477,7 +7569,7 @@
       <c r="C202">
         <v>16</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="1" t="s">
         <v>601</v>
       </c>
       <c r="E202" t="s">
@@ -7490,7 +7582,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1008134</v>
       </c>
@@ -7500,7 +7592,7 @@
       <c r="C203">
         <v>134</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="1" t="s">
         <v>602</v>
       </c>
       <c r="E203" t="s">
@@ -7513,7 +7605,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1008013</v>
       </c>
@@ -7523,7 +7615,7 @@
       <c r="C204">
         <v>13</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="1" t="s">
         <v>603</v>
       </c>
       <c r="E204" t="s">
@@ -7536,7 +7628,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1008014</v>
       </c>
@@ -7546,7 +7638,7 @@
       <c r="C205">
         <v>14</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="1" t="s">
         <v>604</v>
       </c>
       <c r="E205" t="s">
@@ -7559,7 +7651,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1008012</v>
       </c>
@@ -7569,7 +7661,7 @@
       <c r="C206">
         <v>12</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="1" t="s">
         <v>605</v>
       </c>
       <c r="E206" t="s">
@@ -7582,7 +7674,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1008019</v>
       </c>
@@ -7592,7 +7684,7 @@
       <c r="C207">
         <v>19</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="1" t="s">
         <v>606</v>
       </c>
       <c r="E207" t="s">
@@ -7605,7 +7697,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1008018</v>
       </c>
@@ -7615,7 +7707,7 @@
       <c r="C208">
         <v>18</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="1" t="s">
         <v>607</v>
       </c>
       <c r="E208" t="s">
@@ -7628,7 +7720,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1008135</v>
       </c>
@@ -7638,7 +7730,7 @@
       <c r="C209">
         <v>135</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="1" t="s">
         <v>608</v>
       </c>
       <c r="E209" t="s">
@@ -7651,7 +7743,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1008027</v>
       </c>
@@ -7661,7 +7753,7 @@
       <c r="C210">
         <v>27</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="1" t="s">
         <v>609</v>
       </c>
       <c r="E210" t="s">
@@ -7674,7 +7766,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1008136</v>
       </c>
@@ -7684,7 +7776,7 @@
       <c r="C211">
         <v>136</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="1" t="s">
         <v>610</v>
       </c>
       <c r="E211" t="s">
@@ -7697,7 +7789,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1008010</v>
       </c>
@@ -7707,7 +7799,7 @@
       <c r="C212">
         <v>10</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="1" t="s">
         <v>611</v>
       </c>
       <c r="E212" t="s">
@@ -7720,7 +7812,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1008137</v>
       </c>
@@ -7730,7 +7822,7 @@
       <c r="C213">
         <v>137</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="1" t="s">
         <v>612</v>
       </c>
       <c r="E213" t="s">
@@ -7743,7 +7835,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1008138</v>
       </c>
@@ -7753,7 +7845,7 @@
       <c r="C214">
         <v>138</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="1" t="s">
         <v>613</v>
       </c>
       <c r="E214" t="s">
@@ -7766,7 +7858,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1008009</v>
       </c>
@@ -7776,7 +7868,7 @@
       <c r="C215">
         <v>9</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="1" t="s">
         <v>614</v>
       </c>
       <c r="E215" t="s">
@@ -7789,7 +7881,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1008029</v>
       </c>
@@ -7799,7 +7891,7 @@
       <c r="C216">
         <v>29</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="1" t="s">
         <v>615</v>
       </c>
       <c r="E216" t="s">
@@ -7812,7 +7904,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1008025</v>
       </c>
@@ -7822,7 +7914,7 @@
       <c r="C217">
         <v>25</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E217" t="s">
@@ -7835,7 +7927,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1008139</v>
       </c>
@@ -7845,7 +7937,7 @@
       <c r="C218">
         <v>139</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="1" t="s">
         <v>617</v>
       </c>
       <c r="E218" t="s">
@@ -7858,7 +7950,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1007084</v>
       </c>
@@ -7868,7 +7960,7 @@
       <c r="C219">
         <v>84</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="1" t="s">
         <v>618</v>
       </c>
       <c r="E219" t="s">
@@ -7881,7 +7973,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1007082</v>
       </c>
@@ -7891,7 +7983,7 @@
       <c r="C220">
         <v>82</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="1" t="s">
         <v>619</v>
       </c>
       <c r="E220" t="s">
@@ -7904,7 +7996,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1007081</v>
       </c>
@@ -7914,7 +8006,7 @@
       <c r="C221">
         <v>81</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="1" t="s">
         <v>620</v>
       </c>
       <c r="E221" t="s">
@@ -7927,7 +8019,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1007102</v>
       </c>
@@ -7937,7 +8029,7 @@
       <c r="C222">
         <v>102</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="1" t="s">
         <v>621</v>
       </c>
       <c r="E222" t="s">
@@ -7950,7 +8042,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1007106</v>
       </c>
@@ -7960,7 +8052,7 @@
       <c r="C223">
         <v>106</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="1" t="s">
         <v>622</v>
       </c>
       <c r="E223" t="s">
@@ -7973,7 +8065,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1007104</v>
       </c>
@@ -7983,7 +8075,7 @@
       <c r="C224">
         <v>104</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="1" t="s">
         <v>623</v>
       </c>
       <c r="E224" t="s">
@@ -7996,7 +8088,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1007099</v>
       </c>
@@ -8006,7 +8098,7 @@
       <c r="C225">
         <v>99</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="1" t="s">
         <v>624</v>
       </c>
       <c r="E225" t="s">
@@ -8019,7 +8111,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1007096</v>
       </c>
@@ -8029,7 +8121,7 @@
       <c r="C226">
         <v>96</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="1" t="s">
         <v>625</v>
       </c>
       <c r="E226" t="s">
@@ -8042,7 +8134,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1007097</v>
       </c>
@@ -8052,7 +8144,7 @@
       <c r="C227">
         <v>97</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E227" t="s">
@@ -8065,7 +8157,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1007090</v>
       </c>
@@ -8075,7 +8167,7 @@
       <c r="C228">
         <v>90</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="1" t="s">
         <v>626</v>
       </c>
       <c r="E228" t="s">
@@ -8088,7 +8180,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1007087</v>
       </c>
@@ -8098,7 +8190,7 @@
       <c r="C229">
         <v>87</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" s="1" t="s">
         <v>627</v>
       </c>
       <c r="E229" t="s">
@@ -8111,7 +8203,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1007089</v>
       </c>
@@ -8121,7 +8213,7 @@
       <c r="C230">
         <v>89</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" s="1" t="s">
         <v>628</v>
       </c>
       <c r="E230" t="s">
@@ -8134,7 +8226,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1007098</v>
       </c>
@@ -8144,7 +8236,7 @@
       <c r="C231">
         <v>98</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E231" t="s">
@@ -8157,7 +8249,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1007083</v>
       </c>
@@ -8167,7 +8259,7 @@
       <c r="C232">
         <v>83</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="1" t="s">
         <v>629</v>
       </c>
       <c r="E232" t="s">
@@ -8180,7 +8272,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1007202</v>
       </c>
@@ -8190,7 +8282,7 @@
       <c r="C233">
         <v>202</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="1" t="s">
         <v>600</v>
       </c>
       <c r="E233" t="s">
@@ -8203,7 +8295,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1007093</v>
       </c>
@@ -8213,7 +8305,7 @@
       <c r="C234">
         <v>93</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E234" t="s">
@@ -8226,7 +8318,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1007088</v>
       </c>
@@ -8236,7 +8328,7 @@
       <c r="C235">
         <v>88</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="1" t="s">
         <v>630</v>
       </c>
       <c r="E235" t="s">
@@ -8249,7 +8341,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1007101</v>
       </c>
@@ -8259,7 +8351,7 @@
       <c r="C236">
         <v>101</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" s="1" t="s">
         <v>631</v>
       </c>
       <c r="E236" t="s">
@@ -8272,7 +8364,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1007092</v>
       </c>
@@ -8282,7 +8374,7 @@
       <c r="C237">
         <v>92</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E237" t="s">
@@ -8295,7 +8387,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1007107</v>
       </c>
@@ -8305,7 +8397,7 @@
       <c r="C238">
         <v>107</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E238" t="s">
@@ -8318,7 +8410,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1007006</v>
       </c>
@@ -8328,7 +8420,7 @@
       <c r="C239">
         <v>6</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E239" t="s">
@@ -8341,7 +8433,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1007134</v>
       </c>
@@ -8351,7 +8443,7 @@
       <c r="C240">
         <v>134</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E240" t="s">
@@ -8364,7 +8456,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1007161</v>
       </c>
@@ -8374,7 +8466,7 @@
       <c r="C241">
         <v>161</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E241" t="s">
@@ -8387,7 +8479,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1007109</v>
       </c>
@@ -8397,7 +8489,7 @@
       <c r="C242">
         <v>109</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="1" t="s">
         <v>632</v>
       </c>
       <c r="E242" t="s">
@@ -8410,7 +8502,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1007085</v>
       </c>
@@ -8420,7 +8512,7 @@
       <c r="C243">
         <v>85</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" s="1" t="s">
         <v>633</v>
       </c>
       <c r="E243" t="s">
@@ -8433,7 +8525,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1007094</v>
       </c>
@@ -8443,7 +8535,7 @@
       <c r="C244">
         <v>94</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="1" t="s">
         <v>634</v>
       </c>
       <c r="E244" t="s">
@@ -8456,7 +8548,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1007086</v>
       </c>
@@ -8466,7 +8558,7 @@
       <c r="C245">
         <v>86</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" s="1" t="s">
         <v>635</v>
       </c>
       <c r="E245" t="s">
@@ -8479,7 +8571,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1007095</v>
       </c>
@@ -8489,7 +8581,7 @@
       <c r="C246">
         <v>95</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" s="1" t="s">
         <v>636</v>
       </c>
       <c r="E246" t="s">
@@ -8502,7 +8594,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1007105</v>
       </c>
@@ -8512,7 +8604,7 @@
       <c r="C247">
         <v>105</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E247" t="s">
@@ -8525,7 +8617,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1007002</v>
       </c>
@@ -8535,7 +8627,7 @@
       <c r="C248">
         <v>2</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E248" t="s">
@@ -8548,7 +8640,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1007004</v>
       </c>
@@ -8558,7 +8650,7 @@
       <c r="C249">
         <v>4</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" s="1" t="s">
         <v>637</v>
       </c>
       <c r="E249" t="s">
@@ -8571,7 +8663,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1007132</v>
       </c>
@@ -8581,7 +8673,7 @@
       <c r="C250">
         <v>132</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" s="1" t="s">
         <v>638</v>
       </c>
       <c r="E250" t="s">
@@ -8594,7 +8686,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1007003</v>
       </c>
@@ -8604,7 +8696,7 @@
       <c r="C251">
         <v>3</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" s="1" t="s">
         <v>639</v>
       </c>
       <c r="E251" t="s">
@@ -8617,7 +8709,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1007149</v>
       </c>
@@ -8627,7 +8719,7 @@
       <c r="C252">
         <v>149</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E252" t="s">
@@ -8640,7 +8732,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1006001</v>
       </c>
@@ -8650,7 +8742,7 @@
       <c r="C253">
         <v>1</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" s="1" t="s">
         <v>640</v>
       </c>
       <c r="E253" t="s">
@@ -8663,7 +8755,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1006051</v>
       </c>
@@ -8673,7 +8765,7 @@
       <c r="C254">
         <v>51</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" s="1" t="s">
         <v>641</v>
       </c>
       <c r="E254" t="s">
@@ -8686,7 +8778,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1006012</v>
       </c>
@@ -8696,7 +8788,7 @@
       <c r="C255">
         <v>12</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" s="1" t="s">
         <v>642</v>
       </c>
       <c r="E255" t="s">
@@ -8709,7 +8801,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1006025</v>
       </c>
@@ -8719,7 +8811,7 @@
       <c r="C256">
         <v>25</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" s="1" t="s">
         <v>643</v>
       </c>
       <c r="E256" t="s">
@@ -8732,7 +8824,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1006015</v>
       </c>
@@ -8742,7 +8834,7 @@
       <c r="C257">
         <v>15</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D257" s="1" t="s">
         <v>644</v>
       </c>
       <c r="E257" t="s">
@@ -8755,7 +8847,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1006004</v>
       </c>
@@ -8765,7 +8857,7 @@
       <c r="C258">
         <v>4</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E258" t="s">
@@ -8778,7 +8870,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1006013</v>
       </c>
@@ -8788,7 +8880,7 @@
       <c r="C259">
         <v>13</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" s="1" t="s">
         <v>646</v>
       </c>
       <c r="E259" t="s">
@@ -8801,7 +8893,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1006062</v>
       </c>
@@ -8811,7 +8903,7 @@
       <c r="C260">
         <v>62</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" s="1" t="s">
         <v>647</v>
       </c>
       <c r="E260" t="s">
@@ -8824,7 +8916,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1006026</v>
       </c>
@@ -8834,7 +8926,7 @@
       <c r="C261">
         <v>26</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" s="1" t="s">
         <v>648</v>
       </c>
       <c r="E261" t="s">
@@ -8847,7 +8939,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1006003</v>
       </c>
@@ -8857,7 +8949,7 @@
       <c r="C262">
         <v>3</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D262" s="1" t="s">
         <v>649</v>
       </c>
       <c r="E262" t="s">
@@ -8870,7 +8962,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1006002</v>
       </c>
@@ -8880,7 +8972,7 @@
       <c r="C263">
         <v>2</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" s="1" t="s">
         <v>650</v>
       </c>
       <c r="E263" t="s">
@@ -8893,7 +8985,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1006006</v>
       </c>
@@ -8903,7 +8995,7 @@
       <c r="C264">
         <v>6</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D264" s="1" t="s">
         <v>651</v>
       </c>
       <c r="E264" t="s">
@@ -8916,7 +9008,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1006011</v>
       </c>
@@ -8926,7 +9018,7 @@
       <c r="C265">
         <v>11</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" s="1" t="s">
         <v>652</v>
       </c>
       <c r="E265" t="s">
@@ -8939,7 +9031,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1006008</v>
       </c>
@@ -8949,7 +9041,7 @@
       <c r="C266">
         <v>8</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" s="1" t="s">
         <v>653</v>
       </c>
       <c r="E266" t="s">
@@ -8962,7 +9054,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1006005</v>
       </c>
@@ -8972,7 +9064,7 @@
       <c r="C267">
         <v>5</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D267" s="1" t="s">
         <v>654</v>
       </c>
       <c r="E267" t="s">
@@ -8985,7 +9077,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1006018</v>
       </c>
@@ -8995,7 +9087,7 @@
       <c r="C268">
         <v>18</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D268" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E268" t="s">
@@ -9008,7 +9100,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1006007</v>
       </c>
@@ -9018,7 +9110,7 @@
       <c r="C269">
         <v>7</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" s="1" t="s">
         <v>656</v>
       </c>
       <c r="E269" t="s">
@@ -9031,7 +9123,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1006016</v>
       </c>
@@ -9041,7 +9133,7 @@
       <c r="C270">
         <v>16</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D270" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E270" t="s">
@@ -9054,7 +9146,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1006020</v>
       </c>
@@ -9064,7 +9156,7 @@
       <c r="C271">
         <v>20</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" s="1" t="s">
         <v>658</v>
       </c>
       <c r="E271" t="s">
@@ -9077,7 +9169,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1006022</v>
       </c>
@@ -9087,7 +9179,7 @@
       <c r="C272">
         <v>22</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" s="1" t="s">
         <v>659</v>
       </c>
       <c r="E272" t="s">
@@ -9100,7 +9192,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1006017</v>
       </c>
@@ -9110,7 +9202,7 @@
       <c r="C273">
         <v>17</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" s="1" t="s">
         <v>660</v>
       </c>
       <c r="E273" t="s">
@@ -9123,7 +9215,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1006021</v>
       </c>
@@ -9133,7 +9225,7 @@
       <c r="C274">
         <v>21</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" s="1" t="s">
         <v>661</v>
       </c>
       <c r="E274" t="s">
@@ -9146,7 +9238,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1006014</v>
       </c>
@@ -9156,7 +9248,7 @@
       <c r="C275">
         <v>14</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" s="1" t="s">
         <v>662</v>
       </c>
       <c r="E275" t="s">
@@ -9169,7 +9261,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1006065</v>
       </c>
@@ -9179,7 +9271,7 @@
       <c r="C276">
         <v>65</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E276" t="s">
@@ -9192,7 +9284,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1006141</v>
       </c>
@@ -9202,7 +9294,7 @@
       <c r="C277">
         <v>141</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" s="1" t="s">
         <v>663</v>
       </c>
       <c r="E277" t="s">
@@ -9215,7 +9307,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1006142</v>
       </c>
@@ -9225,7 +9317,7 @@
       <c r="C278">
         <v>142</v>
       </c>
-      <c r="D278" s="2" t="s">
+      <c r="D278" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E278" t="s">
@@ -9238,7 +9330,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1006009</v>
       </c>
@@ -9248,7 +9340,7 @@
       <c r="C279">
         <v>9</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D279" s="1" t="s">
         <v>664</v>
       </c>
       <c r="E279" t="s">
@@ -9261,7 +9353,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1006010</v>
       </c>
@@ -9271,7 +9363,7 @@
       <c r="C280">
         <v>10</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" s="1" t="s">
         <v>665</v>
       </c>
       <c r="E280" t="s">
@@ -9284,7 +9376,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1006019</v>
       </c>
@@ -9294,7 +9386,7 @@
       <c r="C281">
         <v>19</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" s="1" t="s">
         <v>666</v>
       </c>
       <c r="E281" t="s">
@@ -9307,7 +9399,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1006143</v>
       </c>
@@ -9317,7 +9409,7 @@
       <c r="C282">
         <v>143</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" s="1" t="s">
         <v>667</v>
       </c>
       <c r="E282" t="s">
@@ -9330,7 +9422,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1006023</v>
       </c>
@@ -9340,7 +9432,7 @@
       <c r="C283">
         <v>23</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" s="1" t="s">
         <v>668</v>
       </c>
       <c r="E283" t="s">
@@ -9353,7 +9445,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1006079</v>
       </c>
@@ -9363,7 +9455,7 @@
       <c r="C284">
         <v>79</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" s="1" t="s">
         <v>669</v>
       </c>
       <c r="E284" t="s">
@@ -9376,7 +9468,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1006029</v>
       </c>
@@ -9386,7 +9478,7 @@
       <c r="C285">
         <v>29</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E285" t="s">
@@ -9399,7 +9491,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1005120</v>
       </c>
@@ -9409,7 +9501,7 @@
       <c r="C286">
         <v>120</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E286" t="s">
@@ -9422,7 +9514,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1005012</v>
       </c>
@@ -9432,7 +9524,7 @@
       <c r="C287">
         <v>12</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D287" s="1" t="s">
         <v>670</v>
       </c>
       <c r="E287" t="s">
@@ -9445,7 +9537,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1005001</v>
       </c>
@@ -9455,7 +9547,7 @@
       <c r="C288">
         <v>1</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D288" s="1" t="s">
         <v>671</v>
       </c>
       <c r="E288" t="s">
@@ -9468,7 +9560,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1005023</v>
       </c>
@@ -9478,7 +9570,7 @@
       <c r="C289">
         <v>23</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" s="1" t="s">
         <v>672</v>
       </c>
       <c r="E289" t="s">
@@ -9491,7 +9583,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1005005</v>
       </c>
@@ -9501,7 +9593,7 @@
       <c r="C290">
         <v>5</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D290" s="1" t="s">
         <v>673</v>
       </c>
       <c r="E290" t="s">
@@ -9514,7 +9606,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1005018</v>
       </c>
@@ -9524,7 +9616,7 @@
       <c r="C291">
         <v>18</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" s="1" t="s">
         <v>674</v>
       </c>
       <c r="E291" t="s">
@@ -9537,7 +9629,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1005041</v>
       </c>
@@ -9547,7 +9639,7 @@
       <c r="C292">
         <v>41</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D292" s="1" t="s">
         <v>675</v>
       </c>
       <c r="E292" t="s">
@@ -9560,7 +9652,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1005002</v>
       </c>
@@ -9570,7 +9662,7 @@
       <c r="C293">
         <v>2</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D293" s="1" t="s">
         <v>676</v>
       </c>
       <c r="E293" t="s">
@@ -9583,7 +9675,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1005013</v>
       </c>
@@ -9593,7 +9685,7 @@
       <c r="C294">
         <v>13</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="D294" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E294" t="s">
@@ -9606,7 +9698,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1005025</v>
       </c>
@@ -9616,7 +9708,7 @@
       <c r="C295">
         <v>25</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="D295" s="1" t="s">
         <v>678</v>
       </c>
       <c r="E295" t="s">
@@ -9629,7 +9721,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1005016</v>
       </c>
@@ -9639,7 +9731,7 @@
       <c r="C296">
         <v>16</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="D296" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E296" t="s">
@@ -9652,7 +9744,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1005022</v>
       </c>
@@ -9662,7 +9754,7 @@
       <c r="C297">
         <v>22</v>
       </c>
-      <c r="D297" s="2" t="s">
+      <c r="D297" s="1" t="s">
         <v>679</v>
       </c>
       <c r="E297" t="s">
@@ -9675,7 +9767,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1005010</v>
       </c>
@@ -9685,7 +9777,7 @@
       <c r="C298">
         <v>10</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="D298" s="1" t="s">
         <v>680</v>
       </c>
       <c r="E298" t="s">
@@ -9698,7 +9790,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1005032</v>
       </c>
@@ -9708,7 +9800,7 @@
       <c r="C299">
         <v>32</v>
       </c>
-      <c r="D299" s="2" t="s">
+      <c r="D299" s="1" t="s">
         <v>681</v>
       </c>
       <c r="E299" t="s">
@@ -9721,7 +9813,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1005033</v>
       </c>
@@ -9731,7 +9823,7 @@
       <c r="C300">
         <v>33</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="D300" s="1" t="s">
         <v>682</v>
       </c>
       <c r="E300" t="s">
@@ -9744,7 +9836,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1005014</v>
       </c>
@@ -9754,7 +9846,7 @@
       <c r="C301">
         <v>14</v>
       </c>
-      <c r="D301" s="2" t="s">
+      <c r="D301" s="1" t="s">
         <v>683</v>
       </c>
       <c r="E301" t="s">
@@ -9767,7 +9859,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1005007</v>
       </c>
@@ -9777,7 +9869,7 @@
       <c r="C302">
         <v>7</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="D302" s="1" t="s">
         <v>684</v>
       </c>
       <c r="E302" t="s">
@@ -9790,7 +9882,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1005029</v>
       </c>
@@ -9800,7 +9892,7 @@
       <c r="C303">
         <v>29</v>
       </c>
-      <c r="D303" s="2" t="s">
+      <c r="D303" s="1" t="s">
         <v>685</v>
       </c>
       <c r="E303" t="s">
@@ -9813,7 +9905,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1005008</v>
       </c>
@@ -9823,7 +9915,7 @@
       <c r="C304">
         <v>8</v>
       </c>
-      <c r="D304" s="2" t="s">
+      <c r="D304" s="1" t="s">
         <v>686</v>
       </c>
       <c r="E304" t="s">
@@ -9836,7 +9928,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1005024</v>
       </c>
@@ -9846,7 +9938,7 @@
       <c r="C305">
         <v>24</v>
       </c>
-      <c r="D305" s="2" t="s">
+      <c r="D305" s="1" t="s">
         <v>687</v>
       </c>
       <c r="E305" t="s">
@@ -9859,7 +9951,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1005019</v>
       </c>
@@ -9869,7 +9961,7 @@
       <c r="C306">
         <v>19</v>
       </c>
-      <c r="D306" s="2" t="s">
+      <c r="D306" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E306" t="s">
@@ -9882,7 +9974,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1005021</v>
       </c>
@@ -9892,7 +9984,7 @@
       <c r="C307">
         <v>21</v>
       </c>
-      <c r="D307" s="2" t="s">
+      <c r="D307" s="1" t="s">
         <v>688</v>
       </c>
       <c r="E307" t="s">
@@ -9905,7 +9997,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1005020</v>
       </c>
@@ -9915,7 +10007,7 @@
       <c r="C308">
         <v>20</v>
       </c>
-      <c r="D308" s="2" t="s">
+      <c r="D308" s="1" t="s">
         <v>689</v>
       </c>
       <c r="E308" t="s">
@@ -9928,7 +10020,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1005011</v>
       </c>
@@ -9938,7 +10030,7 @@
       <c r="C309">
         <v>11</v>
       </c>
-      <c r="D309" s="2" t="s">
+      <c r="D309" s="1" t="s">
         <v>690</v>
       </c>
       <c r="E309" t="s">
@@ -9951,7 +10043,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1005009</v>
       </c>
@@ -9961,7 +10053,7 @@
       <c r="C310">
         <v>9</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="D310" s="1" t="s">
         <v>691</v>
       </c>
       <c r="E310" t="s">
@@ -9974,7 +10066,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1005017</v>
       </c>
@@ -9984,7 +10076,7 @@
       <c r="C311">
         <v>17</v>
       </c>
-      <c r="D311" s="2" t="s">
+      <c r="D311" s="1" t="s">
         <v>692</v>
       </c>
       <c r="E311" t="s">
@@ -9997,7 +10089,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1005015</v>
       </c>
@@ -10007,7 +10099,7 @@
       <c r="C312">
         <v>15</v>
       </c>
-      <c r="D312" s="2" t="s">
+      <c r="D312" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E312" t="s">
@@ -10020,7 +10112,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1005121</v>
       </c>
@@ -10030,7 +10122,7 @@
       <c r="C313">
         <v>121</v>
       </c>
-      <c r="D313" s="2" t="s">
+      <c r="D313" s="1" t="s">
         <v>694</v>
       </c>
       <c r="E313" t="s">
@@ -10053,7 +10145,7 @@
       <c r="C314">
         <v>29</v>
       </c>
-      <c r="D314" s="2" t="s">
+      <c r="D314" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E314" t="s">
@@ -10076,7 +10168,7 @@
       <c r="C315">
         <v>30</v>
       </c>
-      <c r="D315" s="2" t="s">
+      <c r="D315" s="1" t="s">
         <v>695</v>
       </c>
       <c r="E315" t="s">
@@ -10099,7 +10191,7 @@
       <c r="C316">
         <v>53</v>
       </c>
-      <c r="D316" s="2" t="s">
+      <c r="D316" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E316" t="s">
@@ -10122,7 +10214,7 @@
       <c r="C317">
         <v>27</v>
       </c>
-      <c r="D317" s="2" t="s">
+      <c r="D317" s="1" t="s">
         <v>696</v>
       </c>
       <c r="E317" t="s">
@@ -10145,7 +10237,7 @@
       <c r="C318">
         <v>19</v>
       </c>
-      <c r="D318" s="2" t="s">
+      <c r="D318" s="1" t="s">
         <v>697</v>
       </c>
       <c r="E318" t="s">
@@ -10168,7 +10260,7 @@
       <c r="C319">
         <v>16</v>
       </c>
-      <c r="D319" s="2" t="s">
+      <c r="D319" s="1" t="s">
         <v>698</v>
       </c>
       <c r="E319" t="s">
@@ -10191,7 +10283,7 @@
       <c r="C320">
         <v>2</v>
       </c>
-      <c r="D320" s="2" t="s">
+      <c r="D320" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E320" t="s">
@@ -10214,7 +10306,7 @@
       <c r="C321">
         <v>17</v>
       </c>
-      <c r="D321" s="2" t="s">
+      <c r="D321" s="1" t="s">
         <v>700</v>
       </c>
       <c r="E321" t="s">
@@ -10237,7 +10329,7 @@
       <c r="C322">
         <v>21</v>
       </c>
-      <c r="D322" s="2" t="s">
+      <c r="D322" s="1" t="s">
         <v>701</v>
       </c>
       <c r="E322" t="s">
@@ -10260,7 +10352,7 @@
       <c r="C323">
         <v>22</v>
       </c>
-      <c r="D323" s="2" t="s">
+      <c r="D323" s="1" t="s">
         <v>702</v>
       </c>
       <c r="E323" t="s">
@@ -10283,7 +10375,7 @@
       <c r="C324">
         <v>14</v>
       </c>
-      <c r="D324" s="2" t="s">
+      <c r="D324" s="1" t="s">
         <v>703</v>
       </c>
       <c r="E324" t="s">
@@ -10306,7 +10398,7 @@
       <c r="C325">
         <v>13</v>
       </c>
-      <c r="D325" s="2" t="s">
+      <c r="D325" s="1" t="s">
         <v>704</v>
       </c>
       <c r="E325" t="s">
@@ -10329,7 +10421,7 @@
       <c r="C326">
         <v>4</v>
       </c>
-      <c r="D326" s="2" t="s">
+      <c r="D326" s="1" t="s">
         <v>705</v>
       </c>
       <c r="E326" t="s">
@@ -10352,7 +10444,7 @@
       <c r="C327">
         <v>20</v>
       </c>
-      <c r="D327" s="2" t="s">
+      <c r="D327" s="1" t="s">
         <v>706</v>
       </c>
       <c r="E327" t="s">
@@ -10375,7 +10467,7 @@
       <c r="C328">
         <v>7</v>
       </c>
-      <c r="D328" s="2" t="s">
+      <c r="D328" s="1" t="s">
         <v>707</v>
       </c>
       <c r="E328" t="s">
@@ -10398,7 +10490,7 @@
       <c r="C329">
         <v>15</v>
       </c>
-      <c r="D329" s="2" t="s">
+      <c r="D329" s="1" t="s">
         <v>708</v>
       </c>
       <c r="E329" t="s">
@@ -10421,7 +10513,7 @@
       <c r="C330">
         <v>5</v>
       </c>
-      <c r="D330" s="2" t="s">
+      <c r="D330" s="1" t="s">
         <v>709</v>
       </c>
       <c r="E330" t="s">
@@ -10444,7 +10536,7 @@
       <c r="C331">
         <v>12</v>
       </c>
-      <c r="D331" s="2" t="s">
+      <c r="D331" s="1" t="s">
         <v>710</v>
       </c>
       <c r="E331" t="s">
@@ -10467,7 +10559,7 @@
       <c r="C332">
         <v>18</v>
       </c>
-      <c r="D332" s="2" t="s">
+      <c r="D332" s="1" t="s">
         <v>711</v>
       </c>
       <c r="E332" t="s">
@@ -10490,7 +10582,7 @@
       <c r="C333">
         <v>31</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="D333" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E333" t="s">
@@ -10513,7 +10605,7 @@
       <c r="C334">
         <v>8</v>
       </c>
-      <c r="D334" s="2" t="s">
+      <c r="D334" s="1" t="s">
         <v>712</v>
       </c>
       <c r="E334" t="s">
@@ -10536,7 +10628,7 @@
       <c r="C335">
         <v>201</v>
       </c>
-      <c r="D335" s="2" t="s">
+      <c r="D335" s="1" t="s">
         <v>713</v>
       </c>
       <c r="E335" t="s">
@@ -10559,7 +10651,7 @@
       <c r="C336">
         <v>9</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="D336" s="1" t="s">
         <v>714</v>
       </c>
       <c r="E336" t="s">
@@ -10582,7 +10674,7 @@
       <c r="C337">
         <v>6</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="D337" s="1" t="s">
         <v>715</v>
       </c>
       <c r="E337" t="s">
@@ -10605,7 +10697,7 @@
       <c r="C338">
         <v>3</v>
       </c>
-      <c r="D338" s="2" t="s">
+      <c r="D338" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E338" t="s">
@@ -10628,7 +10720,7 @@
       <c r="C339">
         <v>23</v>
       </c>
-      <c r="D339" s="2" t="s">
+      <c r="D339" s="1" t="s">
         <v>716</v>
       </c>
       <c r="E339" t="s">
@@ -10651,7 +10743,7 @@
       <c r="C340">
         <v>11</v>
       </c>
-      <c r="D340" s="2" t="s">
+      <c r="D340" s="1" t="s">
         <v>717</v>
       </c>
       <c r="E340" t="s">
@@ -10674,7 +10766,7 @@
       <c r="C341">
         <v>25</v>
       </c>
-      <c r="D341" s="2" t="s">
+      <c r="D341" s="1" t="s">
         <v>718</v>
       </c>
       <c r="E341" t="s">
@@ -10697,7 +10789,7 @@
       <c r="C342">
         <v>24</v>
       </c>
-      <c r="D342" s="2" t="s">
+      <c r="D342" s="1" t="s">
         <v>719</v>
       </c>
       <c r="E342" t="s">
@@ -10720,7 +10812,7 @@
       <c r="C343">
         <v>28</v>
       </c>
-      <c r="D343" s="2" t="s">
+      <c r="D343" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E343" t="s">
@@ -10743,7 +10835,7 @@
       <c r="C344">
         <v>151</v>
       </c>
-      <c r="D344" s="2" t="s">
+      <c r="D344" s="1" t="s">
         <v>720</v>
       </c>
       <c r="E344" t="s">
@@ -10756,7 +10848,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1003001</v>
       </c>
@@ -10766,7 +10858,7 @@
       <c r="C345">
         <v>1</v>
       </c>
-      <c r="D345" s="2" t="s">
+      <c r="D345" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E345" t="s">
@@ -10779,7 +10871,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1003125</v>
       </c>
@@ -10789,7 +10881,7 @@
       <c r="C346">
         <v>125</v>
       </c>
-      <c r="D346" s="2" t="s">
+      <c r="D346" s="1" t="s">
         <v>721</v>
       </c>
       <c r="E346" t="s">
@@ -10802,7 +10894,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1003028</v>
       </c>
@@ -10812,7 +10904,7 @@
       <c r="C347">
         <v>28</v>
       </c>
-      <c r="D347" s="2" t="s">
+      <c r="D347" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E347" t="s">
@@ -10825,7 +10917,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1003023</v>
       </c>
@@ -10835,7 +10927,7 @@
       <c r="C348">
         <v>23</v>
       </c>
-      <c r="D348" s="2" t="s">
+      <c r="D348" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E348" t="s">
@@ -10848,7 +10940,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1003126</v>
       </c>
@@ -10858,7 +10950,7 @@
       <c r="C349">
         <v>126</v>
       </c>
-      <c r="D349" s="2" t="s">
+      <c r="D349" s="1" t="s">
         <v>722</v>
       </c>
       <c r="E349" t="s">
@@ -10871,7 +10963,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1003019</v>
       </c>
@@ -10881,7 +10973,7 @@
       <c r="C350">
         <v>19</v>
       </c>
-      <c r="D350" s="2" t="s">
+      <c r="D350" s="1" t="s">
         <v>723</v>
       </c>
       <c r="E350" t="s">
@@ -10894,7 +10986,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1003004</v>
       </c>
@@ -10904,7 +10996,7 @@
       <c r="C351">
         <v>4</v>
       </c>
-      <c r="D351" s="2" t="s">
+      <c r="D351" s="1" t="s">
         <v>724</v>
       </c>
       <c r="E351" t="s">
@@ -10917,7 +11009,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1003013</v>
       </c>
@@ -10927,7 +11019,7 @@
       <c r="C352">
         <v>13</v>
       </c>
-      <c r="D352" s="2" t="s">
+      <c r="D352" s="1" t="s">
         <v>725</v>
       </c>
       <c r="E352" t="s">
@@ -10940,7 +11032,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1003127</v>
       </c>
@@ -10950,7 +11042,7 @@
       <c r="C353">
         <v>127</v>
       </c>
-      <c r="D353" s="2" t="s">
+      <c r="D353" s="1" t="s">
         <v>726</v>
       </c>
       <c r="E353" t="s">
@@ -10963,7 +11055,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1003002</v>
       </c>
@@ -10973,7 +11065,7 @@
       <c r="C354">
         <v>2</v>
       </c>
-      <c r="D354" s="2" t="s">
+      <c r="D354" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E354" t="s">
@@ -10986,7 +11078,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1003007</v>
       </c>
@@ -10996,7 +11088,7 @@
       <c r="C355">
         <v>7</v>
       </c>
-      <c r="D355" s="2" t="s">
+      <c r="D355" s="1" t="s">
         <v>727</v>
       </c>
       <c r="E355" t="s">
@@ -11009,7 +11101,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1003030</v>
       </c>
@@ -11019,7 +11111,7 @@
       <c r="C356">
         <v>30</v>
       </c>
-      <c r="D356" s="2" t="s">
+      <c r="D356" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E356" t="s">
@@ -11032,7 +11124,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1003024</v>
       </c>
@@ -11042,7 +11134,7 @@
       <c r="C357">
         <v>24</v>
       </c>
-      <c r="D357" s="2" t="s">
+      <c r="D357" s="1" t="s">
         <v>728</v>
       </c>
       <c r="E357" t="s">
@@ -11055,7 +11147,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1003027</v>
       </c>
@@ -11065,7 +11157,7 @@
       <c r="C358">
         <v>27</v>
       </c>
-      <c r="D358" s="2" t="s">
+      <c r="D358" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E358" t="s">
@@ -11078,7 +11170,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1003005</v>
       </c>
@@ -11088,7 +11180,7 @@
       <c r="C359">
         <v>5</v>
       </c>
-      <c r="D359" s="2" t="s">
+      <c r="D359" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E359" t="s">
@@ -11101,7 +11193,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1003025</v>
       </c>
@@ -11111,7 +11203,7 @@
       <c r="C360">
         <v>25</v>
       </c>
-      <c r="D360" s="2" t="s">
+      <c r="D360" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E360" t="s">
@@ -11124,7 +11216,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1003026</v>
       </c>
@@ -11134,7 +11226,7 @@
       <c r="C361">
         <v>26</v>
       </c>
-      <c r="D361" s="2" t="s">
+      <c r="D361" s="1" t="s">
         <v>729</v>
       </c>
       <c r="E361" t="s">
@@ -11147,7 +11239,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1003016</v>
       </c>
@@ -11157,7 +11249,7 @@
       <c r="C362">
         <v>16</v>
       </c>
-      <c r="D362" s="2" t="s">
+      <c r="D362" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E362" t="s">
@@ -11170,7 +11262,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1003010</v>
       </c>
@@ -11180,7 +11272,7 @@
       <c r="C363">
         <v>10</v>
       </c>
-      <c r="D363" s="2" t="s">
+      <c r="D363" s="1" t="s">
         <v>730</v>
       </c>
       <c r="E363" t="s">
@@ -11193,7 +11285,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1003128</v>
       </c>
@@ -11203,7 +11295,7 @@
       <c r="C364">
         <v>128</v>
       </c>
-      <c r="D364" s="2" t="s">
+      <c r="D364" s="1" t="s">
         <v>731</v>
       </c>
       <c r="E364" t="s">
@@ -11216,7 +11308,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1003017</v>
       </c>
@@ -11226,7 +11318,7 @@
       <c r="C365">
         <v>17</v>
       </c>
-      <c r="D365" s="2" t="s">
+      <c r="D365" s="1" t="s">
         <v>732</v>
       </c>
       <c r="E365" t="s">
@@ -11239,7 +11331,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1003008</v>
       </c>
@@ -11249,7 +11341,7 @@
       <c r="C366">
         <v>8</v>
       </c>
-      <c r="D366" s="2" t="s">
+      <c r="D366" s="1" t="s">
         <v>733</v>
       </c>
       <c r="E366" t="s">
@@ -11262,7 +11354,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1003014</v>
       </c>
@@ -11272,7 +11364,7 @@
       <c r="C367">
         <v>14</v>
       </c>
-      <c r="D367" s="2" t="s">
+      <c r="D367" s="1" t="s">
         <v>734</v>
       </c>
       <c r="E367" t="s">
@@ -11285,7 +11377,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1003003</v>
       </c>
@@ -11295,7 +11387,7 @@
       <c r="C368">
         <v>3</v>
       </c>
-      <c r="D368" s="2" t="s">
+      <c r="D368" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E368" t="s">
@@ -11308,7 +11400,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1003006</v>
       </c>
@@ -11318,7 +11410,7 @@
       <c r="C369">
         <v>6</v>
       </c>
-      <c r="D369" s="2" t="s">
+      <c r="D369" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E369" t="s">
@@ -11331,7 +11423,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1003011</v>
       </c>
@@ -11341,7 +11433,7 @@
       <c r="C370">
         <v>11</v>
       </c>
-      <c r="D370" s="2" t="s">
+      <c r="D370" s="1" t="s">
         <v>735</v>
       </c>
       <c r="E370" t="s">
@@ -11354,7 +11446,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1003021</v>
       </c>
@@ -11364,7 +11456,7 @@
       <c r="C371">
         <v>21</v>
       </c>
-      <c r="D371" s="2" t="s">
+      <c r="D371" s="1" t="s">
         <v>736</v>
       </c>
       <c r="E371" t="s">
@@ -11377,7 +11469,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1003033</v>
       </c>
@@ -11387,7 +11479,7 @@
       <c r="C372">
         <v>33</v>
       </c>
-      <c r="D372" s="2" t="s">
+      <c r="D372" s="1" t="s">
         <v>737</v>
       </c>
       <c r="E372" t="s">
@@ -11400,7 +11492,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1003015</v>
       </c>
@@ -11410,7 +11502,7 @@
       <c r="C373">
         <v>15</v>
       </c>
-      <c r="D373" s="2" t="s">
+      <c r="D373" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E373" t="s">
@@ -11423,7 +11515,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1003129</v>
       </c>
@@ -11433,7 +11525,7 @@
       <c r="C374">
         <v>129</v>
       </c>
-      <c r="D374" s="2" t="s">
+      <c r="D374" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E374" t="s">
@@ -11446,7 +11538,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1003009</v>
       </c>
@@ -11456,7 +11548,7 @@
       <c r="C375">
         <v>9</v>
       </c>
-      <c r="D375" s="2" t="s">
+      <c r="D375" s="1" t="s">
         <v>738</v>
       </c>
       <c r="E375" t="s">
@@ -11469,7 +11561,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1003018</v>
       </c>
@@ -11479,7 +11571,7 @@
       <c r="C376">
         <v>18</v>
       </c>
-      <c r="D376" s="2" t="s">
+      <c r="D376" s="1" t="s">
         <v>739</v>
       </c>
       <c r="E376" t="s">
@@ -11492,7 +11584,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1003029</v>
       </c>
@@ -11502,7 +11594,7 @@
       <c r="C377">
         <v>29</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D377" s="1" t="s">
         <v>740</v>
       </c>
       <c r="E377" t="s">
@@ -11515,7 +11607,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1003130</v>
       </c>
@@ -11525,7 +11617,7 @@
       <c r="C378">
         <v>130</v>
       </c>
-      <c r="D378" s="2" t="s">
+      <c r="D378" s="1" t="s">
         <v>691</v>
       </c>
       <c r="E378" t="s">
@@ -11538,7 +11630,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1003131</v>
       </c>
@@ -11548,7 +11640,7 @@
       <c r="C379">
         <v>131</v>
       </c>
-      <c r="D379" s="2" t="s">
+      <c r="D379" s="1" t="s">
         <v>692</v>
       </c>
       <c r="E379" t="s">
@@ -11561,7 +11653,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1003022</v>
       </c>
@@ -11571,7 +11663,7 @@
       <c r="C380">
         <v>22</v>
       </c>
-      <c r="D380" s="2" t="s">
+      <c r="D380" s="1" t="s">
         <v>741</v>
       </c>
       <c r="E380" t="s">
@@ -11584,7 +11676,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1003020</v>
       </c>
@@ -11594,7 +11686,7 @@
       <c r="C381">
         <v>20</v>
       </c>
-      <c r="D381" s="2" t="s">
+      <c r="D381" s="1" t="s">
         <v>742</v>
       </c>
       <c r="E381" t="s">
@@ -11607,7 +11699,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1003132</v>
       </c>
@@ -11617,7 +11709,7 @@
       <c r="C382">
         <v>132</v>
       </c>
-      <c r="D382" s="2" t="s">
+      <c r="D382" s="1" t="s">
         <v>743</v>
       </c>
       <c r="E382" t="s">
@@ -11630,7 +11722,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1002021</v>
       </c>
@@ -11640,7 +11732,7 @@
       <c r="C383">
         <v>21</v>
       </c>
-      <c r="D383" s="2" t="s">
+      <c r="D383" s="1" t="s">
         <v>744</v>
       </c>
       <c r="E383" t="s">
@@ -11653,7 +11745,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1002025</v>
       </c>
@@ -11663,7 +11755,7 @@
       <c r="C384">
         <v>25</v>
       </c>
-      <c r="D384" s="2" t="s">
+      <c r="D384" s="1" t="s">
         <v>745</v>
       </c>
       <c r="E384" t="s">
@@ -11676,7 +11768,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1002001</v>
       </c>
@@ -11686,7 +11778,7 @@
       <c r="C385">
         <v>1</v>
       </c>
-      <c r="D385" s="2" t="s">
+      <c r="D385" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E385" t="s">
@@ -11699,7 +11791,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1002108</v>
       </c>
@@ -11709,7 +11801,7 @@
       <c r="C386">
         <v>108</v>
       </c>
-      <c r="D386" s="2" t="s">
+      <c r="D386" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E386" t="s">
@@ -11722,7 +11814,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1002019</v>
       </c>
@@ -11732,7 +11824,7 @@
       <c r="C387">
         <v>19</v>
       </c>
-      <c r="D387" s="2" t="s">
+      <c r="D387" s="1" t="s">
         <v>746</v>
       </c>
       <c r="E387" t="s">
@@ -11745,7 +11837,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1002007</v>
       </c>
@@ -11755,7 +11847,7 @@
       <c r="C388">
         <v>7</v>
       </c>
-      <c r="D388" s="2" t="s">
+      <c r="D388" s="1" t="s">
         <v>747</v>
       </c>
       <c r="E388" t="s">
@@ -11768,7 +11860,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1002003</v>
       </c>
@@ -11778,7 +11870,7 @@
       <c r="C389">
         <v>3</v>
       </c>
-      <c r="D389" s="2" t="s">
+      <c r="D389" s="1" t="s">
         <v>748</v>
       </c>
       <c r="E389" t="s">
@@ -11791,7 +11883,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1002024</v>
       </c>
@@ -11801,7 +11893,7 @@
       <c r="C390">
         <v>24</v>
       </c>
-      <c r="D390" s="2" t="s">
+      <c r="D390" s="1" t="s">
         <v>749</v>
       </c>
       <c r="E390" t="s">
@@ -11814,7 +11906,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1002004</v>
       </c>
@@ -11824,7 +11916,7 @@
       <c r="C391">
         <v>4</v>
       </c>
-      <c r="D391" s="2" t="s">
+      <c r="D391" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E391" t="s">
@@ -11837,7 +11929,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1002018</v>
       </c>
@@ -11847,7 +11939,7 @@
       <c r="C392">
         <v>18</v>
       </c>
-      <c r="D392" s="2" t="s">
+      <c r="D392" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E392" t="s">
@@ -11860,7 +11952,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1002008</v>
       </c>
@@ -11870,7 +11962,7 @@
       <c r="C393">
         <v>8</v>
       </c>
-      <c r="D393" s="2" t="s">
+      <c r="D393" s="1" t="s">
         <v>750</v>
       </c>
       <c r="E393" t="s">
@@ -11883,7 +11975,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1002002</v>
       </c>
@@ -11893,7 +11985,7 @@
       <c r="C394">
         <v>2</v>
       </c>
-      <c r="D394" s="2" t="s">
+      <c r="D394" s="1" t="s">
         <v>751</v>
       </c>
       <c r="E394" t="s">
@@ -11906,7 +11998,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1002006</v>
       </c>
@@ -11916,7 +12008,7 @@
       <c r="C395">
         <v>6</v>
       </c>
-      <c r="D395" s="2" t="s">
+      <c r="D395" s="1" t="s">
         <v>752</v>
       </c>
       <c r="E395" t="s">
@@ -11929,7 +12021,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1002015</v>
       </c>
@@ -11939,7 +12031,7 @@
       <c r="C396">
         <v>15</v>
       </c>
-      <c r="D396" s="2" t="s">
+      <c r="D396" s="1" t="s">
         <v>753</v>
       </c>
       <c r="E396" t="s">
@@ -11952,7 +12044,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1002013</v>
       </c>
@@ -11962,7 +12054,7 @@
       <c r="C397">
         <v>13</v>
       </c>
-      <c r="D397" s="2" t="s">
+      <c r="D397" s="1" t="s">
         <v>754</v>
       </c>
       <c r="E397" t="s">
@@ -11975,7 +12067,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1002012</v>
       </c>
@@ -11985,7 +12077,7 @@
       <c r="C398">
         <v>12</v>
       </c>
-      <c r="D398" s="2" t="s">
+      <c r="D398" s="1" t="s">
         <v>755</v>
       </c>
       <c r="E398" t="s">
@@ -11998,7 +12090,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1002011</v>
       </c>
@@ -12008,7 +12100,7 @@
       <c r="C399">
         <v>11</v>
       </c>
-      <c r="D399" s="2" t="s">
+      <c r="D399" s="1" t="s">
         <v>756</v>
       </c>
       <c r="E399" t="s">
@@ -12021,7 +12113,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1002027</v>
       </c>
@@ -12031,7 +12123,7 @@
       <c r="C400">
         <v>27</v>
       </c>
-      <c r="D400" s="2" t="s">
+      <c r="D400" s="1" t="s">
         <v>757</v>
       </c>
       <c r="E400" t="s">
@@ -12044,7 +12136,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1002005</v>
       </c>
@@ -12054,7 +12146,7 @@
       <c r="C401">
         <v>5</v>
       </c>
-      <c r="D401" s="2" t="s">
+      <c r="D401" s="1" t="s">
         <v>758</v>
       </c>
       <c r="E401" t="s">
@@ -12067,7 +12159,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1002109</v>
       </c>
@@ -12077,7 +12169,7 @@
       <c r="C402">
         <v>109</v>
       </c>
-      <c r="D402" s="2" t="s">
+      <c r="D402" s="1" t="s">
         <v>735</v>
       </c>
       <c r="E402" t="s">
@@ -12090,7 +12182,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1002022</v>
       </c>
@@ -12100,7 +12192,7 @@
       <c r="C403">
         <v>22</v>
       </c>
-      <c r="D403" s="2" t="s">
+      <c r="D403" s="1" t="s">
         <v>759</v>
       </c>
       <c r="E403" t="s">
@@ -12113,7 +12205,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1002009</v>
       </c>
@@ -12123,7 +12215,7 @@
       <c r="C404">
         <v>9</v>
       </c>
-      <c r="D404" s="2" t="s">
+      <c r="D404" s="1" t="s">
         <v>760</v>
       </c>
       <c r="E404" t="s">
@@ -12136,7 +12228,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1002017</v>
       </c>
@@ -12146,7 +12238,7 @@
       <c r="C405">
         <v>17</v>
       </c>
-      <c r="D405" s="2" t="s">
+      <c r="D405" s="1" t="s">
         <v>761</v>
       </c>
       <c r="E405" t="s">
@@ -12159,7 +12251,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1002110</v>
       </c>
@@ -12169,7 +12261,7 @@
       <c r="C406">
         <v>110</v>
       </c>
-      <c r="D406" s="2" t="s">
+      <c r="D406" s="1" t="s">
         <v>762</v>
       </c>
       <c r="E406" t="s">
@@ -12182,7 +12274,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1002020</v>
       </c>
@@ -12192,7 +12284,7 @@
       <c r="C407">
         <v>20</v>
       </c>
-      <c r="D407" s="2" t="s">
+      <c r="D407" s="1" t="s">
         <v>763</v>
       </c>
       <c r="E407" t="s">
@@ -12205,7 +12297,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1002014</v>
       </c>
@@ -12215,7 +12307,7 @@
       <c r="C408">
         <v>14</v>
       </c>
-      <c r="D408" s="2" t="s">
+      <c r="D408" s="1" t="s">
         <v>764</v>
       </c>
       <c r="E408" t="s">
@@ -12228,7 +12320,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1002023</v>
       </c>
@@ -12238,7 +12330,7 @@
       <c r="C409">
         <v>23</v>
       </c>
-      <c r="D409" s="2" t="s">
+      <c r="D409" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E409" t="s">
@@ -12251,7 +12343,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1002016</v>
       </c>
@@ -12261,7 +12353,7 @@
       <c r="C410">
         <v>16</v>
       </c>
-      <c r="D410" s="2" t="s">
+      <c r="D410" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E410" t="s">
@@ -12274,7 +12366,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1002026</v>
       </c>
@@ -12284,7 +12376,7 @@
       <c r="C411">
         <v>26</v>
       </c>
-      <c r="D411" s="2" t="s">
+      <c r="D411" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E411" t="s">
@@ -12297,7 +12389,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1002111</v>
       </c>
@@ -12307,7 +12399,7 @@
       <c r="C412">
         <v>111</v>
       </c>
-      <c r="D412" s="2" t="s">
+      <c r="D412" s="1" t="s">
         <v>765</v>
       </c>
       <c r="E412" t="s">
@@ -12320,7 +12412,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1001199</v>
       </c>
@@ -12330,7 +12422,7 @@
       <c r="C413">
         <v>199</v>
       </c>
-      <c r="D413" s="2" t="s">
+      <c r="D413" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E413" t="s">
@@ -12343,7 +12435,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1001200</v>
       </c>
@@ -12353,7 +12445,7 @@
       <c r="C414">
         <v>200</v>
       </c>
-      <c r="D414" s="2" t="s">
+      <c r="D414" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E414" t="s">
@@ -12366,7 +12458,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1001021</v>
       </c>
@@ -12376,7 +12468,7 @@
       <c r="C415">
         <v>21</v>
       </c>
-      <c r="D415" s="2" t="s">
+      <c r="D415" s="1" t="s">
         <v>766</v>
       </c>
       <c r="E415" t="s">
@@ -12389,7 +12481,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1001152</v>
       </c>
@@ -12399,7 +12491,7 @@
       <c r="C416">
         <v>152</v>
       </c>
-      <c r="D416" s="2" t="s">
+      <c r="D416" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E416" t="s">
@@ -12412,7 +12504,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1001001</v>
       </c>
@@ -12422,7 +12514,7 @@
       <c r="C417">
         <v>1</v>
       </c>
-      <c r="D417" s="2" t="s">
+      <c r="D417" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E417" t="s">
@@ -12435,7 +12527,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1001029</v>
       </c>
@@ -12445,7 +12537,7 @@
       <c r="C418">
         <v>29</v>
       </c>
-      <c r="D418" s="2" t="s">
+      <c r="D418" s="1" t="s">
         <v>767</v>
       </c>
       <c r="E418" t="s">
@@ -12458,7 +12550,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1001023</v>
       </c>
@@ -12468,7 +12560,7 @@
       <c r="C419">
         <v>23</v>
       </c>
-      <c r="D419" s="2" t="s">
+      <c r="D419" s="1" t="s">
         <v>768</v>
       </c>
       <c r="E419" t="s">
@@ -12481,7 +12573,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1001153</v>
       </c>
@@ -12491,7 +12583,7 @@
       <c r="C420">
         <v>153</v>
       </c>
-      <c r="D420" s="2" t="s">
+      <c r="D420" s="1" t="s">
         <v>769</v>
       </c>
       <c r="E420" t="s">
@@ -12504,7 +12596,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1001020</v>
       </c>
@@ -12514,7 +12606,7 @@
       <c r="C421">
         <v>20</v>
       </c>
-      <c r="D421" s="2" t="s">
+      <c r="D421" s="1" t="s">
         <v>770</v>
       </c>
       <c r="E421" t="s">
@@ -12527,7 +12619,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1001013</v>
       </c>
@@ -12537,7 +12629,7 @@
       <c r="C422">
         <v>13</v>
       </c>
-      <c r="D422" s="2" t="s">
+      <c r="D422" s="1" t="s">
         <v>771</v>
       </c>
       <c r="E422" t="s">
@@ -12550,7 +12642,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1001024</v>
       </c>
@@ -12560,7 +12652,7 @@
       <c r="C423">
         <v>24</v>
       </c>
-      <c r="D423" s="2" t="s">
+      <c r="D423" s="1" t="s">
         <v>772</v>
       </c>
       <c r="E423" t="s">
@@ -12573,7 +12665,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1001002</v>
       </c>
@@ -12583,7 +12675,7 @@
       <c r="C424">
         <v>2</v>
       </c>
-      <c r="D424" s="2" t="s">
+      <c r="D424" s="1" t="s">
         <v>773</v>
       </c>
       <c r="E424" t="s">
@@ -12596,7 +12688,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1001043</v>
       </c>
@@ -12606,7 +12698,7 @@
       <c r="C425">
         <v>43</v>
       </c>
-      <c r="D425" s="2" t="s">
+      <c r="D425" s="1" t="s">
         <v>774</v>
       </c>
       <c r="E425" t="s">
@@ -12619,7 +12711,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1001041</v>
       </c>
@@ -12629,7 +12721,7 @@
       <c r="C426">
         <v>41</v>
       </c>
-      <c r="D426" s="2" t="s">
+      <c r="D426" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E426" t="s">
@@ -12642,7 +12734,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1001025</v>
       </c>
@@ -12652,7 +12744,7 @@
       <c r="C427">
         <v>25</v>
       </c>
-      <c r="D427" s="2" t="s">
+      <c r="D427" s="1" t="s">
         <v>775</v>
       </c>
       <c r="E427" t="s">
@@ -12665,7 +12757,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1001012</v>
       </c>
@@ -12675,7 +12767,7 @@
       <c r="C428">
         <v>12</v>
       </c>
-      <c r="D428" s="2" t="s">
+      <c r="D428" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E428" t="s">
@@ -12688,7 +12780,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1001045</v>
       </c>
@@ -12698,7 +12790,7 @@
       <c r="C429">
         <v>45</v>
       </c>
-      <c r="D429" s="2" t="s">
+      <c r="D429" s="1" t="s">
         <v>776</v>
       </c>
       <c r="E429" t="s">
@@ -12711,7 +12803,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1001003</v>
       </c>
@@ -12721,7 +12813,7 @@
       <c r="C430">
         <v>3</v>
       </c>
-      <c r="D430" s="2" t="s">
+      <c r="D430" s="1" t="s">
         <v>777</v>
       </c>
       <c r="E430" t="s">
@@ -12734,7 +12826,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1001154</v>
       </c>
@@ -12744,7 +12836,7 @@
       <c r="C431">
         <v>154</v>
       </c>
-      <c r="D431" s="2" t="s">
+      <c r="D431" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E431" t="s">
@@ -12757,7 +12849,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1001155</v>
       </c>
@@ -12767,7 +12859,7 @@
       <c r="C432">
         <v>155</v>
       </c>
-      <c r="D432" s="2" t="s">
+      <c r="D432" s="1" t="s">
         <v>778</v>
       </c>
       <c r="E432" t="s">
@@ -12780,7 +12872,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1001010</v>
       </c>
@@ -12790,7 +12882,7 @@
       <c r="C433">
         <v>10</v>
       </c>
-      <c r="D433" s="2" t="s">
+      <c r="D433" s="1" t="s">
         <v>779</v>
       </c>
       <c r="E433" t="s">
@@ -12803,7 +12895,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1001011</v>
       </c>
@@ -12813,7 +12905,7 @@
       <c r="C434">
         <v>11</v>
       </c>
-      <c r="D434" s="2" t="s">
+      <c r="D434" s="1" t="s">
         <v>602</v>
       </c>
       <c r="E434" t="s">
@@ -12826,7 +12918,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1001005</v>
       </c>
@@ -12836,7 +12928,7 @@
       <c r="C435">
         <v>5</v>
       </c>
-      <c r="D435" s="2" t="s">
+      <c r="D435" s="1" t="s">
         <v>780</v>
       </c>
       <c r="E435" t="s">
@@ -12849,7 +12941,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1001004</v>
       </c>
@@ -12859,7 +12951,7 @@
       <c r="C436">
         <v>4</v>
       </c>
-      <c r="D436" s="2" t="s">
+      <c r="D436" s="1" t="s">
         <v>781</v>
       </c>
       <c r="E436" t="s">
@@ -12872,7 +12964,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1001018</v>
       </c>
@@ -12882,7 +12974,7 @@
       <c r="C437">
         <v>18</v>
       </c>
-      <c r="D437" s="2" t="s">
+      <c r="D437" s="1" t="s">
         <v>782</v>
       </c>
       <c r="E437" t="s">
@@ -12895,7 +12987,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1001016</v>
       </c>
@@ -12905,7 +12997,7 @@
       <c r="C438">
         <v>16</v>
       </c>
-      <c r="D438" s="2" t="s">
+      <c r="D438" s="1" t="s">
         <v>783</v>
       </c>
       <c r="E438" t="s">
@@ -12918,7 +13010,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1001006</v>
       </c>
@@ -12928,7 +13020,7 @@
       <c r="C439">
         <v>6</v>
       </c>
-      <c r="D439" s="2" t="s">
+      <c r="D439" s="1" t="s">
         <v>784</v>
       </c>
       <c r="E439" t="s">
@@ -12941,7 +13033,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1001008</v>
       </c>
@@ -12951,7 +13043,7 @@
       <c r="C440">
         <v>8</v>
       </c>
-      <c r="D440" s="2" t="s">
+      <c r="D440" s="1" t="s">
         <v>785</v>
       </c>
       <c r="E440" t="s">
@@ -12964,7 +13056,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1001156</v>
       </c>
@@ -12974,7 +13066,7 @@
       <c r="C441">
         <v>156</v>
       </c>
-      <c r="D441" s="2" t="s">
+      <c r="D441" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E441" t="s">
@@ -12987,7 +13079,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1001030</v>
       </c>
@@ -12997,7 +13089,7 @@
       <c r="C442">
         <v>30</v>
       </c>
-      <c r="D442" s="2" t="s">
+      <c r="D442" s="1" t="s">
         <v>786</v>
       </c>
       <c r="E442" t="s">
@@ -13010,7 +13102,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1001022</v>
       </c>
@@ -13020,7 +13112,7 @@
       <c r="C443">
         <v>22</v>
       </c>
-      <c r="D443" s="2" t="s">
+      <c r="D443" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E443" t="s">
@@ -13033,7 +13125,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1001044</v>
       </c>
@@ -13043,7 +13135,7 @@
       <c r="C444">
         <v>44</v>
       </c>
-      <c r="D444" s="2" t="s">
+      <c r="D444" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E444" t="s">
@@ -13056,7 +13148,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1001007</v>
       </c>
@@ -13066,7 +13158,7 @@
       <c r="C445">
         <v>7</v>
       </c>
-      <c r="D445" s="2" t="s">
+      <c r="D445" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E445" t="s">
@@ -13079,7 +13171,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1001033</v>
       </c>
@@ -13089,7 +13181,7 @@
       <c r="C446">
         <v>33</v>
       </c>
-      <c r="D446" s="2" t="s">
+      <c r="D446" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E446" t="s">
@@ -13102,7 +13194,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1001157</v>
       </c>
@@ -13112,7 +13204,7 @@
       <c r="C447">
         <v>157</v>
       </c>
-      <c r="D447" s="2" t="s">
+      <c r="D447" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E447" t="s">
@@ -13125,7 +13217,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1001158</v>
       </c>
@@ -13135,7 +13227,7 @@
       <c r="C448">
         <v>158</v>
       </c>
-      <c r="D448" s="2" t="s">
+      <c r="D448" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E448" t="s">
@@ -13148,7 +13240,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1001039</v>
       </c>
@@ -13158,7 +13250,7 @@
       <c r="C449">
         <v>39</v>
       </c>
-      <c r="D449" s="2" t="s">
+      <c r="D449" s="1" t="s">
         <v>787</v>
       </c>
       <c r="E449" t="s">
@@ -13171,7 +13263,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1001009</v>
       </c>
@@ -13181,7 +13273,7 @@
       <c r="C450">
         <v>9</v>
       </c>
-      <c r="D450" s="2" t="s">
+      <c r="D450" s="1" t="s">
         <v>788</v>
       </c>
       <c r="E450" t="s">
@@ -13194,7 +13286,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1001046</v>
       </c>
@@ -13204,7 +13296,7 @@
       <c r="C451">
         <v>46</v>
       </c>
-      <c r="D451" s="2" t="s">
+      <c r="D451" s="1" t="s">
         <v>789</v>
       </c>
       <c r="E451" t="s">
@@ -13217,7 +13309,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1001028</v>
       </c>
@@ -13227,7 +13319,7 @@
       <c r="C452">
         <v>28</v>
       </c>
-      <c r="D452" s="2" t="s">
+      <c r="D452" s="1" t="s">
         <v>790</v>
       </c>
       <c r="E452" t="s">
@@ -13240,7 +13332,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1001159</v>
       </c>
@@ -13250,7 +13342,7 @@
       <c r="C453">
         <v>159</v>
       </c>
-      <c r="D453" s="2" t="s">
+      <c r="D453" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E453" t="s">
@@ -13263,7 +13355,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1001017</v>
       </c>
@@ -13273,7 +13365,7 @@
       <c r="C454">
         <v>17</v>
       </c>
-      <c r="D454" s="2" t="s">
+      <c r="D454" s="1" t="s">
         <v>791</v>
       </c>
       <c r="E454" t="s">
@@ -13286,7 +13378,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1001160</v>
       </c>
@@ -13296,7 +13388,7 @@
       <c r="C455">
         <v>160</v>
       </c>
-      <c r="D455" s="2" t="s">
+      <c r="D455" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E455" t="s">
@@ -13309,7 +13401,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1001161</v>
       </c>
@@ -13319,7 +13411,7 @@
       <c r="C456">
         <v>161</v>
       </c>
-      <c r="D456" s="2" t="s">
+      <c r="D456" s="1" t="s">
         <v>792</v>
       </c>
       <c r="E456" t="s">
@@ -13331,6 +13423,51 @@
       <c r="G456" t="s">
         <v>811</v>
       </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>1004010</v>
+      </c>
+      <c r="B457" t="s">
+        <v>812</v>
+      </c>
+      <c r="C457">
+        <v>10</v>
+      </c>
+      <c r="D457" s="1"/>
+      <c r="E457" t="s">
+        <v>796</v>
+      </c>
+      <c r="F457">
+        <v>1004</v>
+      </c>
+      <c r="G457" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>1004040</v>
+      </c>
+      <c r="B458" t="s">
+        <v>813</v>
+      </c>
+      <c r="C458">
+        <v>40</v>
+      </c>
+      <c r="D458" s="1"/>
+      <c r="E458" t="s">
+        <v>794</v>
+      </c>
+      <c r="F458">
+        <v>1004</v>
+      </c>
+      <c r="G458" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D460" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13791,5 +13928,8 @@
     <hyperlink ref="D456" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId456"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/backend/data/LigaPremier.xlsx
+++ b/backend/data/LigaPremier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB25E617-3457-44C0-89EE-E940043FC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3ECEF9-3657-4251-9C26-ABB9AF0A166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="815">
   <si>
     <t>Id_jugador</t>
   </si>
@@ -2462,6 +2462,9 @@
   </si>
   <si>
     <t>Fuentes</t>
+  </si>
+  <si>
+    <t>Rubalcava</t>
   </si>
 </sst>
 </file>
@@ -2551,6 +2554,24 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2579,24 +2600,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2611,8 +2614,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6892C88-C880-40BB-9D27-B3E8CCE610EC}" name="Tabla1" displayName="Tabla1" ref="A1:G458" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:G458" xr:uid="{D6892C88-C880-40BB-9D27-B3E8CCE610EC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6892C88-C880-40BB-9D27-B3E8CCE610EC}" name="Tabla1" displayName="Tabla1" ref="A1:G460" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:G460" xr:uid="{D6892C88-C880-40BB-9D27-B3E8CCE610EC}">
     <filterColumn colId="6">
       <filters>
         <filter val="Ciervos"/>
@@ -2623,7 +2626,7 @@
     <tableColumn id="1" xr3:uid="{DB3A9B59-5C7F-45CA-BA0A-513EDAB4A1CF}" name="Id_jugador"/>
     <tableColumn id="2" xr3:uid="{1088BF04-47B1-45DD-9512-09FF548F37A4}" name="Nombre"/>
     <tableColumn id="3" xr3:uid="{138C6B2B-B1EA-4805-BF70-99FC298E8122}" name="NumCamisa"/>
-    <tableColumn id="4" xr3:uid="{AB8B64F7-30C7-4843-968B-0D0436DF304A}" name="Imagen_jugador" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="4" xr3:uid="{AB8B64F7-30C7-4843-968B-0D0436DF304A}" name="Imagen_jugador" dataDxfId="0" dataCellStyle="Hipervínculo"/>
     <tableColumn id="5" xr3:uid="{74AE3BF0-E084-469E-8D8D-3426F3E8F015}" name="Pos"/>
     <tableColumn id="6" xr3:uid="{18E4B91B-1116-4536-88D0-BC3D7B2330D7}" name="Id_Club"/>
     <tableColumn id="7" xr3:uid="{66FEB43A-EA42-4233-AAAB-672155866FF8}" name="Nombre_Club"/>
@@ -2921,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="D460" sqref="D460"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="E460" sqref="E460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13466,8 +13469,29 @@
         <v>808</v>
       </c>
     </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>1004042</v>
+      </c>
+      <c r="B459" t="s">
+        <v>814</v>
+      </c>
+      <c r="C459">
+        <v>42</v>
+      </c>
+      <c r="D459" s="1"/>
+      <c r="E459" t="s">
+        <v>796</v>
+      </c>
+      <c r="F459">
+        <v>1004</v>
+      </c>
+      <c r="G459" t="s">
+        <v>808</v>
+      </c>
+    </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D460" s="2"/>
+      <c r="D460" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/backend/data/LigaPremier.xlsx
+++ b/backend/data/LigaPremier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f6951c0e601b7a9/Desktop/excels/novo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyl\OneDrive\Desktop\excels\novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{617DDB77-D9A3-408C-A788-105B98D37E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75C7B81D-D8E7-47E2-A74F-F23746395C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1919,9 +1919,6 @@
     <t>Andrik Sánchez</t>
   </si>
   <si>
-    <t>https://cdn.resfu.com/img_data/players/medium/3319277.jpg?size=120x&amp;lossy=1</t>
-  </si>
-  <si>
     <t>Denilson Morales</t>
   </si>
   <si>
@@ -2841,6 +2838,9 @@
   </si>
   <si>
     <t>https://cdn.resfu.com/img_data/players/medium/3669250.jpg?size=60x&amp;lossy=1</t>
+  </si>
+  <si>
+    <t>Ian Torres</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2941,56 +2941,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3112,16 +3068,61 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color rgb="FF000000"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -3137,23 +3138,25 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32A8CF84-C284-4FB9-BA95-EA038AE71CB6}" name="Tabla1" displayName="Tabla1" ref="A1:G532" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:G532" xr:uid="{32A8CF84-C284-4FB9-BA95-EA038AE71CB6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32A8CF84-C284-4FB9-BA95-EA038AE71CB6}" name="Tabla1" displayName="Tabla1" ref="A1:G532" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="A1:G532" xr:uid="{32A8CF84-C284-4FB9-BA95-EA038AE71CB6}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="CA Zacatepec"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B0D88DC9-C933-4F53-9704-684AA9FB65E9}" name="Id_jugador" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{B0D88DC9-C933-4F53-9704-684AA9FB65E9}" name="Id_jugador" dataDxfId="6">
       <calculatedColumnFormula>F2 &amp; TEXT(C2,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{423DC004-F609-4CE2-A54E-F395A9D8F772}" name="Nombre" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{2C1E256B-98AC-4F6C-B622-E50EE3FF6B0D}" name="NumCamisa" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{FCAF3189-0533-4810-9BE8-DFEBE2AD3DD0}" name="Imagen_jugador" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9621D6D7-FBFE-408A-94D5-959332F22481}" name="Pos" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F4DC84AA-CA71-4E24-B317-3F398235FCA4}" name="Id_Club" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{ADB6C7CC-86D9-4F9B-BBD0-E3CC55C41434}" name="Nombre_Club" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{423DC004-F609-4CE2-A54E-F395A9D8F772}" name="Nombre" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2C1E256B-98AC-4F6C-B622-E50EE3FF6B0D}" name="NumCamisa" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FCAF3189-0533-4810-9BE8-DFEBE2AD3DD0}" name="Imagen_jugador" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9621D6D7-FBFE-408A-94D5-959332F22481}" name="Pos" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F4DC84AA-CA71-4E24-B317-3F398235FCA4}" name="Id_Club" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{ADB6C7CC-86D9-4F9B-BBD0-E3CC55C41434}" name="Nombre_Club" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3357,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="F380" sqref="F380"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3398,7 +3401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>F2 &amp; TEXT(C2,"000")</f>
         <v>1011100</v>
@@ -3422,7 +3425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>F3 &amp; TEXT(C3,"000")</f>
         <v>1011018</v>
@@ -3446,7 +3449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" ref="A4:A67" si="0">F4 &amp; TEXT(C4,"000")</f>
         <v>1011101</v>
@@ -3470,7 +3473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011023</v>
@@ -3494,7 +3497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011003</v>
@@ -3518,7 +3521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011004</v>
@@ -3542,7 +3545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011006</v>
@@ -3566,7 +3569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011005</v>
@@ -3590,7 +3593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011002</v>
@@ -3614,7 +3617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011024</v>
@@ -3638,7 +3641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011022</v>
@@ -3662,7 +3665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011049</v>
@@ -3686,7 +3689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011015</v>
@@ -3710,7 +3713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011026</v>
@@ -3734,7 +3737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011008</v>
@@ -3758,7 +3761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011029</v>
@@ -3782,7 +3785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011013</v>
@@ -3806,7 +3809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011012</v>
@@ -3830,7 +3833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011010</v>
@@ -3854,7 +3857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011033</v>
@@ -3878,7 +3881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011036</v>
@@ -3902,7 +3905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011017</v>
@@ -3926,7 +3929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011102</v>
@@ -3950,7 +3953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011009</v>
@@ -3974,7 +3977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011011</v>
@@ -3998,7 +4001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011019</v>
@@ -4022,7 +4025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011007</v>
@@ -4046,7 +4049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1011103</v>
@@ -4070,7 +4073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007084</v>
@@ -4094,7 +4097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007082</v>
@@ -4118,7 +4121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007081</v>
@@ -4142,7 +4145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007011</v>
@@ -4166,7 +4169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007010</v>
@@ -4190,7 +4193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007001</v>
@@ -4214,7 +4217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007099</v>
@@ -4238,7 +4241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007096</v>
@@ -4262,7 +4265,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007097</v>
@@ -4286,7 +4289,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007090</v>
@@ -4310,7 +4313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007087</v>
@@ -4334,7 +4337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007089</v>
@@ -4358,7 +4361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007098</v>
@@ -4382,7 +4385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007083</v>
@@ -4406,7 +4409,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007001</v>
@@ -4430,7 +4433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007093</v>
@@ -4454,7 +4457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007088</v>
@@ -4478,7 +4481,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007010</v>
@@ -4502,7 +4505,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007092</v>
@@ -4526,7 +4529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007010</v>
@@ -4550,7 +4553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007006</v>
@@ -4574,7 +4577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007104</v>
@@ -4598,7 +4601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007001</v>
@@ -4622,7 +4625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007011</v>
@@ -4646,7 +4649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007085</v>
@@ -4670,7 +4673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007094</v>
@@ -4694,7 +4697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007086</v>
@@ -4718,7 +4721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007095</v>
@@ -4742,7 +4745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007105</v>
@@ -4766,7 +4769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007002</v>
@@ -4790,7 +4793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007004</v>
@@ -4814,7 +4817,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007106</v>
@@ -4838,7 +4841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007003</v>
@@ -4862,7 +4865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007001</v>
@@ -4886,7 +4889,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1007107</v>
@@ -5621,7 +5624,7 @@
         <v>179</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F94" s="1">
         <v>1002</v>
@@ -5630,7 +5633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009028</v>
@@ -5654,7 +5657,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009021</v>
@@ -5678,7 +5681,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009012</v>
@@ -5702,7 +5705,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009036</v>
@@ -5726,7 +5729,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009017</v>
@@ -5750,7 +5753,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009004</v>
@@ -5774,7 +5777,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009024</v>
@@ -5798,7 +5801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009005</v>
@@ -5822,7 +5825,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009014</v>
@@ -5846,7 +5849,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009020</v>
@@ -5870,7 +5873,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009025</v>
@@ -5894,7 +5897,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009027</v>
@@ -5918,7 +5921,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009023</v>
@@ -5942,7 +5945,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009006</v>
@@ -5966,7 +5969,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009010</v>
@@ -5990,7 +5993,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009007</v>
@@ -6014,7 +6017,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009022</v>
@@ -6038,7 +6041,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009015</v>
@@ -6062,7 +6065,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009019</v>
@@ -6086,7 +6089,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009056</v>
@@ -6110,7 +6113,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009013</v>
@@ -6134,7 +6137,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009009</v>
@@ -6158,7 +6161,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009008</v>
@@ -6182,7 +6185,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009011</v>
@@ -6206,7 +6209,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009016</v>
@@ -6230,7 +6233,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1009112</v>
@@ -6254,7 +6257,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012012</v>
@@ -6278,7 +6281,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012029</v>
@@ -6302,7 +6305,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012001</v>
@@ -6326,7 +6329,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012018</v>
@@ -6350,7 +6353,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012021</v>
@@ -6374,7 +6377,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012014</v>
@@ -6398,7 +6401,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012003</v>
@@ -6422,7 +6425,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012005</v>
@@ -6446,7 +6449,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012054</v>
@@ -6470,7 +6473,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012113</v>
@@ -6494,7 +6497,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1012006</v>
@@ -6518,7 +6521,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="str">
         <f t="shared" ref="A132:A195" si="2">F132 &amp; TEXT(C132,"000")</f>
         <v>1012010</v>
@@ -6542,7 +6545,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012008</v>
@@ -6566,7 +6569,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012015</v>
@@ -6590,7 +6593,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012016</v>
@@ -6614,7 +6617,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012007</v>
@@ -6638,7 +6641,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012114</v>
@@ -6662,7 +6665,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012002</v>
@@ -6686,7 +6689,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012034</v>
@@ -6710,7 +6713,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012115</v>
@@ -6734,7 +6737,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012116</v>
@@ -6758,7 +6761,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012035</v>
@@ -6782,7 +6785,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012026</v>
@@ -6806,7 +6809,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012033</v>
@@ -6830,7 +6833,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012117</v>
@@ -6854,7 +6857,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012024</v>
@@ -6878,7 +6881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012017</v>
@@ -6902,7 +6905,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012020</v>
@@ -6926,7 +6929,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012004</v>
@@ -6950,7 +6953,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012009</v>
@@ -6974,7 +6977,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012030</v>
@@ -6998,7 +7001,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012118</v>
@@ -7022,7 +7025,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012028</v>
@@ -7046,7 +7049,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012036</v>
@@ -7070,7 +7073,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012011</v>
@@ -7094,7 +7097,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012022</v>
@@ -7118,7 +7121,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1012119</v>
@@ -7142,7 +7145,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005120</v>
@@ -7166,7 +7169,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005012</v>
@@ -7190,7 +7193,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005001</v>
@@ -7214,7 +7217,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005023</v>
@@ -7238,7 +7241,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005005</v>
@@ -7262,7 +7265,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005018</v>
@@ -7286,7 +7289,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005041</v>
@@ -7310,7 +7313,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005002</v>
@@ -7334,7 +7337,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005013</v>
@@ -7358,7 +7361,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005025</v>
@@ -7382,7 +7385,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005016</v>
@@ -7406,7 +7409,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005022</v>
@@ -7430,7 +7433,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005010</v>
@@ -7454,7 +7457,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005032</v>
@@ -7478,7 +7481,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005033</v>
@@ -7502,7 +7505,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005014</v>
@@ -7526,7 +7529,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005007</v>
@@ -7550,7 +7553,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005029</v>
@@ -7574,7 +7577,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005008</v>
@@ -7598,7 +7601,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005024</v>
@@ -7622,7 +7625,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005019</v>
@@ -7646,7 +7649,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005021</v>
@@ -7670,7 +7673,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005020</v>
@@ -7694,7 +7697,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005011</v>
@@ -7718,7 +7721,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005009</v>
@@ -7742,7 +7745,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005017</v>
@@ -7766,7 +7769,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005015</v>
@@ -7790,7 +7793,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1005121</v>
@@ -7814,7 +7817,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011008</v>
@@ -7838,7 +7841,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011025</v>
@@ -7862,7 +7865,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011033</v>
@@ -7886,7 +7889,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011020</v>
@@ -7910,7 +7913,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011003</v>
@@ -7934,7 +7937,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011007</v>
@@ -7958,7 +7961,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011023</v>
@@ -7982,7 +7985,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011017</v>
@@ -8006,7 +8009,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011122</v>
@@ -8030,7 +8033,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1011022</v>
@@ -8054,7 +8057,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="str">
         <f t="shared" ref="A196:A259" si="3">F196 &amp; TEXT(C196,"000")</f>
         <v>1011013</v>
@@ -8078,7 +8081,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011005</v>
@@ -8102,7 +8105,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011012</v>
@@ -8126,7 +8129,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011012</v>
@@ -8150,7 +8153,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011018</v>
@@ -8174,7 +8177,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011019</v>
@@ -8198,7 +8201,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011014</v>
@@ -8222,7 +8225,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011009</v>
@@ -8246,7 +8249,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011030</v>
@@ -8270,7 +8273,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011024</v>
@@ -8294,7 +8297,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011027</v>
@@ -8318,7 +8321,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011021</v>
@@ -8342,7 +8345,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011011</v>
@@ -8366,7 +8369,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011016</v>
@@ -8390,7 +8393,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011036</v>
@@ -8414,7 +8417,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011029</v>
@@ -8438,7 +8441,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1011123</v>
@@ -8462,7 +8465,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013012</v>
@@ -8486,7 +8489,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013022</v>
@@ -8510,7 +8513,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013004</v>
@@ -8534,7 +8537,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013028</v>
@@ -8558,7 +8561,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013020</v>
@@ -8582,7 +8585,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013024</v>
@@ -8606,7 +8609,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013005</v>
@@ -8630,7 +8633,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013014</v>
@@ -8654,7 +8657,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013006</v>
@@ -8678,7 +8681,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013010</v>
@@ -8702,7 +8705,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013008</v>
@@ -8726,7 +8729,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013007</v>
@@ -8750,7 +8753,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013023</v>
@@ -8774,7 +8777,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013018</v>
@@ -8798,7 +8801,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013011</v>
@@ -8822,7 +8825,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013021</v>
@@ -8846,7 +8849,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013016</v>
@@ -8870,7 +8873,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013031</v>
@@ -8894,7 +8897,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013015</v>
@@ -8918,7 +8921,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013013</v>
@@ -8942,7 +8945,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013019</v>
@@ -8966,7 +8969,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013002</v>
@@ -8990,7 +8993,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013030</v>
@@ -9014,7 +9017,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013029</v>
@@ -9038,7 +9041,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013017</v>
@@ -9062,7 +9065,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1013124</v>
@@ -9086,7 +9089,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003001</v>
@@ -9110,7 +9113,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003125</v>
@@ -9134,7 +9137,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003028</v>
@@ -9158,7 +9161,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003023</v>
@@ -9182,7 +9185,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003126</v>
@@ -9206,7 +9209,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003019</v>
@@ -9230,7 +9233,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003004</v>
@@ -9254,7 +9257,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003013</v>
@@ -9278,7 +9281,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003127</v>
@@ -9302,7 +9305,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003002</v>
@@ -9326,7 +9329,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003007</v>
@@ -9350,7 +9353,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003030</v>
@@ -9374,7 +9377,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003024</v>
@@ -9398,7 +9401,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003027</v>
@@ -9422,7 +9425,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003005</v>
@@ -9446,7 +9449,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003025</v>
@@ -9470,7 +9473,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003026</v>
@@ -9494,7 +9497,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003016</v>
@@ -9518,7 +9521,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003010</v>
@@ -9542,7 +9545,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003128</v>
@@ -9566,7 +9569,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1003017</v>
@@ -9590,7 +9593,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="str">
         <f t="shared" ref="A260:A323" si="4">F260 &amp; TEXT(C260,"000")</f>
         <v>1003008</v>
@@ -9614,7 +9617,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003014</v>
@@ -9638,7 +9641,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003003</v>
@@ -9662,7 +9665,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003006</v>
@@ -9686,7 +9689,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003011</v>
@@ -9710,7 +9713,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003021</v>
@@ -9734,7 +9737,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003033</v>
@@ -9758,7 +9761,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003015</v>
@@ -9782,7 +9785,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003129</v>
@@ -9806,7 +9809,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003009</v>
@@ -9830,7 +9833,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003018</v>
@@ -9854,7 +9857,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003029</v>
@@ -9878,7 +9881,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003130</v>
@@ -9902,7 +9905,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003131</v>
@@ -9926,7 +9929,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003022</v>
@@ -9950,7 +9953,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003020</v>
@@ -9974,7 +9977,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1003132</v>
@@ -9998,7 +10001,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008001</v>
@@ -10022,7 +10025,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008023</v>
@@ -10046,7 +10049,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008070</v>
@@ -10070,7 +10073,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008003</v>
@@ -10094,7 +10097,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008022</v>
@@ -10118,7 +10121,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008002</v>
@@ -10142,7 +10145,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008020</v>
@@ -10166,7 +10169,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008006</v>
@@ -10190,7 +10193,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008004</v>
@@ -10214,7 +10217,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008015</v>
@@ -10238,7 +10241,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008061</v>
@@ -10262,7 +10265,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008067</v>
@@ -10286,7 +10289,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008001</v>
@@ -10310,7 +10313,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008017</v>
@@ -10334,7 +10337,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008008</v>
@@ -10358,7 +10361,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008011</v>
@@ -10382,7 +10385,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008005</v>
@@ -10406,7 +10409,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008007</v>
@@ -10430,7 +10433,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008133</v>
@@ -10454,7 +10457,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008016</v>
@@ -10478,7 +10481,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008134</v>
@@ -10502,7 +10505,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008013</v>
@@ -10526,7 +10529,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008014</v>
@@ -10550,7 +10553,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008012</v>
@@ -10574,7 +10577,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008019</v>
@@ -10598,7 +10601,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008018</v>
@@ -10622,7 +10625,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008135</v>
@@ -10646,7 +10649,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008027</v>
@@ -10670,7 +10673,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008136</v>
@@ -10694,7 +10697,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008010</v>
@@ -10718,7 +10721,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008137</v>
@@ -10742,7 +10745,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008138</v>
@@ -10766,7 +10769,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008009</v>
@@ -10790,7 +10793,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008029</v>
@@ -10814,7 +10817,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008025</v>
@@ -10838,7 +10841,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1008139</v>
@@ -10862,7 +10865,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006001</v>
@@ -10886,7 +10889,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006051</v>
@@ -10910,7 +10913,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006012</v>
@@ -10934,7 +10937,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006025</v>
@@ -10958,7 +10961,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006015</v>
@@ -10982,7 +10985,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006004</v>
@@ -11006,7 +11009,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006013</v>
@@ -11030,7 +11033,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006062</v>
@@ -11054,7 +11057,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006026</v>
@@ -11078,7 +11081,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006003</v>
@@ -11102,7 +11105,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1006002</v>
@@ -11126,9 +11129,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="str">
-        <f t="shared" ref="A324:A387" si="5">F324 &amp; TEXT(C324,"000")</f>
+        <f t="shared" ref="A324:A386" si="5">F324 &amp; TEXT(C324,"000")</f>
         <v>1006006</v>
       </c>
       <c r="B324" s="1" t="s">
@@ -11150,7 +11153,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006011</v>
@@ -11174,7 +11177,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006008</v>
@@ -11198,7 +11201,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006005</v>
@@ -11222,7 +11225,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006018</v>
@@ -11246,7 +11249,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006007</v>
@@ -11270,7 +11273,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006016</v>
@@ -11294,7 +11297,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006020</v>
@@ -11318,7 +11321,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006022</v>
@@ -11342,7 +11345,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006017</v>
@@ -11366,7 +11369,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006021</v>
@@ -11390,7 +11393,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006014</v>
@@ -11414,16 +11417,16 @@
         <v>567</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1006140</v>
+        <v>1006065</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>611</v>
       </c>
       <c r="C336" s="1">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>8</v>
@@ -11438,7 +11441,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006141</v>
@@ -11462,7 +11465,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006142</v>
@@ -11486,7 +11489,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006009</v>
@@ -11510,7 +11513,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006010</v>
@@ -11534,7 +11537,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006019</v>
@@ -11558,7 +11561,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006143</v>
@@ -11582,7 +11585,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006023</v>
@@ -11606,7 +11609,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1006079</v>
@@ -11630,16 +11633,16 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1006144</v>
+        <v>1006029</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>627</v>
       </c>
       <c r="C345" s="1">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>8</v>
@@ -11654,67 +11657,67 @@
         <v>567</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1006145</v>
+        <v>1014146</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>587</v>
+        <v>628</v>
       </c>
       <c r="C346" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>628</v>
+        <v>8</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F346" s="1">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014146</v>
+        <v>1014001</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C347" s="1">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>8</v>
+        <v>631</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F347" s="1">
         <v>1014</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014001</v>
+        <v>1014031</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C348" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>13</v>
@@ -11723,46 +11726,46 @@
         <v>1014</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014031</v>
+        <v>1014012</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C349" s="1">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F349" s="1">
         <v>1014</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014012</v>
+        <v>1014023</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C350" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>20</v>
@@ -11771,22 +11774,22 @@
         <v>1014</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014023</v>
+        <v>1014004</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C351" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>20</v>
@@ -11795,22 +11798,22 @@
         <v>1014</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014004</v>
+        <v>1014005</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C352" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>20</v>
@@ -11819,22 +11822,22 @@
         <v>1014</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014005</v>
+        <v>1014003</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C353" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>20</v>
@@ -11843,22 +11846,22 @@
         <v>1014</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014003</v>
+        <v>1014006</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C354" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>20</v>
@@ -11867,22 +11870,22 @@
         <v>1014</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014006</v>
+        <v>1014147</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C355" s="1">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>20</v>
@@ -11891,22 +11894,22 @@
         <v>1014</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014147</v>
+        <v>1014024</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C356" s="1">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>20</v>
@@ -11915,22 +11918,22 @@
         <v>1014</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014024</v>
+        <v>1014018</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C357" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>650</v>
+        <v>8</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>20</v>
@@ -11939,22 +11942,22 @@
         <v>1014</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014018</v>
+        <v>1014063</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>651</v>
       </c>
       <c r="C358" s="1">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>8</v>
+        <v>652</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>20</v>
@@ -11963,22 +11966,22 @@
         <v>1014</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014063</v>
+        <v>1014148</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C359" s="1">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>20</v>
@@ -11987,46 +11990,46 @@
         <v>1014</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014148</v>
+        <v>1014002</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C360" s="1">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F360" s="1">
         <v>1014</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014002</v>
+        <v>1014010</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C361" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>33</v>
@@ -12035,22 +12038,22 @@
         <v>1014</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014010</v>
+        <v>1014017</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C362" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>33</v>
@@ -12059,22 +12062,22 @@
         <v>1014</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014017</v>
+        <v>1014014</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C363" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>33</v>
@@ -12083,22 +12086,22 @@
         <v>1014</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014014</v>
+        <v>1014020</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C364" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>33</v>
@@ -12107,22 +12110,22 @@
         <v>1014</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014020</v>
+        <v>1014058</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C365" s="1">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>33</v>
@@ -12131,22 +12134,22 @@
         <v>1014</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014058</v>
+        <v>1014149</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C366" s="1">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>667</v>
+        <v>8</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>33</v>
@@ -12155,22 +12158,22 @@
         <v>1014</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014149</v>
+        <v>1014016</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>668</v>
       </c>
       <c r="C367" s="1">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>8</v>
+        <v>669</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>33</v>
@@ -12179,22 +12182,22 @@
         <v>1014</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014016</v>
+        <v>1014027</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C368" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>33</v>
@@ -12203,22 +12206,22 @@
         <v>1014</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014027</v>
+        <v>1014015</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C369" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>672</v>
+        <v>8</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>33</v>
@@ -12227,19 +12230,19 @@
         <v>1014</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014015</v>
+        <v>1014150</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C370" s="1">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>8</v>
@@ -12251,22 +12254,22 @@
         <v>1014</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014150</v>
+        <v>1014072</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>674</v>
       </c>
       <c r="C371" s="1">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>8</v>
+        <v>675</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>33</v>
@@ -12275,22 +12278,22 @@
         <v>1014</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014072</v>
+        <v>1014052</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C372" s="1">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>33</v>
@@ -12299,22 +12302,22 @@
         <v>1014</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014052</v>
+        <v>1014008</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C373" s="1">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>678</v>
+        <v>8</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>33</v>
@@ -12323,22 +12326,22 @@
         <v>1014</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014008</v>
+        <v>1014026</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>679</v>
       </c>
       <c r="C374" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>8</v>
+        <v>680</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>33</v>
@@ -12347,19 +12350,19 @@
         <v>1014</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014026</v>
+        <v>1014019</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>680</v>
+        <v>260</v>
       </c>
       <c r="C375" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>681</v>
@@ -12371,46 +12374,46 @@
         <v>1014</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014019</v>
+        <v>1014059</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>260</v>
+        <v>682</v>
       </c>
       <c r="C376" s="1">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F376" s="1">
         <v>1014</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014059</v>
+        <v>1014007</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C377" s="1">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>58</v>
@@ -12419,22 +12422,22 @@
         <v>1014</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014007</v>
+        <v>1014003</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C378" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>58</v>
@@ -12443,22 +12446,22 @@
         <v>1014</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014003</v>
+        <v>1014033</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C379" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>58</v>
@@ -12467,22 +12470,22 @@
         <v>1014</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014033</v>
+        <v>1014056</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C380" s="1">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>690</v>
+        <v>8</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>58</v>
@@ -12491,22 +12494,22 @@
         <v>1014</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014056</v>
+        <v>1014035</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>691</v>
       </c>
       <c r="C381" s="1">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>8</v>
+        <v>692</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>58</v>
@@ -12515,22 +12518,22 @@
         <v>1014</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014035</v>
+        <v>1014150</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C382" s="1">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>693</v>
+        <v>8</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>58</v>
@@ -12539,46 +12542,46 @@
         <v>1014</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1014150</v>
+        <v>1005029</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="C383" s="1">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F383" s="1">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1005029</v>
+        <v>1005030</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C384" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>8</v>
+        <v>696</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>13</v>
@@ -12587,22 +12590,22 @@
         <v>1005</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1005030</v>
+        <v>1005053</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C385" s="1">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>697</v>
+        <v>8</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>13</v>
@@ -12611,46 +12614,46 @@
         <v>1005</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1005053</v>
+        <v>1005027</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>698</v>
       </c>
       <c r="C386" s="1">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>8</v>
+        <v>699</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F386" s="1">
         <v>1005</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>1005027</v>
+        <f t="shared" ref="A387:A450" si="6">F387 &amp; TEXT(C387,"000")</f>
+        <v>1005019</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C387" s="1">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>20</v>
@@ -12659,22 +12662,22 @@
         <v>1005</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="str">
-        <f t="shared" ref="A388:A451" si="6">F388 &amp; TEXT(C388,"000")</f>
-        <v>1005019</v>
+        <f t="shared" si="6"/>
+        <v>1005016</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C388" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>20</v>
@@ -12683,22 +12686,22 @@
         <v>1005</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005016</v>
+        <v>1005002</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C389" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>20</v>
@@ -12707,22 +12710,22 @@
         <v>1005</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005002</v>
+        <v>1005017</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C390" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>20</v>
@@ -12731,22 +12734,22 @@
         <v>1005</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005017</v>
+        <v>1005021</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C391" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>20</v>
@@ -12755,19 +12758,19 @@
         <v>1005</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005021</v>
+        <v>1005022</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>709</v>
+        <v>183</v>
       </c>
       <c r="C392" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>710</v>
@@ -12779,22 +12782,22 @@
         <v>1005</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005022</v>
+        <v>1005014</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>183</v>
+        <v>711</v>
       </c>
       <c r="C393" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>20</v>
@@ -12803,22 +12806,22 @@
         <v>1005</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005014</v>
+        <v>1005013</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C394" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>20</v>
@@ -12827,46 +12830,46 @@
         <v>1005</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005013</v>
+        <v>1005004</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C395" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F395" s="1">
         <v>1005</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005004</v>
+        <v>1005020</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C396" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>33</v>
@@ -12875,22 +12878,22 @@
         <v>1005</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005020</v>
+        <v>1005007</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C397" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>33</v>
@@ -12899,22 +12902,22 @@
         <v>1005</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005007</v>
+        <v>1005015</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C398" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>33</v>
@@ -12923,22 +12926,22 @@
         <v>1005</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005015</v>
+        <v>1005005</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C399" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>33</v>
@@ -12947,22 +12950,22 @@
         <v>1005</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005005</v>
+        <v>1005012</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C400" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>33</v>
@@ -12971,19 +12974,19 @@
         <v>1005</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005012</v>
+        <v>1005018</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>726</v>
+        <v>593</v>
       </c>
       <c r="C401" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>727</v>
@@ -12995,22 +12998,22 @@
         <v>1005</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005018</v>
+        <v>1005031</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>593</v>
+        <v>728</v>
       </c>
       <c r="C402" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>728</v>
+        <v>8</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>33</v>
@@ -13019,22 +13022,22 @@
         <v>1005</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005031</v>
+        <v>1005008</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>729</v>
       </c>
       <c r="C403" s="1">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>8</v>
+        <v>730</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>33</v>
@@ -13043,46 +13046,46 @@
         <v>1005</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005008</v>
+        <v>1005002</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C404" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F404" s="1">
         <v>1005</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005002</v>
+        <v>1005009</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C405" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>58</v>
@@ -13091,19 +13094,19 @@
         <v>1005</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005009</v>
+        <v>1005006</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>734</v>
+        <v>267</v>
       </c>
       <c r="C406" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>735</v>
@@ -13115,22 +13118,22 @@
         <v>1005</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005006</v>
+        <v>1005003</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>267</v>
+        <v>736</v>
       </c>
       <c r="C407" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>736</v>
+        <v>8</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>58</v>
@@ -13139,22 +13142,22 @@
         <v>1005</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005003</v>
+        <v>1005023</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>737</v>
       </c>
       <c r="C408" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>8</v>
+        <v>738</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>58</v>
@@ -13163,22 +13166,22 @@
         <v>1005</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005023</v>
+        <v>1005011</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C409" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>58</v>
@@ -13187,22 +13190,22 @@
         <v>1005</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005011</v>
+        <v>1005025</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C410" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>58</v>
@@ -13211,22 +13214,22 @@
         <v>1005</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005025</v>
+        <v>1005024</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C411" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>58</v>
@@ -13235,22 +13238,22 @@
         <v>1005</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005024</v>
+        <v>1005028</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C412" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>745</v>
+        <v>8</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>58</v>
@@ -13259,22 +13262,22 @@
         <v>1005</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005028</v>
+        <v>1005151</v>
       </c>
       <c r="B413" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C413" s="1">
+        <v>151</v>
+      </c>
+      <c r="D413" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="C413" s="1">
-        <v>28</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>58</v>
@@ -13283,40 +13286,40 @@
         <v>1005</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1005151</v>
+        <v>1001001</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>718</v>
+        <v>747</v>
       </c>
       <c r="C414" s="1">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>747</v>
+        <v>8</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F414" s="1">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="str">
         <f t="shared" si="6"/>
         <v>1001001</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C415" s="1">
         <v>1</v>
@@ -13331,46 +13334,46 @@
         <v>1001</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001001</v>
+        <v>1001021</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>750</v>
       </c>
       <c r="C416" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>8</v>
+        <v>751</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F416" s="1">
         <v>1001</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001021</v>
+        <v>1001152</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C417" s="1">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>752</v>
+        <v>8</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>13</v>
@@ -13379,19 +13382,19 @@
         <v>1001</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001152</v>
+        <v>1001001</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>753</v>
       </c>
       <c r="C418" s="1">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>8</v>
@@ -13403,22 +13406,22 @@
         <v>1001</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001001</v>
+        <v>1001029</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>754</v>
       </c>
       <c r="C419" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>8</v>
+        <v>755</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>13</v>
@@ -13427,46 +13430,46 @@
         <v>1001</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001029</v>
+        <v>1001023</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C420" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F420" s="1">
         <v>1001</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001023</v>
+        <v>1001153</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C421" s="1">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>20</v>
@@ -13475,22 +13478,22 @@
         <v>1001</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001153</v>
+        <v>1001020</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C422" s="1">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>20</v>
@@ -13499,22 +13502,22 @@
         <v>1001</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001020</v>
+        <v>1001013</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C423" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>20</v>
@@ -13523,22 +13526,22 @@
         <v>1001</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001013</v>
+        <v>1001024</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C424" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>20</v>
@@ -13547,22 +13550,22 @@
         <v>1001</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001024</v>
+        <v>1001002</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C425" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>20</v>
@@ -13571,22 +13574,22 @@
         <v>1001</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001002</v>
+        <v>1001043</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C426" s="1">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>20</v>
@@ -13595,22 +13598,22 @@
         <v>1001</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001043</v>
+        <v>1001041</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>769</v>
+        <v>245</v>
       </c>
       <c r="C427" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>770</v>
+        <v>8</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>20</v>
@@ -13619,22 +13622,22 @@
         <v>1001</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001041</v>
+        <v>1001025</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>245</v>
+        <v>770</v>
       </c>
       <c r="C428" s="1">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>8</v>
+        <v>771</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>20</v>
@@ -13643,22 +13646,22 @@
         <v>1001</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001025</v>
+        <v>1001012</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C429" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>772</v>
+        <v>8</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>20</v>
@@ -13667,22 +13670,22 @@
         <v>1001</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001012</v>
+        <v>1001045</v>
       </c>
       <c r="B430" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C430" s="1">
+        <v>45</v>
+      </c>
+      <c r="D430" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="C430" s="1">
-        <v>12</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>20</v>
@@ -13691,22 +13694,22 @@
         <v>1001</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001045</v>
+        <v>1001003</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>701</v>
+        <v>774</v>
       </c>
       <c r="C431" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>20</v>
@@ -13715,22 +13718,22 @@
         <v>1001</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001003</v>
+        <v>1001154</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C432" s="1">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>776</v>
+        <v>8</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>20</v>
@@ -13739,22 +13742,22 @@
         <v>1001</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001154</v>
+        <v>1001155</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>777</v>
       </c>
       <c r="C433" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>8</v>
+        <v>778</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>20</v>
@@ -13763,46 +13766,46 @@
         <v>1001</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001155</v>
+        <v>1001010</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C434" s="1">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F434" s="1">
         <v>1001</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001010</v>
+        <v>1001011</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>780</v>
+        <v>535</v>
       </c>
       <c r="C435" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>781</v>
+        <v>536</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>33</v>
@@ -13811,22 +13814,22 @@
         <v>1001</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001011</v>
+        <v>1001005</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>535</v>
+        <v>781</v>
       </c>
       <c r="C436" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>536</v>
+        <v>782</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>33</v>
@@ -13835,22 +13838,22 @@
         <v>1001</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001005</v>
+        <v>1001004</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C437" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>33</v>
@@ -13859,22 +13862,22 @@
         <v>1001</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001004</v>
+        <v>1001018</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C438" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>33</v>
@@ -13883,22 +13886,22 @@
         <v>1001</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001018</v>
+        <v>1001016</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C439" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>33</v>
@@ -13907,22 +13910,22 @@
         <v>1001</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001016</v>
+        <v>1001006</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C440" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>33</v>
@@ -13931,22 +13934,22 @@
         <v>1001</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001006</v>
+        <v>1001008</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C441" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>33</v>
@@ -13955,22 +13958,22 @@
         <v>1001</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001008</v>
+        <v>1001156</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C442" s="1">
+        <v>156</v>
+      </c>
+      <c r="D442" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>793</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>33</v>
@@ -13979,22 +13982,22 @@
         <v>1001</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001156</v>
+        <v>1001030</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>794</v>
       </c>
       <c r="C443" s="1">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>8</v>
+        <v>795</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>33</v>
@@ -14003,22 +14006,22 @@
         <v>1001</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001030</v>
+        <v>1001022</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C444" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>796</v>
+        <v>8</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>33</v>
@@ -14027,19 +14030,19 @@
         <v>1001</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001022</v>
+        <v>1001044</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>797</v>
       </c>
       <c r="C445" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>8</v>
@@ -14051,19 +14054,19 @@
         <v>1001</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001044</v>
+        <v>1001007</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>798</v>
       </c>
       <c r="C446" s="1">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>8</v>
@@ -14075,19 +14078,19 @@
         <v>1001</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001007</v>
+        <v>1001033</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>799</v>
+        <v>560</v>
       </c>
       <c r="C447" s="1">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>8</v>
@@ -14099,19 +14102,19 @@
         <v>1001</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001033</v>
+        <v>1001157</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>560</v>
+        <v>799</v>
       </c>
       <c r="C448" s="1">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="D448" s="2" t="s">
         <v>8</v>
@@ -14123,19 +14126,19 @@
         <v>1001</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001157</v>
+        <v>1001158</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>800</v>
       </c>
       <c r="C449" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>8</v>
@@ -14147,46 +14150,46 @@
         <v>1001</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1001158</v>
+        <v>1001039</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>801</v>
       </c>
       <c r="C450" s="1">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>8</v>
+        <v>802</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F450" s="1">
         <v>1001</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>1001039</v>
+        <f t="shared" ref="A451:A514" si="7">F451 &amp; TEXT(C451,"000")</f>
+        <v>1001009</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C451" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>58</v>
@@ -14195,22 +14198,22 @@
         <v>1001</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="str">
-        <f t="shared" ref="A452:A515" si="7">F452 &amp; TEXT(C452,"000")</f>
-        <v>1001009</v>
+        <f t="shared" si="7"/>
+        <v>1001046</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C452" s="1">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>58</v>
@@ -14219,22 +14222,22 @@
         <v>1001</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1001046</v>
+        <v>1001028</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C453" s="1">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>58</v>
@@ -14243,22 +14246,22 @@
         <v>1001</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1001028</v>
+        <v>1001159</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C454" s="1">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>809</v>
+        <v>8</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>58</v>
@@ -14267,22 +14270,22 @@
         <v>1001</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1001159</v>
+        <v>1001017</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>810</v>
       </c>
       <c r="C455" s="1">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>8</v>
+        <v>811</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>58</v>
@@ -14291,22 +14294,22 @@
         <v>1001</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1001017</v>
+        <v>1001160</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>811</v>
+        <v>267</v>
       </c>
       <c r="C456" s="1">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>812</v>
+        <v>8</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>58</v>
@@ -14315,22 +14318,22 @@
         <v>1001</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1001160</v>
+        <v>1001161</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>267</v>
+        <v>801</v>
       </c>
       <c r="C457" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>8</v>
+        <v>812</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>58</v>
@@ -14339,46 +14342,46 @@
         <v>1001</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1001161</v>
+        <v>1016001</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="C458" s="1">
-        <v>161</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>813</v>
+        <v>1</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>814</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F458" s="1">
-        <v>1001</v>
-      </c>
-      <c r="G458" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+      <c r="G458" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016001</v>
+        <v>1016012</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C459" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>815</v>
+        <v>8</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>13</v>
@@ -14387,19 +14390,19 @@
         <v>1016</v>
       </c>
       <c r="G459" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016012</v>
+        <v>1016101</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>817</v>
       </c>
       <c r="C460" s="1">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>8</v>
@@ -14411,19 +14414,19 @@
         <v>1016</v>
       </c>
       <c r="G460" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016101</v>
+        <v>1016102</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>818</v>
       </c>
       <c r="C461" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>8</v>
@@ -14435,19 +14438,19 @@
         <v>1016</v>
       </c>
       <c r="G461" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016102</v>
+        <v>1016103</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>819</v>
       </c>
       <c r="C462" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>8</v>
@@ -14459,46 +14462,46 @@
         <v>1016</v>
       </c>
       <c r="G462" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016103</v>
+        <v>1016004</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>820</v>
       </c>
       <c r="C463" s="1">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>8</v>
+        <v>821</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F463" s="1">
         <v>1016</v>
       </c>
       <c r="G463" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016004</v>
+        <v>1016005</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C464" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>20</v>
@@ -14507,22 +14510,22 @@
         <v>1016</v>
       </c>
       <c r="G464" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016005</v>
+        <v>1016104</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C465" s="1">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>20</v>
@@ -14531,22 +14534,22 @@
         <v>1016</v>
       </c>
       <c r="G465" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016104</v>
+        <v>1016003</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C466" s="1">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>20</v>
@@ -14555,22 +14558,22 @@
         <v>1016</v>
       </c>
       <c r="G466" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016003</v>
+        <v>1016052</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C467" s="1">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>20</v>
@@ -14579,22 +14582,22 @@
         <v>1016</v>
       </c>
       <c r="G467" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016052</v>
+        <v>1016020</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C468" s="1">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>20</v>
@@ -14603,22 +14606,22 @@
         <v>1016</v>
       </c>
       <c r="G468" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016020</v>
+        <v>1016002</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C469" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>20</v>
@@ -14627,22 +14630,22 @@
         <v>1016</v>
       </c>
       <c r="G469" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016002</v>
+        <v>1016015</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C470" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>834</v>
+        <v>8</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>20</v>
@@ -14651,19 +14654,19 @@
         <v>1016</v>
       </c>
       <c r="G470" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016015</v>
+        <v>1016037</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C471" s="1">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>8</v>
@@ -14675,22 +14678,22 @@
         <v>1016</v>
       </c>
       <c r="G471" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016037</v>
+        <v>1016033</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>836</v>
       </c>
       <c r="C472" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>8</v>
+        <v>837</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>20</v>
@@ -14699,22 +14702,22 @@
         <v>1016</v>
       </c>
       <c r="G472" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016033</v>
+        <v>1016106</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C473" s="1">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>20</v>
@@ -14723,22 +14726,22 @@
         <v>1016</v>
       </c>
       <c r="G473" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016106</v>
+        <v>1016107</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C474" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>840</v>
+        <v>707</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>20</v>
@@ -14747,46 +14750,46 @@
         <v>1016</v>
       </c>
       <c r="G474" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016107</v>
+        <v>1016108</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>841</v>
       </c>
       <c r="C475" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>708</v>
+        <v>842</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F475" s="1">
         <v>1016</v>
       </c>
       <c r="G475" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016108</v>
+        <v>1016010</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C476" s="1">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>33</v>
@@ -14795,22 +14798,22 @@
         <v>1016</v>
       </c>
       <c r="G476" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016010</v>
+        <v>1016024</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C477" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>33</v>
@@ -14819,22 +14822,22 @@
         <v>1016</v>
       </c>
       <c r="G477" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016024</v>
+        <v>1016007</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C478" s="1">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>33</v>
@@ -14843,22 +14846,22 @@
         <v>1016</v>
       </c>
       <c r="G478" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016007</v>
+        <v>1016023</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C479" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>849</v>
+        <v>8</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>33</v>
@@ -14867,22 +14870,22 @@
         <v>1016</v>
       </c>
       <c r="G479" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016023</v>
+        <v>1016053</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>850</v>
       </c>
       <c r="C480" s="1">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>8</v>
+        <v>851</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>33</v>
@@ -14891,22 +14894,22 @@
         <v>1016</v>
       </c>
       <c r="G480" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016053</v>
+        <v>1016009</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C481" s="1">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>852</v>
+        <v>8</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>33</v>
@@ -14915,19 +14918,19 @@
         <v>1016</v>
       </c>
       <c r="G481" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016009</v>
+        <v>1016006</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>853</v>
       </c>
       <c r="C482" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>8</v>
@@ -14939,19 +14942,19 @@
         <v>1016</v>
       </c>
       <c r="G482" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016006</v>
+        <v>1016019</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>854</v>
       </c>
       <c r="C483" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D483" s="3" t="s">
         <v>8</v>
@@ -14963,22 +14966,22 @@
         <v>1016</v>
       </c>
       <c r="G483" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016019</v>
+        <v>1016016</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>855</v>
       </c>
       <c r="C484" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>8</v>
+        <v>856</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>33</v>
@@ -14987,22 +14990,22 @@
         <v>1016</v>
       </c>
       <c r="G484" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016016</v>
+        <v>1016018</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C485" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>857</v>
+        <v>8</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>33</v>
@@ -15011,19 +15014,19 @@
         <v>1016</v>
       </c>
       <c r="G485" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016018</v>
+        <v>1016025</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>858</v>
       </c>
       <c r="C486" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D486" s="3" t="s">
         <v>8</v>
@@ -15035,22 +15038,22 @@
         <v>1016</v>
       </c>
       <c r="G486" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016025</v>
+        <v>1016017</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>859</v>
       </c>
       <c r="C487" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>8</v>
+        <v>860</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>33</v>
@@ -15059,22 +15062,22 @@
         <v>1016</v>
       </c>
       <c r="G487" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016017</v>
+        <v>1016026</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C488" s="1">
-        <v>17</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>861</v>
+        <v>26</v>
+      </c>
+      <c r="D488" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>33</v>
@@ -15083,21 +15086,21 @@
         <v>1016</v>
       </c>
       <c r="G488" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016026</v>
+        <v>1016038</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>862</v>
       </c>
       <c r="C489" s="1">
-        <v>26</v>
-      </c>
-      <c r="D489" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D489" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E489" s="1" t="s">
@@ -15107,19 +15110,19 @@
         <v>1016</v>
       </c>
       <c r="G489" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016038</v>
+        <v>1016057</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C490" s="1">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>8</v>
@@ -15131,22 +15134,22 @@
         <v>1016</v>
       </c>
       <c r="G490" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016057</v>
+        <v>1016109</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>864</v>
       </c>
       <c r="C491" s="1">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>8</v>
+        <v>865</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>33</v>
@@ -15155,22 +15158,22 @@
         <v>1016</v>
       </c>
       <c r="G491" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016109</v>
+        <v>1016110</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C492" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>33</v>
@@ -15179,22 +15182,22 @@
         <v>1016</v>
       </c>
       <c r="G492" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016110</v>
+        <v>1016111</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C493" s="1">
-        <v>110</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>868</v>
+        <v>111</v>
+      </c>
+      <c r="D493" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>33</v>
@@ -15203,19 +15206,19 @@
         <v>1016</v>
       </c>
       <c r="G493" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016111</v>
+        <v>1016112</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>869</v>
       </c>
       <c r="C494" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D494" s="5" t="s">
         <v>8</v>
@@ -15227,19 +15230,19 @@
         <v>1016</v>
       </c>
       <c r="G494" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016112</v>
+        <v>1016113</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>870</v>
       </c>
       <c r="C495" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D495" s="5" t="s">
         <v>8</v>
@@ -15251,19 +15254,19 @@
         <v>1016</v>
       </c>
       <c r="G495" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016113</v>
+        <v>1016114</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>871</v>
       </c>
       <c r="C496" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D496" s="5" t="s">
         <v>8</v>
@@ -15275,46 +15278,46 @@
         <v>1016</v>
       </c>
       <c r="G496" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016114</v>
+        <v>1016011</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>872</v>
       </c>
       <c r="C497" s="1">
-        <v>114</v>
-      </c>
-      <c r="D497" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>873</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F497" s="1">
         <v>1016</v>
       </c>
       <c r="G497" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016011</v>
+        <v>1016008</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C498" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>58</v>
@@ -15323,22 +15326,22 @@
         <v>1016</v>
       </c>
       <c r="G498" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016008</v>
+        <v>1016115</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C499" s="1">
+        <v>115</v>
+      </c>
+      <c r="D499" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>876</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>58</v>
@@ -15347,22 +15350,22 @@
         <v>1016</v>
       </c>
       <c r="G499" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016115</v>
+        <v>1016055</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>877</v>
       </c>
       <c r="C500" s="1">
-        <v>115</v>
-      </c>
-      <c r="D500" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>878</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>58</v>
@@ -15371,22 +15374,22 @@
         <v>1016</v>
       </c>
       <c r="G500" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016055</v>
+        <v>1016116</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C501" s="1">
-        <v>55</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>879</v>
+        <v>116</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>58</v>
@@ -15395,19 +15398,19 @@
         <v>1016</v>
       </c>
       <c r="G501" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016116</v>
+        <v>1016117</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>880</v>
       </c>
       <c r="C502" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>8</v>
@@ -15419,46 +15422,46 @@
         <v>1016</v>
       </c>
       <c r="G502" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1016117</v>
+        <v>1017001</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>881</v>
       </c>
       <c r="C503" s="1">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>8</v>
+        <v>882</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F503" s="1">
-        <v>1016</v>
-      </c>
-      <c r="G503" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1017</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017001</v>
+        <v>1017101</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C504" s="1">
-        <v>1</v>
-      </c>
-      <c r="D504" s="5" t="s">
-        <v>883</v>
+        <v>101</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>13</v>
@@ -15467,22 +15470,22 @@
         <v>1017</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017101</v>
+        <v>1017102</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C505" s="1">
-        <v>101</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>886</v>
+        <v>102</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>13</v>
@@ -15491,46 +15494,46 @@
         <v>1017</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017102</v>
+        <v>1017103</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C506" s="1">
-        <v>102</v>
-      </c>
-      <c r="D506" s="5" t="s">
-        <v>8</v>
+        <v>103</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>888</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F506" s="1">
         <v>1017</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017103</v>
+        <v>1017015</v>
       </c>
       <c r="B507" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C507" s="1">
+        <v>15</v>
+      </c>
+      <c r="D507" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="C507" s="1">
-        <v>103</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>889</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>20</v>
@@ -15539,22 +15542,22 @@
         <v>1017</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017015</v>
+        <v>1017004</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>890</v>
       </c>
       <c r="C508" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>20</v>
@@ -15563,22 +15566,22 @@
         <v>1017</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017004</v>
+        <v>1017013</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C509" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>20</v>
@@ -15587,22 +15590,22 @@
         <v>1017</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017013</v>
+        <v>1017006</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C510" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>20</v>
@@ -15611,22 +15614,22 @@
         <v>1017</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017006</v>
+        <v>1017002</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C511" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>20</v>
@@ -15635,22 +15638,22 @@
         <v>1017</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017002</v>
+        <v>1017104</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C512" s="1">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>20</v>
@@ -15659,22 +15662,22 @@
         <v>1017</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017104</v>
+        <v>1017024</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C513" s="1">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>20</v>
@@ -15683,22 +15686,22 @@
         <v>1017</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1017024</v>
+        <v>1017005</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C514" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>20</v>
@@ -15707,22 +15710,22 @@
         <v>1017</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1017005</v>
+        <f t="shared" ref="A515:A531" si="8">F515 &amp; TEXT(C515,"000")</f>
+        <v>1017012</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C515" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>20</v>
@@ -15731,22 +15734,22 @@
         <v>1017</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="str">
-        <f t="shared" ref="A516:A532" si="8">F516 &amp; TEXT(C516,"000")</f>
-        <v>1017012</v>
+        <f t="shared" si="8"/>
+        <v>1017023</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C516" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>20</v>
@@ -15755,22 +15758,22 @@
         <v>1017</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017023</v>
+        <v>1017057</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C517" s="1">
-        <v>23</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>908</v>
+        <v>57</v>
+      </c>
+      <c r="D517" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>20</v>
@@ -15779,22 +15782,22 @@
         <v>1017</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017057</v>
+        <v>1017106</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>909</v>
       </c>
       <c r="C518" s="1">
-        <v>57</v>
-      </c>
-      <c r="D518" s="5" t="s">
-        <v>8</v>
+        <v>106</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>910</v>
       </c>
       <c r="E518" s="1" t="s">
         <v>20</v>
@@ -15803,46 +15806,46 @@
         <v>1017</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017106</v>
+        <v>1017019</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C519" s="1">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F519" s="1">
         <v>1017</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017019</v>
+        <v>1017007</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C520" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E520" s="1" t="s">
         <v>33</v>
@@ -15851,22 +15854,22 @@
         <v>1017</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017007</v>
+        <v>1017008</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C521" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E521" s="1" t="s">
         <v>33</v>
@@ -15875,22 +15878,22 @@
         <v>1017</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017008</v>
+        <v>1017029</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C522" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E522" s="1" t="s">
         <v>33</v>
@@ -15899,22 +15902,22 @@
         <v>1017</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017029</v>
+        <v>1017016</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C523" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>33</v>
@@ -15923,22 +15926,22 @@
         <v>1017</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017016</v>
+        <v>1017010</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C524" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>33</v>
@@ -15947,22 +15950,22 @@
         <v>1017</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017010</v>
+        <v>1017021</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C525" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E525" s="1" t="s">
         <v>33</v>
@@ -15971,22 +15974,22 @@
         <v>1017</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017021</v>
+        <v>1017067</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C526" s="1">
-        <v>21</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>925</v>
+        <v>67</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>33</v>
@@ -15995,46 +15998,46 @@
         <v>1017</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017067</v>
+        <v>1017011</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>926</v>
       </c>
       <c r="C527" s="1">
-        <v>67</v>
-      </c>
-      <c r="D527" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>927</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F527" s="1">
         <v>1017</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017011</v>
+        <v>1017113</v>
       </c>
       <c r="B528" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C528" s="1">
+        <v>113</v>
+      </c>
+      <c r="D528" s="5" t="s">
         <v>927</v>
-      </c>
-      <c r="C528" s="1">
-        <v>11</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>928</v>
       </c>
       <c r="E528" s="1" t="s">
         <v>58</v>
@@ -16043,22 +16046,22 @@
         <v>1017</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017113</v>
+        <v>1017009</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>929</v>
       </c>
       <c r="C529" s="1">
-        <v>113</v>
-      </c>
-      <c r="D529" s="5" t="s">
-        <v>928</v>
+        <v>9</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>930</v>
       </c>
       <c r="E529" s="1" t="s">
         <v>58</v>
@@ -16067,22 +16070,22 @@
         <v>1017</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017009</v>
+        <v>1017018</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C530" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E530" s="1" t="s">
         <v>58</v>
@@ -16091,22 +16094,22 @@
         <v>1017</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1017018</v>
+        <v>1017026</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C531" s="1">
-        <v>18</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>933</v>
+        <v>26</v>
+      </c>
+      <c r="D531" s="5" t="s">
+        <v>934</v>
       </c>
       <c r="E531" s="1" t="s">
         <v>58</v>
@@ -16115,31 +16118,31 @@
         <v>1017</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>1017026</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="C532" s="1">
-        <v>26</v>
-      </c>
-      <c r="D532" s="5" t="s">
+      <c r="A532" s="7" t="str">
+        <f>F532 &amp; TEXT(C532,"000")</f>
+        <v>1002029</v>
+      </c>
+      <c r="B532" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="E532" s="1" t="s">
+      <c r="C532" s="7">
+        <v>29</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E532" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F532" s="1">
-        <v>1017</v>
+      <c r="F532" s="7">
+        <v>1002</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>884</v>
+        <v>129</v>
       </c>
     </row>
     <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16610,7 +16613,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -16957,198 +16959,197 @@
     <hyperlink ref="D343" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
     <hyperlink ref="D344" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
     <hyperlink ref="D345" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="D346" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="D347" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="D348" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="D349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="D350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="D351" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="D352" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="D353" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="D354" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="D355" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="D356" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="D357" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="D358" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="D359" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="D360" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="D361" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="D362" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="D363" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="D364" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="D365" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="D366" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="D367" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="D368" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="D369" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="D370" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="D371" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="D372" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="D373" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="D374" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="D375" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="D376" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="D377" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="D378" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="D379" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="D380" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="D381" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="D382" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="D383" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="D384" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="D385" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="D386" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="D387" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="D388" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="D389" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="D390" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="D391" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="D392" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="D393" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="D394" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="D395" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="D396" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="D397" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="D398" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="D399" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="D400" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="D401" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="D402" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="D403" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="D404" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="D405" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="D406" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="D407" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="D408" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="D409" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="D410" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="D411" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="D412" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="D413" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="D414" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="D415" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="D416" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="D417" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="D418" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="D419" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="D420" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="D421" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="D422" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="D423" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="D424" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="D425" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="D426" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="D427" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="D428" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="D429" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="D430" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="D431" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="D432" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="D433" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="D434" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="D435" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="D436" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="D437" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="D438" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="D439" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="D440" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="D441" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="D442" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="D443" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="D444" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="D445" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="D446" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="D447" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="D448" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="D449" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="D450" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="D451" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="D452" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="D453" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="D454" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="D455" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="D456" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="D457" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="D458" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="D459" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="D460" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="D461" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="D462" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="D463" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="D464" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="D465" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="D466" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="D467" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="D468" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="D469" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="D470" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="D471" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="D472" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="D473" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="D474" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="D475" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="D476" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="D477" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="D478" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="D479" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="D480" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="D481" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="D482" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="D483" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="D484" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="D485" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="D486" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="D487" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="D488" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="D489" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="D490" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="D491" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="D492" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="D493" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="D494" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="D495" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="D496" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="D497" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="D498" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="D499" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="D500" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="D501" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="D502" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="D503" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="D504" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="D505" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="D506" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="D507" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="D508" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="D509" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="D510" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="D511" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="D512" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="D513" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="D514" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="D515" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="D516" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="D517" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="D518" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="D519" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="D520" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
-    <hyperlink ref="D521" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
-    <hyperlink ref="D522" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
-    <hyperlink ref="D523" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
-    <hyperlink ref="D524" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
-    <hyperlink ref="D525" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
-    <hyperlink ref="D526" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
-    <hyperlink ref="D527" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
-    <hyperlink ref="D528" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="D529" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="D530" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="D531" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="D532" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="D346" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="D347" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="D348" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="D349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="D350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="D351" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="D352" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="D353" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="D354" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="D355" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="D356" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="D357" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="D358" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="D359" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="D360" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="D361" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="D362" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="D363" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="D364" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="D365" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="D366" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="D367" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="D368" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="D369" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="D370" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="D371" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="D372" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="D373" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="D374" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="D375" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="D376" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="D377" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="D378" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="D379" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="D380" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="D381" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="D382" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="D383" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="D384" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="D385" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="D386" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="D387" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="D388" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="D389" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="D390" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="D391" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="D392" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="D393" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="D394" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="D395" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="D396" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="D397" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="D398" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="D399" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="D400" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="D401" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="D402" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="D403" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="D404" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="D405" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="D406" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="D407" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="D408" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="D409" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="D410" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="D411" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="D412" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="D413" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="D414" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="D415" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="D416" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="D417" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="D418" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="D419" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="D420" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="D421" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="D422" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="D423" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="D424" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="D425" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="D426" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="D427" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="D428" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="D429" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="D430" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="D431" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="D432" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="D433" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="D434" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="D435" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="D436" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="D437" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="D438" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="D439" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="D440" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="D441" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="D442" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="D443" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="D444" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="D445" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="D446" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="D447" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="D448" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="D449" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="D450" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="D451" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="D452" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="D453" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="D454" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="D455" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="D456" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="D457" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="D458" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="D459" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="D460" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="D461" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="D462" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="D463" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="D464" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="D465" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="D466" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="D467" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="D468" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="D469" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="D470" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="D471" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="D472" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="D473" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="D474" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="D475" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="D476" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="D477" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="D478" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="D479" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="D480" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="D481" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="D482" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="D483" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="D484" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="D485" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="D486" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="D487" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="D488" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="D489" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="D490" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="D491" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="D492" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="D493" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="D494" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="D495" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="D496" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="D497" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="D498" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="D499" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="D500" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="D501" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="D502" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="D503" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="D504" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="D505" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="D506" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="D507" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="D508" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="D509" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="D510" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="D511" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="D512" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="D513" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="D514" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="D515" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="D516" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="D517" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="D518" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="D519" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="D520" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="D521" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="D522" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="D523" r:id="rId522" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="D524" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="D525" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="D526" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="D527" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="D528" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="D529" r:id="rId528" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="D530" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="D531" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">
-    <tablePart r:id="rId532"/>
+    <tablePart r:id="rId531"/>
   </tableParts>
 </worksheet>
 </file>